--- a/results/results_all.xlsx
+++ b/results/results_all.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2202,7 +2202,7 @@
         <v>-0.0007985377770228044</v>
       </c>
       <c r="D58">
-        <v>0.0002388275404688418</v>
+        <v>0.0002388275404688417</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>-0.0001580338156963056</v>
+        <v>-0.0001580338156963054</v>
       </c>
       <c r="B59">
         <v>0.0002557868869487201</v>
@@ -2234,7 +2234,7 @@
         <v>-0.0006696075895937457</v>
       </c>
       <c r="D59">
-        <v>0.0003535399582011346</v>
+        <v>0.0003535399582011348</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2260,13 +2260,13 @@
         <v>-0.0004958122005134845</v>
       </c>
       <c r="B60">
-        <v>0.0002309732594201849</v>
+        <v>0.000230973259420185</v>
       </c>
       <c r="C60">
         <v>-0.0009577587193538544</v>
       </c>
       <c r="D60">
-        <v>-3.38656816731146e-05</v>
+        <v>-3.386568167311455e-05</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2289,16 +2289,16 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.0003769193900270411</v>
+        <v>0.000376919390027041</v>
       </c>
       <c r="B61">
         <v>0.0002405003157098544</v>
       </c>
       <c r="C61">
-        <v>-0.0001040812413926676</v>
+        <v>-0.0001040812413926677</v>
       </c>
       <c r="D61">
-        <v>0.0008579200214467498</v>
+        <v>0.0008579200214467497</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>-0.0007985377770228044</v>
       </c>
       <c r="D62">
-        <v>0.0002388275404688418</v>
+        <v>0.0002388275404688417</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>-0.0004378889339732869</v>
+        <v>-0.0004378889339732867</v>
       </c>
       <c r="B63">
         <v>0.0004089220968093324</v>
@@ -2362,7 +2362,7 @@
         <v>-0.001255733127591952</v>
       </c>
       <c r="D63">
-        <v>0.0003799552596453779</v>
+        <v>0.0003799552596453781</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2385,16 +2385,16 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>-0.0009337011344867714</v>
+        <v>-0.0009337011344867712</v>
       </c>
       <c r="B64">
-        <v>0.0004235479473997479</v>
+        <v>0.000423547947399748</v>
       </c>
       <c r="C64">
         <v>-0.001780797029286267</v>
       </c>
       <c r="D64">
-        <v>-8.660523968727568e-05</v>
+        <v>-8.660523968727525e-05</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>-0.0005567817444597303</v>
+        <v>-0.0005567817444597302</v>
       </c>
       <c r="B65">
-        <v>0.0004216690001475089</v>
+        <v>0.000421669000147509</v>
       </c>
       <c r="C65">
         <v>-0.001400119744754748</v>
       </c>
       <c r="D65">
-        <v>0.0002865562558352875</v>
+        <v>0.0002865562558352878</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3473,20 +3473,20 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>5.270349963999711e-05</v>
+        <v>-8.329628160313793e-05</v>
       </c>
       <c r="B98">
-        <v>0.0001932401713188734</v>
+        <v>0.0001261472515242976</v>
       </c>
       <c r="C98">
-        <v>-0.0003337768429977498</v>
+        <v>-0.0003355907846517331</v>
       </c>
       <c r="D98">
-        <v>0.000439183842277744</v>
+        <v>0.0001689982214454573</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3499,26 +3499,26 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Cambodia</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.0004057733158628103</v>
+        <v>5.01542783241575e-05</v>
       </c>
       <c r="B99">
-        <v>0.0002410947380546267</v>
+        <v>0.0001308392860655335</v>
       </c>
       <c r="C99">
-        <v>-7.641616024644317e-05</v>
+        <v>-0.0002115242938069094</v>
       </c>
       <c r="D99">
-        <v>0.0008879627919720638</v>
+        <v>0.0003118328504552244</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3531,26 +3531,26 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Cambodia</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.0001953881128712777</v>
+        <v>-0.0001079564476124721</v>
       </c>
       <c r="B100">
-        <v>0.0003271890226135067</v>
+        <v>9.221564049034663e-05</v>
       </c>
       <c r="C100">
-        <v>-0.0004589899323557357</v>
+        <v>-0.0002923877285931653</v>
       </c>
       <c r="D100">
-        <v>0.000849766158098291</v>
+        <v>7.647483336822119e-05</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3563,26 +3563,26 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Cambodia</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.0004182656158460371</v>
+        <v>-6.314186297792657e-05</v>
       </c>
       <c r="B101">
-        <v>0.0003680497487456201</v>
+        <v>9.085026289959544e-05</v>
       </c>
       <c r="C101">
-        <v>-0.0003178338816452031</v>
+        <v>-0.0002448423887771175</v>
       </c>
       <c r="D101">
-        <v>0.001154365113337277</v>
+        <v>0.0001185586628212643</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3595,26 +3595,26 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Cambodia</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>5.270349963999711e-05</v>
+        <v>-8.329628160313793e-05</v>
       </c>
       <c r="B102">
-        <v>0.0001932401713188734</v>
+        <v>0.0001261472515242976</v>
       </c>
       <c r="C102">
-        <v>-0.0003337768429977498</v>
+        <v>-0.0003355907846517331</v>
       </c>
       <c r="D102">
-        <v>0.000439183842277744</v>
+        <v>0.0001689982214454573</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3627,26 +3627,26 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Cambodia</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.0004584768155028074</v>
+        <v>-3.314200327898042e-05</v>
       </c>
       <c r="B103">
-        <v>0.0003639746189588225</v>
+        <v>0.0001731986515199184</v>
       </c>
       <c r="C103">
-        <v>-0.0002694724224148376</v>
+        <v>-0.0003795393063188173</v>
       </c>
       <c r="D103">
-        <v>0.001186426053420452</v>
+        <v>0.0003132552997608564</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3659,26 +3659,26 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Cambodia</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.0006538649283740852</v>
+        <v>-0.0001410984508914525</v>
       </c>
       <c r="B104">
-        <v>0.0005748764351156644</v>
+        <v>0.0002343964099557448</v>
       </c>
       <c r="C104">
-        <v>-0.0004958879418572436</v>
+        <v>-0.0006098912708029421</v>
       </c>
       <c r="D104">
-        <v>0.001803617798605414</v>
+        <v>0.0003276943690200371</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3691,26 +3691,26 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Cambodia</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.001072130544220122</v>
+        <v>-0.0002042403138693791</v>
       </c>
       <c r="B105">
-        <v>0.0007894000979608574</v>
+        <v>0.0002912292931676571</v>
       </c>
       <c r="C105">
-        <v>-0.0005066696517015926</v>
+        <v>-0.0007866989002046933</v>
       </c>
       <c r="D105">
-        <v>0.002650930740141837</v>
+        <v>0.0003782182724659351</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3723,26 +3723,26 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Cambodia</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>-8.329628160313821e-05</v>
+        <v>0.0001600098409669469</v>
       </c>
       <c r="B106">
-        <v>0.0001261472515242977</v>
+        <v>8.738999640557677e-05</v>
       </c>
       <c r="C106">
-        <v>-0.0003355907846517336</v>
+        <v>-1.477015184420664e-05</v>
       </c>
       <c r="D106">
-        <v>0.0001689982214454571</v>
+        <v>0.0003347898337781004</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3755,26 +3755,26 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>5.015427832415745e-05</v>
+        <v>-6.51901649927868e-05</v>
       </c>
       <c r="B107">
-        <v>0.0001308392860655335</v>
+        <v>9.784754447187811e-05</v>
       </c>
       <c r="C107">
-        <v>-0.0002115242938069095</v>
+        <v>-0.000260885253936543</v>
       </c>
       <c r="D107">
-        <v>0.0003118328504552244</v>
+        <v>0.0001305049239509694</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3787,26 +3787,26 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>-0.0001079564476124721</v>
+        <v>7.599014462605344e-05</v>
       </c>
       <c r="B108">
-        <v>9.221564049034659e-05</v>
+        <v>9.291174007802921e-05</v>
       </c>
       <c r="C108">
-        <v>-0.0002923877285931653</v>
+        <v>-0.000109833335530005</v>
       </c>
       <c r="D108">
-        <v>7.647483336822106e-05</v>
+        <v>0.0002618136247821119</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3819,26 +3819,26 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>-6.314186297792673e-05</v>
+        <v>4.029695281470268e-05</v>
       </c>
       <c r="B109">
-        <v>9.085026289959543e-05</v>
+        <v>0.0001019798656264066</v>
       </c>
       <c r="C109">
-        <v>-0.0002448423887771176</v>
+        <v>-0.0001636627784381106</v>
       </c>
       <c r="D109">
-        <v>0.0001185586628212641</v>
+        <v>0.0002442566840675159</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3851,26 +3851,26 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>-8.329628160313821e-05</v>
+        <v>0.0001600098409669469</v>
       </c>
       <c r="B110">
-        <v>0.0001261472515242977</v>
+        <v>8.738999640557677e-05</v>
       </c>
       <c r="C110">
-        <v>-0.0003355907846517336</v>
+        <v>-1.477015184420664e-05</v>
       </c>
       <c r="D110">
-        <v>0.0001689982214454571</v>
+        <v>0.0003347898337781004</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3883,26 +3883,26 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>-3.314200327898076e-05</v>
+        <v>9.48196759741601e-05</v>
       </c>
       <c r="B111">
-        <v>0.0001731986515199186</v>
+        <v>0.0001305713433871719</v>
       </c>
       <c r="C111">
-        <v>-0.000379539306318818</v>
+        <v>-0.0001663230108001838</v>
       </c>
       <c r="D111">
-        <v>0.0003132552997608565</v>
+        <v>0.000355962362748504</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3915,26 +3915,26 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>-0.0001410984508914529</v>
+        <v>0.0001708098206002136</v>
       </c>
       <c r="B112">
-        <v>0.0002343964099557449</v>
+        <v>0.0001697116400276326</v>
       </c>
       <c r="C112">
-        <v>-0.0006098912708029428</v>
+        <v>-0.0001686134594550517</v>
       </c>
       <c r="D112">
-        <v>0.000327694369020037</v>
+        <v>0.0005102331006554788</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -3947,26 +3947,26 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>-0.0002042403138693796</v>
+        <v>0.0002111067734149162</v>
       </c>
       <c r="B113">
-        <v>0.0002912292931676572</v>
+        <v>0.0002128242972889795</v>
       </c>
       <c r="C113">
-        <v>-0.0007866989002046939</v>
+        <v>-0.0002145418211630428</v>
       </c>
       <c r="D113">
-        <v>0.0003782182724659348</v>
+        <v>0.0006367553679928752</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3979,26 +3979,26 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.0001600098409669469</v>
+        <v>-4.621102336887992e-06</v>
       </c>
       <c r="B114">
-        <v>8.738999640557677e-05</v>
+        <v>9.544557801140506e-05</v>
       </c>
       <c r="C114">
-        <v>-1.477015184420664e-05</v>
+        <v>-0.0001955122583596981</v>
       </c>
       <c r="D114">
-        <v>0.0003347898337781004</v>
+        <v>0.0001862700536859221</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4011,26 +4011,26 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>-6.51901649927868e-05</v>
+        <v>6.945656383391115e-05</v>
       </c>
       <c r="B115">
-        <v>9.784754447187811e-05</v>
+        <v>6.65349660766421e-05</v>
       </c>
       <c r="C115">
-        <v>-0.000260885253936543</v>
+        <v>-6.361336831937305e-05</v>
       </c>
       <c r="D115">
-        <v>0.0001305049239509694</v>
+        <v>0.0002025264959871953</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4043,26 +4043,26 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>7.599014462605344e-05</v>
+        <v>4.206773581429913e-05</v>
       </c>
       <c r="B116">
-        <v>9.291174007802921e-05</v>
+        <v>8.973176417761919e-05</v>
       </c>
       <c r="C116">
-        <v>-0.000109833335530005</v>
+        <v>-0.0001373957925409392</v>
       </c>
       <c r="D116">
-        <v>0.0002618136247821119</v>
+        <v>0.0002215312641695375</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4075,26 +4075,26 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>4.029695281470268e-05</v>
+        <v>-6.833634016739992e-05</v>
       </c>
       <c r="B117">
-        <v>0.0001019798656264066</v>
+        <v>7.794303558465899e-05</v>
       </c>
       <c r="C117">
-        <v>-0.0001636627784381106</v>
+        <v>-0.0002242224113367179</v>
       </c>
       <c r="D117">
-        <v>0.0002442566840675159</v>
+        <v>8.754973100191807e-05</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4107,26 +4107,26 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.0001600098409669469</v>
+        <v>-4.621102336887992e-06</v>
       </c>
       <c r="B118">
-        <v>8.738999640557677e-05</v>
+        <v>9.544557801140506e-05</v>
       </c>
       <c r="C118">
-        <v>-1.477015184420664e-05</v>
+        <v>-0.0001955122583596981</v>
       </c>
       <c r="D118">
-        <v>0.0003347898337781004</v>
+        <v>0.0001862700536859221</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4139,26 +4139,26 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>9.48196759741601e-05</v>
+        <v>6.483546149702316e-05</v>
       </c>
       <c r="B119">
-        <v>0.0001305713433871719</v>
+        <v>0.0001314303984770072</v>
       </c>
       <c r="C119">
-        <v>-0.0001663230108001838</v>
+        <v>-0.0001980253354569913</v>
       </c>
       <c r="D119">
-        <v>0.000355962362748504</v>
+        <v>0.0003276962584510376</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4171,26 +4171,26 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.0001708098206002136</v>
+        <v>0.0001069031973113223</v>
       </c>
       <c r="B120">
-        <v>0.0001697116400276326</v>
+        <v>0.0001875111671262138</v>
       </c>
       <c r="C120">
-        <v>-0.0001686134594550517</v>
+        <v>-0.0002681191369411053</v>
       </c>
       <c r="D120">
-        <v>0.0005102331006554788</v>
+        <v>0.0004819255315637498</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4203,26 +4203,26 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.0002111067734149162</v>
+        <v>3.856685714392237e-05</v>
       </c>
       <c r="B121">
-        <v>0.0002128242972889795</v>
+        <v>0.0002397145697845079</v>
       </c>
       <c r="C121">
-        <v>-0.0002145418211630428</v>
+        <v>-0.0004408622824250934</v>
       </c>
       <c r="D121">
-        <v>0.0006367553679928752</v>
+        <v>0.0005179959967129381</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4235,26 +4235,26 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>-4.621102336887992e-06</v>
+        <v>-0.0002958979485019145</v>
       </c>
       <c r="B122">
-        <v>9.544557801140506e-05</v>
+        <v>0.0001433880603583464</v>
       </c>
       <c r="C122">
-        <v>-0.0001955122583596981</v>
+        <v>-0.0005826740692186072</v>
       </c>
       <c r="D122">
-        <v>0.0001862700536859221</v>
+        <v>-9.12182778522178e-06</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4267,26 +4267,26 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>6.945656383391115e-05</v>
+        <v>2.887935598563839e-05</v>
       </c>
       <c r="B123">
-        <v>6.65349660766421e-05</v>
+        <v>0.0001308276144194632</v>
       </c>
       <c r="C123">
-        <v>-6.361336831937305e-05</v>
+        <v>-0.0002327758728532879</v>
       </c>
       <c r="D123">
-        <v>0.0002025264959871953</v>
+        <v>0.0002905345848245647</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4299,26 +4299,26 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>4.206773581429913e-05</v>
+        <v>-0.0002412960889546057</v>
       </c>
       <c r="B124">
-        <v>8.973176417761919e-05</v>
+        <v>0.0001140658900407095</v>
       </c>
       <c r="C124">
-        <v>-0.0001373957925409392</v>
+        <v>-0.0004694278690360246</v>
       </c>
       <c r="D124">
-        <v>0.0002215312641695375</v>
+        <v>-1.316430887318676e-05</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4331,26 +4331,26 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>-6.833634016739992e-05</v>
+        <v>0.0001782542696896991</v>
       </c>
       <c r="B125">
-        <v>7.794303558465899e-05</v>
+        <v>0.0001416885683532867</v>
       </c>
       <c r="C125">
-        <v>-0.0002242224113367179</v>
+        <v>-0.0001051228670168743</v>
       </c>
       <c r="D125">
-        <v>8.754973100191807e-05</v>
+        <v>0.0004616314063962725</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4363,26 +4363,26 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>-4.621102336887992e-06</v>
+        <v>-0.0002958979485019145</v>
       </c>
       <c r="B126">
-        <v>9.544557801140506e-05</v>
+        <v>0.0001433880603583464</v>
       </c>
       <c r="C126">
-        <v>-0.0001955122583596981</v>
+        <v>-0.0005826740692186072</v>
       </c>
       <c r="D126">
-        <v>0.0001862700536859221</v>
+        <v>-9.12182778522178e-06</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4395,26 +4395,26 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>6.483546149702316e-05</v>
+        <v>-0.0002670185925162761</v>
       </c>
       <c r="B127">
-        <v>0.0001314303984770072</v>
+        <v>0.0001402499431463896</v>
       </c>
       <c r="C127">
-        <v>-0.0001980253354569913</v>
+        <v>-0.0005475184788090552</v>
       </c>
       <c r="D127">
-        <v>0.0003276962584510376</v>
+        <v>1.348129377650304e-05</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4427,26 +4427,26 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.0001069031973113223</v>
+        <v>-0.0005083146814708818</v>
       </c>
       <c r="B128">
-        <v>0.0001875111671262138</v>
+        <v>0.0002172806411879344</v>
       </c>
       <c r="C128">
-        <v>-0.0002681191369411053</v>
+        <v>-0.0009428759638467506</v>
       </c>
       <c r="D128">
-        <v>0.0004819255315637498</v>
+        <v>-7.375339909501303e-05</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4459,26 +4459,26 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>3.856685714392237e-05</v>
+        <v>-0.0003300604117811827</v>
       </c>
       <c r="B129">
-        <v>0.0002397145697845079</v>
+        <v>0.0003103062017320433</v>
       </c>
       <c r="C129">
-        <v>-0.0004408622824250934</v>
+        <v>-0.0009506728152452694</v>
       </c>
       <c r="D129">
-        <v>0.0005179959967129381</v>
+        <v>0.0002905519916829039</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4491,26 +4491,26 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>-0.0002958979485019145</v>
+        <v>0.0007186244095048906</v>
       </c>
       <c r="B130">
-        <v>0.0001433880603583464</v>
+        <v>0.0003623520889349948</v>
       </c>
       <c r="C130">
-        <v>-0.0005826740692186072</v>
+        <v>-6.079768365099066e-06</v>
       </c>
       <c r="D130">
-        <v>-9.12182778522178e-06</v>
+        <v>0.00144332858737488</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4523,26 +4523,26 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>2.887935598563839e-05</v>
+        <v>0.0003759268794109274</v>
       </c>
       <c r="B131">
-        <v>0.0001308276144194632</v>
+        <v>0.0002871500062930148</v>
       </c>
       <c r="C131">
-        <v>-0.0002327758728532879</v>
+        <v>-0.0001983731331751022</v>
       </c>
       <c r="D131">
-        <v>0.0002905345848245647</v>
+        <v>0.0009502268919969572</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4555,26 +4555,26 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>-0.0002412960889546057</v>
+        <v>-0.0001508709861610664</v>
       </c>
       <c r="B132">
-        <v>0.0001140658900407095</v>
+        <v>0.0002741372255415052</v>
       </c>
       <c r="C132">
-        <v>-0.0004694278690360246</v>
+        <v>-0.0006991454372440767</v>
       </c>
       <c r="D132">
-        <v>-1.316430887318676e-05</v>
+        <v>0.0003974034649219439</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4587,26 +4587,26 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.0001782542696896991</v>
+        <v>-0.0007085297012435315</v>
       </c>
       <c r="B133">
-        <v>0.0001416885683532867</v>
+        <v>0.0001293383969041967</v>
       </c>
       <c r="C133">
-        <v>-0.0001051228670168743</v>
+        <v>-0.0009672064950519248</v>
       </c>
       <c r="D133">
-        <v>0.0004616314063962725</v>
+        <v>-0.0004498529074351382</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4619,26 +4619,26 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>-0.0002958979485019145</v>
+        <v>0.0007186244095048906</v>
       </c>
       <c r="B134">
-        <v>0.0001433880603583464</v>
+        <v>0.0003623520889349948</v>
       </c>
       <c r="C134">
-        <v>-0.0005826740692186072</v>
+        <v>-6.079768365099066e-06</v>
       </c>
       <c r="D134">
-        <v>-9.12182778522178e-06</v>
+        <v>0.00144332858737488</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4651,26 +4651,26 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>-0.0002670185925162761</v>
+        <v>0.001094551288915818</v>
       </c>
       <c r="B135">
-        <v>0.0001402499431463896</v>
+        <v>0.0004473540960576364</v>
       </c>
       <c r="C135">
-        <v>-0.0005475184788090552</v>
+        <v>0.0001998430968005451</v>
       </c>
       <c r="D135">
-        <v>1.348129377650304e-05</v>
+        <v>0.001989259481031091</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4683,26 +4683,26 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>-0.0005083146814708818</v>
+        <v>0.0009436803027547516</v>
       </c>
       <c r="B136">
-        <v>0.0002172806411879344</v>
+        <v>0.0005836601359999416</v>
       </c>
       <c r="C136">
-        <v>-0.0009428759638467506</v>
+        <v>-0.0002236399692451316</v>
       </c>
       <c r="D136">
-        <v>-7.375339909501303e-05</v>
+        <v>0.002111000574754635</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4715,26 +4715,26 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>-0.0003300604117811827</v>
+        <v>0.0002351506015112201</v>
       </c>
       <c r="B137">
-        <v>0.0003103062017320433</v>
+        <v>0.0005826989409887663</v>
       </c>
       <c r="C137">
-        <v>-0.0009506728152452694</v>
+        <v>-0.0009302472804663124</v>
       </c>
       <c r="D137">
-        <v>0.0002905519916829039</v>
+        <v>0.001400548483488753</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4747,26 +4747,26 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.0007186244095048902</v>
+        <v>-0.0002761539083881889</v>
       </c>
       <c r="B138">
-        <v>0.0003623520889349955</v>
+        <v>0.0004154844172329852</v>
       </c>
       <c r="C138">
-        <v>-6.0797683651008e-06</v>
+        <v>-0.001107122742854159</v>
       </c>
       <c r="D138">
-        <v>0.001443328587374881</v>
+        <v>0.0005548149260777815</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4779,26 +4779,26 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.000375926879410928</v>
+        <v>-1.752722157707059e-05</v>
       </c>
       <c r="B139">
-        <v>0.0002871500062930146</v>
+        <v>0.0006033423685160042</v>
       </c>
       <c r="C139">
-        <v>-0.0001983731331751011</v>
+        <v>-0.001224211958609079</v>
       </c>
       <c r="D139">
-        <v>0.0009502268919969572</v>
+        <v>0.001189157515454938</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4811,26 +4811,26 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>-0.0001508709861610665</v>
+        <v>0.0005369715182949774</v>
       </c>
       <c r="B140">
-        <v>0.0002741372255415045</v>
+        <v>0.0005061390641778496</v>
       </c>
       <c r="C140">
-        <v>-0.0006991454372440756</v>
+        <v>-0.0004753066100607219</v>
       </c>
       <c r="D140">
-        <v>0.0003974034649219425</v>
+        <v>0.001549249646650677</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4843,26 +4843,26 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>-0.000708529701243531</v>
+        <v>8.266003216878466e-05</v>
       </c>
       <c r="B141">
-        <v>0.000129338396904197</v>
+        <v>0.0006946680851785641</v>
       </c>
       <c r="C141">
-        <v>-0.0009672064950519249</v>
+        <v>-0.001306676138188344</v>
       </c>
       <c r="D141">
-        <v>-0.0004498529074351371</v>
+        <v>0.001471996202525913</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4875,26 +4875,26 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.0007186244095048902</v>
+        <v>-0.0002761539083881889</v>
       </c>
       <c r="B142">
-        <v>0.0003623520889349955</v>
+        <v>0.0004154844172329852</v>
       </c>
       <c r="C142">
-        <v>-6.0797683651008e-06</v>
+        <v>-0.001107122742854159</v>
       </c>
       <c r="D142">
-        <v>0.001443328587374881</v>
+        <v>0.0005548149260777815</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4907,26 +4907,26 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.001094551288915818</v>
+        <v>-0.0002936811299652595</v>
       </c>
       <c r="B143">
-        <v>0.0004473540960576362</v>
+        <v>0.0006961950241041935</v>
       </c>
       <c r="C143">
-        <v>0.000199843096800546</v>
+        <v>-0.001686071178173647</v>
       </c>
       <c r="D143">
-        <v>0.001989259481031091</v>
+        <v>0.001098708918243127</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -4939,26 +4939,26 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.0009436803027547517</v>
+        <v>0.0002432903883297179</v>
       </c>
       <c r="B144">
-        <v>0.0005836601359999418</v>
+        <v>0.001101446344043551</v>
       </c>
       <c r="C144">
-        <v>-0.0002236399692451319</v>
+        <v>-0.001959602299757384</v>
       </c>
       <c r="D144">
-        <v>0.002111000574754635</v>
+        <v>0.00244618307641682</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -4971,26 +4971,26 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.0002351506015112208</v>
+        <v>0.0003259504204985025</v>
       </c>
       <c r="B145">
-        <v>0.0005826989409887664</v>
+        <v>0.001341193193824037</v>
       </c>
       <c r="C145">
-        <v>-0.000930247280466312</v>
+        <v>-0.002356435967149572</v>
       </c>
       <c r="D145">
-        <v>0.001400548483488754</v>
+        <v>0.003008336808146577</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5003,26 +5003,26 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>-0.0002761539083881889</v>
+        <v>3.768192874447931e-05</v>
       </c>
       <c r="B146">
-        <v>0.0004154844172329852</v>
+        <v>0.000213635695524382</v>
       </c>
       <c r="C146">
-        <v>-0.001107122742854159</v>
+        <v>-0.0003895894623042848</v>
       </c>
       <c r="D146">
-        <v>0.0005548149260777815</v>
+        <v>0.0004649533197932434</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5035,26 +5035,26 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>-1.752722157707059e-05</v>
+        <v>-0.0003221743496240653</v>
       </c>
       <c r="B147">
-        <v>0.0006033423685160042</v>
+        <v>0.00019408836434602</v>
       </c>
       <c r="C147">
-        <v>-0.001224211958609079</v>
+        <v>-0.0007103510783161052</v>
       </c>
       <c r="D147">
-        <v>0.001189157515454938</v>
+        <v>6.600237906797472e-05</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5067,26 +5067,26 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.0005369715182949774</v>
+        <v>-0.0002030573979764458</v>
       </c>
       <c r="B148">
-        <v>0.0005061390641778496</v>
+        <v>0.0001354298767686873</v>
       </c>
       <c r="C148">
-        <v>-0.0004753066100607219</v>
+        <v>-0.0004739171515138205</v>
       </c>
       <c r="D148">
-        <v>0.001549249646650677</v>
+        <v>6.780235556092887e-05</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5099,26 +5099,26 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>8.266003216878466e-05</v>
+        <v>5.108612217723348e-06</v>
       </c>
       <c r="B149">
-        <v>0.0006946680851785641</v>
+        <v>0.0001305935975768224</v>
       </c>
       <c r="C149">
-        <v>-0.001306676138188344</v>
+        <v>-0.0002560785829359215</v>
       </c>
       <c r="D149">
-        <v>0.001471996202525913</v>
+        <v>0.0002662958073713682</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5131,26 +5131,26 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>-0.0002761539083881889</v>
+        <v>3.768192874447931e-05</v>
       </c>
       <c r="B150">
-        <v>0.0004154844172329852</v>
+        <v>0.000213635695524382</v>
       </c>
       <c r="C150">
-        <v>-0.001107122742854159</v>
+        <v>-0.0003895894623042848</v>
       </c>
       <c r="D150">
-        <v>0.0005548149260777815</v>
+        <v>0.0004649533197932434</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5163,26 +5163,26 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>-0.0002936811299652595</v>
+        <v>-0.000284492420879586</v>
       </c>
       <c r="B151">
-        <v>0.0006961950241041935</v>
+        <v>0.0003752041218640578</v>
       </c>
       <c r="C151">
-        <v>-0.001686071178173647</v>
+        <v>-0.001034900664607701</v>
       </c>
       <c r="D151">
-        <v>0.001098708918243127</v>
+        <v>0.0004659158228485296</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5195,26 +5195,26 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.0002432903883297179</v>
+        <v>-0.0004875498188560317</v>
       </c>
       <c r="B152">
-        <v>0.001101446344043551</v>
+        <v>0.0004820042940880693</v>
       </c>
       <c r="C152">
-        <v>-0.001959602299757384</v>
+        <v>-0.00145155840703217</v>
       </c>
       <c r="D152">
-        <v>0.00244618307641682</v>
+        <v>0.0004764587693201069</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5227,26 +5227,26 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.0003259504204985025</v>
+        <v>-0.0004824412066383084</v>
       </c>
       <c r="B153">
-        <v>0.001341193193824037</v>
+        <v>0.0005292099431785503</v>
       </c>
       <c r="C153">
-        <v>-0.002356435967149572</v>
+        <v>-0.001540861092995409</v>
       </c>
       <c r="D153">
-        <v>0.003008336808146577</v>
+        <v>0.0005759786797187923</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5259,26 +5259,26 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>3.768192874447931e-05</v>
+        <v>-1.495248612795811e-05</v>
       </c>
       <c r="B154">
-        <v>0.000213635695524382</v>
+        <v>2.485974955207019e-05</v>
       </c>
       <c r="C154">
-        <v>-0.0003895894623042848</v>
+        <v>-6.467198523209848e-05</v>
       </c>
       <c r="D154">
-        <v>0.0004649533197932434</v>
+        <v>3.476701297618226e-05</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5291,26 +5291,26 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>-0.0003221743496240653</v>
+        <v>-8.139181293680893e-06</v>
       </c>
       <c r="B155">
-        <v>0.00019408836434602</v>
+        <v>2.620094069504658e-05</v>
       </c>
       <c r="C155">
-        <v>-0.0007103510783161052</v>
+        <v>-6.054106268377405e-05</v>
       </c>
       <c r="D155">
-        <v>6.600237906797472e-05</v>
+        <v>4.426270009641227e-05</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5323,26 +5323,26 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>-0.0002030573979764458</v>
+        <v>-4.555568964967025e-05</v>
       </c>
       <c r="B156">
-        <v>0.0001354298767686873</v>
+        <v>2.408523901619682e-05</v>
       </c>
       <c r="C156">
-        <v>-0.0004739171515138205</v>
+        <v>-9.372616768206388e-05</v>
       </c>
       <c r="D156">
-        <v>6.780235556092887e-05</v>
+        <v>2.614788382723382e-06</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5355,26 +5355,26 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>5.108612217723348e-06</v>
+        <v>3.479171925928672e-05</v>
       </c>
       <c r="B157">
-        <v>0.0001305935975768224</v>
+        <v>2.805541774086414e-05</v>
       </c>
       <c r="C157">
-        <v>-0.0002560785829359215</v>
+        <v>-2.131911622244157e-05</v>
       </c>
       <c r="D157">
-        <v>0.0002662958073713682</v>
+        <v>9.0902554741015e-05</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5387,26 +5387,26 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>3.768192874447931e-05</v>
+        <v>-1.495248612795811e-05</v>
       </c>
       <c r="B158">
-        <v>0.000213635695524382</v>
+        <v>2.485974955207019e-05</v>
       </c>
       <c r="C158">
-        <v>-0.0003895894623042848</v>
+        <v>-6.467198523209848e-05</v>
       </c>
       <c r="D158">
-        <v>0.0004649533197932434</v>
+        <v>3.476701297618226e-05</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5419,26 +5419,26 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>-0.000284492420879586</v>
+        <v>-2.3091667421639e-05</v>
       </c>
       <c r="B159">
-        <v>0.0003752041218640578</v>
+        <v>4.028921162501774e-05</v>
       </c>
       <c r="C159">
-        <v>-0.001034900664607701</v>
+        <v>-0.0001036700906716745</v>
       </c>
       <c r="D159">
-        <v>0.0004659158228485296</v>
+        <v>5.748675582839648e-05</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5451,26 +5451,26 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>-0.0004875498188560317</v>
+        <v>-6.864735707130926e-05</v>
       </c>
       <c r="B160">
-        <v>0.0004820042940880693</v>
+        <v>4.87019479119498e-05</v>
       </c>
       <c r="C160">
-        <v>-0.00145155840703217</v>
+        <v>-0.0001660512528952089</v>
       </c>
       <c r="D160">
-        <v>0.0004764587693201069</v>
+        <v>2.875653875259034e-05</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5483,26 +5483,26 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>-0.0004824412066383084</v>
+        <v>-3.385563781202254e-05</v>
       </c>
       <c r="B161">
-        <v>0.0005292099431785503</v>
+        <v>6.04796976962544e-05</v>
       </c>
       <c r="C161">
-        <v>-0.001540861092995409</v>
+        <v>-0.0001548150332045313</v>
       </c>
       <c r="D161">
-        <v>0.0005759786797187923</v>
+        <v>8.710375758048627e-05</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5515,26 +5515,26 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>-1.495248612795826e-05</v>
+        <v>0.0001108062181800446</v>
       </c>
       <c r="B162">
-        <v>2.485974955207019e-05</v>
+        <v>0.0005982001220852558</v>
       </c>
       <c r="C162">
-        <v>-6.467198523209864e-05</v>
+        <v>-0.001085594025990467</v>
       </c>
       <c r="D162">
-        <v>3.476701297618211e-05</v>
+        <v>0.001307206462350556</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5547,26 +5547,26 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>-8.139181293680878e-06</v>
+        <v>2.670676433164622e-05</v>
       </c>
       <c r="B163">
-        <v>2.62009406950466e-05</v>
+        <v>0.000583170683998453</v>
       </c>
       <c r="C163">
-        <v>-6.054106268377407e-05</v>
+        <v>-0.00113963460366526</v>
       </c>
       <c r="D163">
-        <v>4.426270009641232e-05</v>
+        <v>0.001193048132328552</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5579,26 +5579,26 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>-4.555568964967035e-05</v>
+        <v>0.001026755092336722</v>
       </c>
       <c r="B164">
-        <v>2.40852390161968e-05</v>
+        <v>0.0007437018399984686</v>
       </c>
       <c r="C164">
-        <v>-9.372616768206394e-05</v>
+        <v>-0.0004606485876602149</v>
       </c>
       <c r="D164">
-        <v>2.614788382723253e-06</v>
+        <v>0.00251415877233366</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5611,26 +5611,26 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>3.479171925928656e-05</v>
+        <v>0.0006718477207422444</v>
       </c>
       <c r="B165">
-        <v>2.805541774086417e-05</v>
+        <v>0.0006658020152341537</v>
       </c>
       <c r="C165">
-        <v>-2.131911622244179e-05</v>
+        <v>-0.0006597563097260631</v>
       </c>
       <c r="D165">
-        <v>9.09025547410149e-05</v>
+        <v>0.002003451751210552</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5643,26 +5643,26 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>-1.495248612795826e-05</v>
+        <v>0.0001108062181800446</v>
       </c>
       <c r="B166">
-        <v>2.485974955207019e-05</v>
+        <v>0.0005982001220852558</v>
       </c>
       <c r="C166">
-        <v>-6.467198523209864e-05</v>
+        <v>-0.001085594025990467</v>
       </c>
       <c r="D166">
-        <v>3.476701297618211e-05</v>
+        <v>0.001307206462350556</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5675,26 +5675,26 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>-2.309166742163914e-05</v>
+        <v>0.0001375129825116908</v>
       </c>
       <c r="B167">
-        <v>4.028921162501775e-05</v>
+        <v>0.0007993908834266795</v>
       </c>
       <c r="C167">
-        <v>-0.0001036700906716746</v>
+        <v>-0.001461268784341668</v>
       </c>
       <c r="D167">
-        <v>5.748675582839636e-05</v>
+        <v>0.00173629474936505</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5707,26 +5707,26 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>-6.864735707130949e-05</v>
+        <v>0.001164268074848413</v>
       </c>
       <c r="B168">
-        <v>4.870194791194981e-05</v>
+        <v>0.001356838251206308</v>
       </c>
       <c r="C168">
-        <v>-0.0001660512528952091</v>
+        <v>-0.001549408427564203</v>
       </c>
       <c r="D168">
-        <v>2.875653875259013e-05</v>
+        <v>0.003877944577261029</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5739,26 +5739,26 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>-3.385563781202293e-05</v>
+        <v>0.001836115795590658</v>
       </c>
       <c r="B169">
-        <v>6.047969769625438e-05</v>
+        <v>0.001449406958008557</v>
       </c>
       <c r="C169">
-        <v>-0.0001548150332045317</v>
+        <v>-0.001062698120426456</v>
       </c>
       <c r="D169">
-        <v>8.710375758048583e-05</v>
+        <v>0.004734929711607771</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5771,26 +5771,26 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.0001108062181800446</v>
+        <v>0.0003445691146056464</v>
       </c>
       <c r="B170">
-        <v>0.0005982001220852558</v>
+        <v>0.002717759209977846</v>
       </c>
       <c r="C170">
-        <v>-0.001085594025990467</v>
+        <v>-0.005090949305350046</v>
       </c>
       <c r="D170">
-        <v>0.001307206462350556</v>
+        <v>0.005780087534561339</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5803,26 +5803,26 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Somalia</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>2.670676433164622e-05</v>
+        <v>-0.005951130677716776</v>
       </c>
       <c r="B171">
-        <v>0.000583170683998453</v>
+        <v>0.001679994444941705</v>
       </c>
       <c r="C171">
-        <v>-0.00113963460366526</v>
+        <v>-0.009311119567600185</v>
       </c>
       <c r="D171">
-        <v>0.001193048132328552</v>
+        <v>-0.002591141787833366</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5835,26 +5835,26 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Somalia</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.001026755092336722</v>
+        <v>-0.0008627245322058249</v>
       </c>
       <c r="B172">
-        <v>0.0007437018399984686</v>
+        <v>0.002895265311211821</v>
       </c>
       <c r="C172">
-        <v>-0.0004606485876602149</v>
+        <v>-0.006653255154629467</v>
       </c>
       <c r="D172">
-        <v>0.00251415877233366</v>
+        <v>0.004927806090217817</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5867,26 +5867,26 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Somalia</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.0006718477207422444</v>
+        <v>-0.003851627883814103</v>
       </c>
       <c r="B173">
-        <v>0.0006658020152341537</v>
+        <v>0.002121378372638485</v>
       </c>
       <c r="C173">
-        <v>-0.0006597563097260631</v>
+        <v>-0.008094384629091074</v>
       </c>
       <c r="D173">
-        <v>0.002003451751210552</v>
+        <v>0.0003911288614628673</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -5899,26 +5899,26 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Somalia</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.0001108062181800446</v>
+        <v>0.0003445691146056464</v>
       </c>
       <c r="B174">
-        <v>0.0005982001220852558</v>
+        <v>0.002717759209977846</v>
       </c>
       <c r="C174">
-        <v>-0.001085594025990467</v>
+        <v>-0.005090949305350046</v>
       </c>
       <c r="D174">
-        <v>0.001307206462350556</v>
+        <v>0.005780087534561339</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -5931,26 +5931,26 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Somalia</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.0001375129825116908</v>
+        <v>-0.005606561563111129</v>
       </c>
       <c r="B175">
-        <v>0.0007993908834266795</v>
+        <v>0.003559213738662405</v>
       </c>
       <c r="C175">
-        <v>-0.001461268784341668</v>
+        <v>-0.01272498904043594</v>
       </c>
       <c r="D175">
-        <v>0.00173629474936505</v>
+        <v>0.001511865914213681</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -5963,26 +5963,26 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Somalia</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.001164268074848413</v>
+        <v>-0.006469286095316954</v>
       </c>
       <c r="B176">
-        <v>0.001356838251206308</v>
+        <v>0.004384761716030531</v>
       </c>
       <c r="C176">
-        <v>-0.001549408427564203</v>
+        <v>-0.01523880952737802</v>
       </c>
       <c r="D176">
-        <v>0.003877944577261029</v>
+        <v>0.002300237336744108</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -5995,26 +5995,26 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Somalia</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.001836115795590658</v>
+        <v>-0.01032091397913106</v>
       </c>
       <c r="B177">
-        <v>0.001449406958008557</v>
+        <v>0.005373016087577281</v>
       </c>
       <c r="C177">
-        <v>-0.001062698120426456</v>
+        <v>-0.02106694615428562</v>
       </c>
       <c r="D177">
-        <v>0.004734929711607771</v>
+        <v>0.0004251181960235051</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6027,26 +6027,26 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Somalia</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>0.0003445691146056464</v>
+        <v>-0.0002801823760613004</v>
       </c>
       <c r="B178">
-        <v>0.002717759209977846</v>
+        <v>0.0002183929940153486</v>
       </c>
       <c r="C178">
-        <v>-0.005090949305350046</v>
+        <v>-0.0007169683640919976</v>
       </c>
       <c r="D178">
-        <v>0.005780087534561339</v>
+        <v>0.0001566036119693968</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6059,26 +6059,26 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>-0.005951130677716776</v>
+        <v>0.0001076958476493891</v>
       </c>
       <c r="B179">
-        <v>0.001679994444941705</v>
+        <v>0.0002710891379591441</v>
       </c>
       <c r="C179">
-        <v>-0.009311119567600185</v>
+        <v>-0.0004344824282688992</v>
       </c>
       <c r="D179">
-        <v>-0.002591141787833366</v>
+        <v>0.0006498741235676774</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6091,26 +6091,26 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>-0.0008627245322058249</v>
+        <v>0.0002558501456301635</v>
       </c>
       <c r="B180">
-        <v>0.002895265311211821</v>
+        <v>0.000259921294800485</v>
       </c>
       <c r="C180">
-        <v>-0.006653255154629467</v>
+        <v>-0.0002639924439708065</v>
       </c>
       <c r="D180">
-        <v>0.004927806090217817</v>
+        <v>0.0007756927352311335</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6123,26 +6123,26 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>-0.003851627883814103</v>
+        <v>0.0001745046610530329</v>
       </c>
       <c r="B181">
-        <v>0.002121378372638485</v>
+        <v>0.0003219976642910535</v>
       </c>
       <c r="C181">
-        <v>-0.008094384629091074</v>
+        <v>-0.000469490667529074</v>
       </c>
       <c r="D181">
-        <v>0.0003911288614628673</v>
+        <v>0.0008184999896351398</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6155,26 +6155,26 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.0003445691146056464</v>
+        <v>-0.0002801823760613004</v>
       </c>
       <c r="B182">
-        <v>0.002717759209977846</v>
+        <v>0.0002183929940153486</v>
       </c>
       <c r="C182">
-        <v>-0.005090949305350046</v>
+        <v>-0.0007169683640919976</v>
       </c>
       <c r="D182">
-        <v>0.005780087534561339</v>
+        <v>0.0001566036119693968</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6187,26 +6187,26 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>-0.005606561563111129</v>
+        <v>-0.0001724865284119113</v>
       </c>
       <c r="B183">
-        <v>0.003559213738662405</v>
+        <v>0.0003698938554620979</v>
       </c>
       <c r="C183">
-        <v>-0.01272498904043594</v>
+        <v>-0.000912274239336107</v>
       </c>
       <c r="D183">
-        <v>0.001511865914213681</v>
+        <v>0.0005673011825122845</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6219,26 +6219,26 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>-0.006469286095316954</v>
+        <v>8.336361721825225e-05</v>
       </c>
       <c r="B184">
-        <v>0.004384761716030531</v>
+        <v>0.0005122147473095434</v>
       </c>
       <c r="C184">
-        <v>-0.01523880952737802</v>
+        <v>-0.0009410658774008346</v>
       </c>
       <c r="D184">
-        <v>0.002300237336744108</v>
+        <v>0.001107793111837339</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6251,26 +6251,26 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>-0.01032091397913106</v>
+        <v>0.0002578682782712852</v>
       </c>
       <c r="B185">
-        <v>0.005373016087577281</v>
+        <v>0.000686845532333789</v>
       </c>
       <c r="C185">
-        <v>-0.02106694615428562</v>
+        <v>-0.001115822786396293</v>
       </c>
       <c r="D185">
-        <v>0.0004251181960235051</v>
+        <v>0.001631559342938863</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6283,26 +6283,26 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>-2.46271208365463e-05</v>
+        <v>-0.0003255399962130137</v>
       </c>
       <c r="B186">
-        <v>0.0002392478555952765</v>
+        <v>0.001220212346088533</v>
       </c>
       <c r="C186">
-        <v>-0.0005031228320270993</v>
+        <v>-0.00276596468839008</v>
       </c>
       <c r="D186">
-        <v>0.0004538685903540067</v>
+        <v>0.002114884695964053</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6315,26 +6315,26 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Turks &amp; Caicos Islands</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>-0.0005433363696224211</v>
+        <v>-0.001092551415470048</v>
       </c>
       <c r="B187">
-        <v>0.0002620101760317152</v>
+        <v>0.0003924780000025802</v>
       </c>
       <c r="C187">
-        <v>-0.001067356721685851</v>
+        <v>-0.001877507415475208</v>
       </c>
       <c r="D187">
-        <v>-1.931601755899063e-05</v>
+        <v>-0.0003075954154648873</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6347,26 +6347,26 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Turks &amp; Caicos Islands</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>-2.93356633391173e-05</v>
+        <v>-0.001443819477586229</v>
       </c>
       <c r="B188">
-        <v>0.0001067382300182865</v>
+        <v>0.0005993414203456545</v>
       </c>
       <c r="C188">
-        <v>-0.0002428121233756903</v>
+        <v>-0.002642502318277539</v>
       </c>
       <c r="D188">
-        <v>0.0001841407966974557</v>
+        <v>-0.0002451366368949202</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6379,26 +6379,26 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Turks &amp; Caicos Islands</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>-0.0002721955848404952</v>
+        <v>0.001165124079500144</v>
       </c>
       <c r="B189">
-        <v>0.0001260145954251303</v>
+        <v>0.0005325896934381553</v>
       </c>
       <c r="C189">
-        <v>-0.0005242247756907559</v>
+        <v>9.994469262383375e-05</v>
       </c>
       <c r="D189">
-        <v>-2.01663939902346e-05</v>
+        <v>0.002230303466376455</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6411,26 +6411,26 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Turks &amp; Caicos Islands</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>-2.46271208365463e-05</v>
+        <v>-0.0003255399962130137</v>
       </c>
       <c r="B190">
-        <v>0.0002392478555952765</v>
+        <v>0.001220212346088533</v>
       </c>
       <c r="C190">
-        <v>-0.0005031228320270993</v>
+        <v>-0.00276596468839008</v>
       </c>
       <c r="D190">
-        <v>0.0004538685903540067</v>
+        <v>0.002114884695964053</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6443,26 +6443,26 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Turks &amp; Caicos Islands</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>-0.0005679634904589674</v>
+        <v>-0.001418091411683061</v>
       </c>
       <c r="B191">
-        <v>0.0004891539474321693</v>
+        <v>0.001555714612230872</v>
       </c>
       <c r="C191">
-        <v>-0.001546271385323306</v>
+        <v>-0.004529520636144806</v>
       </c>
       <c r="D191">
-        <v>0.0004103444044053712</v>
+        <v>0.001693337812778683</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6475,26 +6475,26 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Turks &amp; Caicos Islands</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>-0.0005972991537980846</v>
+        <v>-0.002861910889269291</v>
       </c>
       <c r="B192">
-        <v>0.0005642498497253161</v>
+        <v>0.002038172688596714</v>
       </c>
       <c r="C192">
-        <v>-0.001725798853248717</v>
+        <v>-0.006938256266462719</v>
       </c>
       <c r="D192">
-        <v>0.0005312005456525476</v>
+        <v>0.001214434487924138</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6507,26 +6507,26 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Turks &amp; Caicos Islands</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>-0.0008694947386385799</v>
+        <v>-0.001696786809769146</v>
       </c>
       <c r="B193">
-        <v>0.0006183125984026877</v>
+        <v>0.002400021454977347</v>
       </c>
       <c r="C193">
-        <v>-0.002106119935443955</v>
+        <v>-0.006496829719723841</v>
       </c>
       <c r="D193">
-        <v>0.0003671304581667955</v>
+        <v>0.003103256100185549</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6539,26 +6539,26 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Turks &amp; Caicos Islands</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>-0.0002801823760612978</v>
+        <v>0.01239004102737134</v>
       </c>
       <c r="B194">
-        <v>0.0002183929940153484</v>
+        <v>0.01171791694528043</v>
       </c>
       <c r="C194">
-        <v>-0.0007169683640919947</v>
+        <v>-0.01104579286318951</v>
       </c>
       <c r="D194">
-        <v>0.0001566036119693991</v>
+        <v>0.0358258749179322</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -6571,26 +6571,26 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.0001076958476493903</v>
+        <v>0.01084311105926816</v>
       </c>
       <c r="B195">
-        <v>0.0002710891379591444</v>
+        <v>0.01709831033876274</v>
       </c>
       <c r="C195">
-        <v>-0.0004344824282688986</v>
+        <v>-0.02335350961825731</v>
       </c>
       <c r="D195">
-        <v>0.000649874123567679</v>
+        <v>0.04503973173679363</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6603,26 +6603,26 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.0002558501456301647</v>
+        <v>-0.01208473399320212</v>
       </c>
       <c r="B196">
-        <v>0.0002599212948004854</v>
+        <v>0.008327652911081592</v>
       </c>
       <c r="C196">
-        <v>-0.0002639924439708061</v>
+        <v>-0.0287400398153653</v>
       </c>
       <c r="D196">
-        <v>0.0007756927352311357</v>
+        <v>0.004570571828961067</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -6635,26 +6635,26 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.000174504661053034</v>
+        <v>-0.004327011748900472</v>
       </c>
       <c r="B197">
-        <v>0.0003219976642910535</v>
+        <v>0.005785804940952897</v>
       </c>
       <c r="C197">
-        <v>-0.000469490667529073</v>
+        <v>-0.01589862163080627</v>
       </c>
       <c r="D197">
-        <v>0.0008184999896351409</v>
+        <v>0.007244598133005323</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -6667,26 +6667,26 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>-0.0002801823760612978</v>
+        <v>0.01239004102737134</v>
       </c>
       <c r="B198">
-        <v>0.0002183929940153484</v>
+        <v>0.01171791694528043</v>
       </c>
       <c r="C198">
-        <v>-0.0007169683640919947</v>
+        <v>-0.01104579286318951</v>
       </c>
       <c r="D198">
-        <v>0.0001566036119693991</v>
+        <v>0.0358258749179322</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -6699,26 +6699,26 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>-0.0001724865284119075</v>
+        <v>0.0232331520866395</v>
       </c>
       <c r="B199">
-        <v>0.0003698938554620983</v>
+        <v>0.02482919503321251</v>
       </c>
       <c r="C199">
-        <v>-0.0009122742393361042</v>
+        <v>-0.02642523797978552</v>
       </c>
       <c r="D199">
-        <v>0.0005673011825122891</v>
+        <v>0.07289154215306452</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -6731,26 +6731,26 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>8.33636172182572e-05</v>
+        <v>0.01114841809343738</v>
       </c>
       <c r="B200">
-        <v>0.0005122147473095443</v>
+        <v>0.02351353692202052</v>
       </c>
       <c r="C200">
-        <v>-0.0009410658774008314</v>
+        <v>-0.03587865575060366</v>
       </c>
       <c r="D200">
-        <v>0.001107793111837346</v>
+        <v>0.05817549193747843</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -6763,26 +6763,26 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.0002578682782712912</v>
+        <v>0.006821406344536913</v>
       </c>
       <c r="B201">
-        <v>0.0006868455323337892</v>
+        <v>0.02324904089219097</v>
       </c>
       <c r="C201">
-        <v>-0.001115822786396287</v>
+        <v>-0.03967667543984502</v>
       </c>
       <c r="D201">
-        <v>0.001631559342938869</v>
+        <v>0.05331948812891885</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>YEM</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -6795,26 +6795,26 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Yemen</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>-0.0003255399962130176</v>
+        <v>-0.0003021136145960237</v>
       </c>
       <c r="B202">
-        <v>0.001220212346088505</v>
+        <v>0.0002201691816939446</v>
       </c>
       <c r="C202">
-        <v>-0.002765964688390028</v>
+        <v>-0.0007424519779839129</v>
       </c>
       <c r="D202">
-        <v>0.002114884695963993</v>
+        <v>0.0001382247487918655</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -6827,26 +6827,26 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>-0.001092551415470057</v>
+        <v>-0.0005115764106916897</v>
       </c>
       <c r="B203">
-        <v>0.000392478000002561</v>
+        <v>0.0001229328402720404</v>
       </c>
       <c r="C203">
-        <v>-0.001877507415475179</v>
+        <v>-0.0007574420912357706</v>
       </c>
       <c r="D203">
-        <v>-0.0003075954154649346</v>
+        <v>-0.0002657107301476088</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -6859,26 +6859,26 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>-0.001443819477586233</v>
+        <v>-0.001215873223496949</v>
       </c>
       <c r="B204">
-        <v>0.0005993414203456436</v>
+        <v>0.0001837275704432228</v>
       </c>
       <c r="C204">
-        <v>-0.00264250231827752</v>
+        <v>-0.001583328364383395</v>
       </c>
       <c r="D204">
-        <v>-0.000245136636894946</v>
+        <v>-0.0008484180826105036</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -6891,26 +6891,26 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.001165124079500139</v>
+        <v>-5.036814689520396e-05</v>
       </c>
       <c r="B205">
-        <v>0.000532589693438145</v>
+        <v>0.0001980412307887613</v>
       </c>
       <c r="C205">
-        <v>9.994469262384936e-05</v>
+        <v>-0.0004464506084727266</v>
       </c>
       <c r="D205">
-        <v>0.002230303466376429</v>
+        <v>0.0003457143146823187</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -6923,26 +6923,26 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>-0.0003255399962130176</v>
+        <v>-0.0003021136145960237</v>
       </c>
       <c r="B206">
-        <v>0.001220212346088505</v>
+        <v>0.0002201691816939446</v>
       </c>
       <c r="C206">
-        <v>-0.002765964688390028</v>
+        <v>-0.0007424519779839129</v>
       </c>
       <c r="D206">
-        <v>0.002114884695963993</v>
+        <v>0.0001382247487918655</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -6955,26 +6955,26 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>-0.001418091411683074</v>
+        <v>-0.0008136900252877134</v>
       </c>
       <c r="B207">
-        <v>0.001555714612230821</v>
+        <v>0.000284484189659711</v>
       </c>
       <c r="C207">
-        <v>-0.004529520636144716</v>
+        <v>-0.001382658404607135</v>
       </c>
       <c r="D207">
-        <v>0.001693337812778568</v>
+        <v>-0.0002447216459682914</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -6987,26 +6987,26 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>-0.002861910889269307</v>
+        <v>-0.002029563248784662</v>
       </c>
       <c r="B208">
-        <v>0.002038172688596646</v>
+        <v>0.0002727572893372936</v>
       </c>
       <c r="C208">
-        <v>-0.006938256266462599</v>
+        <v>-0.00257507782745925</v>
       </c>
       <c r="D208">
-        <v>0.001214434487923985</v>
+        <v>-0.001484048670110075</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7019,26 +7019,26 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>-0.001696786809769168</v>
+        <v>-0.002079931395679867</v>
       </c>
       <c r="B209">
-        <v>0.002400021454977258</v>
+        <v>0.000392446743877249</v>
       </c>
       <c r="C209">
-        <v>-0.006496829719723684</v>
+        <v>-0.002864824883434364</v>
       </c>
       <c r="D209">
-        <v>0.003103256100185348</v>
+        <v>-0.001295037907925369</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7050,774 +7050,6 @@
         <v>3</v>
       </c>
       <c r="H209" t="inlineStr">
-        <is>
-          <t>Timor-Leste</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210">
-        <v>-0.000279992058114314</v>
-      </c>
-      <c r="B210">
-        <v>8.031999131912442e-05</v>
-      </c>
-      <c r="C210">
-        <v>-0.0004406320407525629</v>
-      </c>
-      <c r="D210">
-        <v>-0.0001193520754760652</v>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>TON</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G210">
-        <v>0</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Tonga</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211">
-        <v>-4.778994114041613e-05</v>
-      </c>
-      <c r="B211">
-        <v>0.0001560315974564617</v>
-      </c>
-      <c r="C211">
-        <v>-0.0003598531360533395</v>
-      </c>
-      <c r="D211">
-        <v>0.0002642732537725073</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>TON</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G211">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Tonga</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212">
-        <v>0.0003032866090123025</v>
-      </c>
-      <c r="B212">
-        <v>6.236511824065908e-05</v>
-      </c>
-      <c r="C212">
-        <v>0.0001785563725309843</v>
-      </c>
-      <c r="D212">
-        <v>0.0004280168454936207</v>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>TON</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G212">
-        <v>2</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Tonga</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213">
-        <v>-5.286640387553518e-05</v>
-      </c>
-      <c r="B213">
-        <v>0.0001315118019456128</v>
-      </c>
-      <c r="C213">
-        <v>-0.0003158900077667607</v>
-      </c>
-      <c r="D213">
-        <v>0.0002101572000156904</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>TON</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G213">
-        <v>3</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Tonga</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214">
-        <v>-0.000279992058114314</v>
-      </c>
-      <c r="B214">
-        <v>8.031999131912442e-05</v>
-      </c>
-      <c r="C214">
-        <v>-0.0004406320407525629</v>
-      </c>
-      <c r="D214">
-        <v>-0.0001193520754760652</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>TON</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G214">
-        <v>0</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Tonga</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215">
-        <v>-0.0003277819992547301</v>
-      </c>
-      <c r="B215">
-        <v>0.0002169170316034723</v>
-      </c>
-      <c r="C215">
-        <v>-0.0007616160624616748</v>
-      </c>
-      <c r="D215">
-        <v>0.0001060520639522145</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>TON</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G215">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Tonga</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216">
-        <v>-2.449539024242768e-05</v>
-      </c>
-      <c r="B216">
-        <v>0.0001777775076833267</v>
-      </c>
-      <c r="C216">
-        <v>-0.000380050405609081</v>
-      </c>
-      <c r="D216">
-        <v>0.0003310596251242257</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>TON</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G216">
-        <v>2</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Tonga</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217">
-        <v>-7.736179411796286e-05</v>
-      </c>
-      <c r="B217">
-        <v>0.0001031309498174808</v>
-      </c>
-      <c r="C217">
-        <v>-0.0002836236937529245</v>
-      </c>
-      <c r="D217">
-        <v>0.0001289001055169988</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>TON</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G217">
-        <v>3</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Tonga</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218">
-        <v>0.0003574687476073433</v>
-      </c>
-      <c r="B218">
-        <v>0.0002326864449812365</v>
-      </c>
-      <c r="C218">
-        <v>-0.0001079041423551297</v>
-      </c>
-      <c r="D218">
-        <v>0.0008228416375698163</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>VUT</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G218">
-        <v>0</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219">
-        <v>0.0003398881149065217</v>
-      </c>
-      <c r="B219">
-        <v>0.0001395484047279016</v>
-      </c>
-      <c r="C219">
-        <v>6.079130545071841e-05</v>
-      </c>
-      <c r="D219">
-        <v>0.0006189849243623249</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>VUT</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G219">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220">
-        <v>0.0001944335463583137</v>
-      </c>
-      <c r="B220">
-        <v>0.0002004301336374045</v>
-      </c>
-      <c r="C220">
-        <v>-0.0002064267209164953</v>
-      </c>
-      <c r="D220">
-        <v>0.0005952938136331228</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>VUT</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G220">
-        <v>2</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221">
-        <v>0.0002309975085809003</v>
-      </c>
-      <c r="B221">
-        <v>0.0005545361026354135</v>
-      </c>
-      <c r="C221">
-        <v>-0.0008780746966899267</v>
-      </c>
-      <c r="D221">
-        <v>0.001340069713851727</v>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>VUT</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G221">
-        <v>3</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222">
-        <v>0.0003574687476073433</v>
-      </c>
-      <c r="B222">
-        <v>0.0002326864449812365</v>
-      </c>
-      <c r="C222">
-        <v>-0.0001079041423551297</v>
-      </c>
-      <c r="D222">
-        <v>0.0008228416375698163</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>VUT</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G222">
-        <v>0</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223">
-        <v>0.000697356862513865</v>
-      </c>
-      <c r="B223">
-        <v>0.0003160463361678428</v>
-      </c>
-      <c r="C223">
-        <v>6.526419017817951e-05</v>
-      </c>
-      <c r="D223">
-        <v>0.00132944953484955</v>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>VUT</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G223">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224">
-        <v>0.0008917904088721788</v>
-      </c>
-      <c r="B224">
-        <v>0.0004434922115889624</v>
-      </c>
-      <c r="C224">
-        <v>4.805985694253953e-06</v>
-      </c>
-      <c r="D224">
-        <v>0.001778774832050104</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>VUT</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G224">
-        <v>2</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225">
-        <v>0.001122787917453079</v>
-      </c>
-      <c r="B225">
-        <v>0.0006775281219329576</v>
-      </c>
-      <c r="C225">
-        <v>-0.0002322683264128361</v>
-      </c>
-      <c r="D225">
-        <v>0.002477844161318995</v>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>VUT</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G225">
-        <v>3</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226">
-        <v>-0.000302113614596025</v>
-      </c>
-      <c r="B226">
-        <v>0.0002201691816939427</v>
-      </c>
-      <c r="C226">
-        <v>-0.0007424519779839104</v>
-      </c>
-      <c r="D226">
-        <v>0.0001382247487918604</v>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227">
-        <v>-0.0005115764106916906</v>
-      </c>
-      <c r="B227">
-        <v>0.0001229328402720396</v>
-      </c>
-      <c r="C227">
-        <v>-0.0007574420912357699</v>
-      </c>
-      <c r="D227">
-        <v>-0.0002657107301476114</v>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G227">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228">
-        <v>-0.001215873223496948</v>
-      </c>
-      <c r="B228">
-        <v>0.0001837275704432223</v>
-      </c>
-      <c r="C228">
-        <v>-0.001583328364383393</v>
-      </c>
-      <c r="D228">
-        <v>-0.0008484180826105033</v>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G228">
-        <v>2</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229">
-        <v>-5.036814689520239e-05</v>
-      </c>
-      <c r="B229">
-        <v>0.0001980412307887611</v>
-      </c>
-      <c r="C229">
-        <v>-0.0004464506084727246</v>
-      </c>
-      <c r="D229">
-        <v>0.0003457143146823198</v>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G229">
-        <v>3</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230">
-        <v>-0.000302113614596025</v>
-      </c>
-      <c r="B230">
-        <v>0.0002201691816939427</v>
-      </c>
-      <c r="C230">
-        <v>-0.0007424519779839104</v>
-      </c>
-      <c r="D230">
-        <v>0.0001382247487918604</v>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231">
-        <v>-0.0008136900252877157</v>
-      </c>
-      <c r="B231">
-        <v>0.0002844841896597103</v>
-      </c>
-      <c r="C231">
-        <v>-0.001382658404607136</v>
-      </c>
-      <c r="D231">
-        <v>-0.000244721645968295</v>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G231">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232">
-        <v>-0.002029563248784664</v>
-      </c>
-      <c r="B232">
-        <v>0.0002727572893372893</v>
-      </c>
-      <c r="C232">
-        <v>-0.002575077827459242</v>
-      </c>
-      <c r="D232">
-        <v>-0.001484048670110085</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G232">
-        <v>2</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233">
-        <v>-0.002079931395679866</v>
-      </c>
-      <c r="B233">
-        <v>0.0003924467438772478</v>
-      </c>
-      <c r="C233">
-        <v>-0.002864824883434361</v>
-      </c>
-      <c r="D233">
-        <v>-0.00129503790792537</v>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G233">
-        <v>3</v>
-      </c>
-      <c r="H233" t="inlineStr">
         <is>
           <t>Zimbabwe</t>
         </is>

--- a/results/results_all.xlsx
+++ b/results/results_all.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,16 +401,16 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-4.148053094507063e-05</v>
+        <v>-4.148053094507124e-05</v>
       </c>
       <c r="B2">
-        <v>9.823671942622715e-05</v>
+        <v>9.823671942622702e-05</v>
       </c>
       <c r="C2">
-        <v>-0.0002379539697975249</v>
+        <v>-0.0002379539697975253</v>
       </c>
       <c r="D2">
-        <v>0.0001549929079073837</v>
+        <v>0.0001549929079073828</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -419,7 +419,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G2">
@@ -433,16 +433,16 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>3.787963331631663e-06</v>
+        <v>3.787963331632364e-06</v>
       </c>
       <c r="B3">
-        <v>8.24050622125457e-05</v>
+        <v>8.240506221254558e-05</v>
       </c>
       <c r="C3">
-        <v>-0.0001610221610934597</v>
+        <v>-0.0001610221610934588</v>
       </c>
       <c r="D3">
-        <v>0.0001685980877567231</v>
+        <v>0.0001685980877567235</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -451,7 +451,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G3">
@@ -465,16 +465,16 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.0001103504120182228</v>
+        <v>-0.000110350412018223</v>
       </c>
       <c r="B4">
-        <v>7.930863560791441e-05</v>
+        <v>7.930863560791445e-05</v>
       </c>
       <c r="C4">
-        <v>-0.0002689676832340516</v>
+        <v>-0.0002689676832340519</v>
       </c>
       <c r="D4">
-        <v>4.826685919760601e-05</v>
+        <v>4.826685919760594e-05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -483,7 +483,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G4">
@@ -497,16 +497,16 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>-4.6614374650969e-05</v>
+        <v>-4.66143746509681e-05</v>
       </c>
       <c r="B5">
-        <v>9.074906101148522e-05</v>
+        <v>9.074906101148569e-05</v>
       </c>
       <c r="C5">
-        <v>-0.0002281124966739394</v>
+        <v>-0.0002281124966739395</v>
       </c>
       <c r="D5">
-        <v>0.0001348837473720014</v>
+        <v>0.0001348837473720033</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -515,7 +515,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G5">
@@ -529,16 +529,16 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>-4.148053094507063e-05</v>
+        <v>-4.148053094507124e-05</v>
       </c>
       <c r="B6">
-        <v>9.823671942622715e-05</v>
+        <v>9.823671942622702e-05</v>
       </c>
       <c r="C6">
-        <v>-0.0002379539697975249</v>
+        <v>-0.0002379539697975253</v>
       </c>
       <c r="D6">
-        <v>0.0001549929079073837</v>
+        <v>0.0001549929079073828</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -561,16 +561,16 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>-3.769256761343897e-05</v>
+        <v>-3.769256761343887e-05</v>
       </c>
       <c r="B7">
-        <v>0.0001293510520170045</v>
+        <v>0.0001293510520170042</v>
       </c>
       <c r="C7">
-        <v>-0.000296394671647448</v>
+        <v>-0.0002963946716474474</v>
       </c>
       <c r="D7">
-        <v>0.0002210095364205701</v>
+        <v>0.0002210095364205696</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -596,13 +596,13 @@
         <v>-0.0001480429796316618</v>
       </c>
       <c r="B8">
-        <v>0.0001502336270988</v>
+        <v>0.0001502336270987995</v>
       </c>
       <c r="C8">
-        <v>-0.0004485102338292618</v>
+        <v>-0.0004485102338292609</v>
       </c>
       <c r="D8">
-        <v>0.0001524242745659383</v>
+        <v>0.0001524242745659372</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -625,16 +625,16 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.0001946573542826308</v>
+        <v>-0.0001946573542826299</v>
       </c>
       <c r="B9">
-        <v>0.0001859611890128769</v>
+        <v>0.0001859611890128766</v>
       </c>
       <c r="C9">
-        <v>-0.0005665797323083845</v>
+        <v>-0.0005665797323083832</v>
       </c>
       <c r="D9">
-        <v>0.000177265023743123</v>
+        <v>0.0001772650237431233</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G10">
@@ -707,7 +707,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G11">
@@ -739,7 +739,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G12">
@@ -771,7 +771,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G13">
@@ -931,7 +931,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G18">
@@ -963,7 +963,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G19">
@@ -995,7 +995,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G20">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G21">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G26">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G27">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G28">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G29">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G34">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G35">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G36">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G37">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G42">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G43">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G44">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G45">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G50">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G51">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G52">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G53">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G58">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G59">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G60">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G61">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G66">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G67">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G68">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G69">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G74">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G75">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G76">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G77">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G82">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G83">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G84">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G85">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G90">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G91">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G92">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G93">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G98">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G99">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G100">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G101">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G106">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G107">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G108">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G109">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G114">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G115">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G116">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G117">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G122">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G123">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G124">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G125">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G130">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G131">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G132">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G133">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G138">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G139">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G140">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G141">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G146">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G147">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G148">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G149">
@@ -5265,16 +5265,16 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>-1.495248612795811e-05</v>
+        <v>-1.495248612795807e-05</v>
       </c>
       <c r="B154">
-        <v>2.485974955207019e-05</v>
+        <v>2.485974955207021e-05</v>
       </c>
       <c r="C154">
         <v>-6.467198523209848e-05</v>
       </c>
       <c r="D154">
-        <v>3.476701297618226e-05</v>
+        <v>3.476701297618234e-05</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G154">
@@ -5297,16 +5297,16 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>-8.139181293680893e-06</v>
+        <v>-8.139181293680871e-06</v>
       </c>
       <c r="B155">
-        <v>2.620094069504658e-05</v>
+        <v>2.620094069504659e-05</v>
       </c>
       <c r="C155">
         <v>-6.054106268377405e-05</v>
       </c>
       <c r="D155">
-        <v>4.426270009641227e-05</v>
+        <v>4.426270009641231e-05</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G155">
@@ -5329,16 +5329,16 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>-4.555568964967025e-05</v>
+        <v>-4.555568964967026e-05</v>
       </c>
       <c r="B156">
-        <v>2.408523901619682e-05</v>
+        <v>2.408523901619679e-05</v>
       </c>
       <c r="C156">
-        <v>-9.372616768206388e-05</v>
+        <v>-9.372616768206385e-05</v>
       </c>
       <c r="D156">
-        <v>2.614788382723382e-06</v>
+        <v>2.614788382723328e-06</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G156">
@@ -5361,16 +5361,16 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>3.479171925928672e-05</v>
+        <v>3.479171925928675e-05</v>
       </c>
       <c r="B157">
-        <v>2.805541774086414e-05</v>
+        <v>2.805541774086417e-05</v>
       </c>
       <c r="C157">
-        <v>-2.131911622244157e-05</v>
+        <v>-2.131911622244158e-05</v>
       </c>
       <c r="D157">
-        <v>9.0902554741015e-05</v>
+        <v>9.090255474101508e-05</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G157">
@@ -5393,16 +5393,16 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>-1.495248612795811e-05</v>
+        <v>-1.495248612795807e-05</v>
       </c>
       <c r="B158">
-        <v>2.485974955207019e-05</v>
+        <v>2.485974955207021e-05</v>
       </c>
       <c r="C158">
         <v>-6.467198523209848e-05</v>
       </c>
       <c r="D158">
-        <v>3.476701297618226e-05</v>
+        <v>3.476701297618234e-05</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5425,16 +5425,16 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>-2.3091667421639e-05</v>
+        <v>-2.309166742163894e-05</v>
       </c>
       <c r="B159">
-        <v>4.028921162501774e-05</v>
+        <v>4.028921162501776e-05</v>
       </c>
       <c r="C159">
         <v>-0.0001036700906716745</v>
       </c>
       <c r="D159">
-        <v>5.748675582839648e-05</v>
+        <v>5.748675582839659e-05</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -5457,16 +5457,16 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>-6.864735707130926e-05</v>
+        <v>-6.86473570713092e-05</v>
       </c>
       <c r="B160">
-        <v>4.87019479119498e-05</v>
+        <v>4.870194791194979e-05</v>
       </c>
       <c r="C160">
-        <v>-0.0001660512528952089</v>
+        <v>-0.0001660512528952088</v>
       </c>
       <c r="D160">
-        <v>2.875653875259034e-05</v>
+        <v>2.875653875259039e-05</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -5489,16 +5489,16 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>-3.385563781202254e-05</v>
+        <v>-3.385563781202244e-05</v>
       </c>
       <c r="B161">
-        <v>6.04796976962544e-05</v>
+        <v>6.047969769625441e-05</v>
       </c>
       <c r="C161">
         <v>-0.0001548150332045313</v>
       </c>
       <c r="D161">
-        <v>8.710375758048627e-05</v>
+        <v>8.710375758048638e-05</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G162">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G163">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G164">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G165">
@@ -5777,25 +5777,25 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.0003445691146056464</v>
+        <v>-0.0002801823760613004</v>
       </c>
       <c r="B170">
-        <v>0.002717759209977846</v>
+        <v>0.0002183929940153486</v>
       </c>
       <c r="C170">
-        <v>-0.005090949305350046</v>
+        <v>-0.0007169683640919976</v>
       </c>
       <c r="D170">
-        <v>0.005780087534561339</v>
+        <v>0.0001566036119693968</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G170">
@@ -5803,31 +5803,31 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>-0.005951130677716776</v>
+        <v>0.0001076958476493891</v>
       </c>
       <c r="B171">
-        <v>0.001679994444941705</v>
+        <v>0.0002710891379591441</v>
       </c>
       <c r="C171">
-        <v>-0.009311119567600185</v>
+        <v>-0.0004344824282688992</v>
       </c>
       <c r="D171">
-        <v>-0.002591141787833366</v>
+        <v>0.0006498741235676774</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G171">
@@ -5835,31 +5835,31 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>-0.0008627245322058249</v>
+        <v>0.0002558501456301635</v>
       </c>
       <c r="B172">
-        <v>0.002895265311211821</v>
+        <v>0.000259921294800485</v>
       </c>
       <c r="C172">
-        <v>-0.006653255154629467</v>
+        <v>-0.0002639924439708065</v>
       </c>
       <c r="D172">
-        <v>0.004927806090217817</v>
+        <v>0.0007756927352311335</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G172">
@@ -5867,31 +5867,31 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>-0.003851627883814103</v>
+        <v>0.0001745046610530329</v>
       </c>
       <c r="B173">
-        <v>0.002121378372638485</v>
+        <v>0.0003219976642910535</v>
       </c>
       <c r="C173">
-        <v>-0.008094384629091074</v>
+        <v>-0.000469490667529074</v>
       </c>
       <c r="D173">
-        <v>0.0003911288614628673</v>
+        <v>0.0008184999896351398</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G173">
@@ -5899,26 +5899,26 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.0003445691146056464</v>
+        <v>-0.0002801823760613004</v>
       </c>
       <c r="B174">
-        <v>0.002717759209977846</v>
+        <v>0.0002183929940153486</v>
       </c>
       <c r="C174">
-        <v>-0.005090949305350046</v>
+        <v>-0.0007169683640919976</v>
       </c>
       <c r="D174">
-        <v>0.005780087534561339</v>
+        <v>0.0001566036119693968</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -5931,26 +5931,26 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>-0.005606561563111129</v>
+        <v>-0.0001724865284119113</v>
       </c>
       <c r="B175">
-        <v>0.003559213738662405</v>
+        <v>0.0003698938554620979</v>
       </c>
       <c r="C175">
-        <v>-0.01272498904043594</v>
+        <v>-0.000912274239336107</v>
       </c>
       <c r="D175">
-        <v>0.001511865914213681</v>
+        <v>0.0005673011825122845</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -5963,26 +5963,26 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>-0.006469286095316954</v>
+        <v>8.336361721825225e-05</v>
       </c>
       <c r="B176">
-        <v>0.004384761716030531</v>
+        <v>0.0005122147473095434</v>
       </c>
       <c r="C176">
-        <v>-0.01523880952737802</v>
+        <v>-0.0009410658774008346</v>
       </c>
       <c r="D176">
-        <v>0.002300237336744108</v>
+        <v>0.001107793111837339</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -5995,26 +5995,26 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>-0.01032091397913106</v>
+        <v>0.0002578682782712852</v>
       </c>
       <c r="B177">
-        <v>0.005373016087577281</v>
+        <v>0.000686845532333789</v>
       </c>
       <c r="C177">
-        <v>-0.02106694615428562</v>
+        <v>-0.001115822786396293</v>
       </c>
       <c r="D177">
-        <v>0.0004251181960235051</v>
+        <v>0.001631559342938863</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6027,31 +6027,31 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>-0.0002801823760613004</v>
+        <v>-0.0003255399962130137</v>
       </c>
       <c r="B178">
-        <v>0.0002183929940153486</v>
+        <v>0.001220212346088533</v>
       </c>
       <c r="C178">
-        <v>-0.0007169683640919976</v>
+        <v>-0.00276596468839008</v>
       </c>
       <c r="D178">
-        <v>0.0001566036119693968</v>
+        <v>0.002114884695964053</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G178">
@@ -6059,31 +6059,31 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.0001076958476493891</v>
+        <v>-0.001092551415470048</v>
       </c>
       <c r="B179">
-        <v>0.0002710891379591441</v>
+        <v>0.0003924780000025802</v>
       </c>
       <c r="C179">
-        <v>-0.0004344824282688992</v>
+        <v>-0.001877507415475208</v>
       </c>
       <c r="D179">
-        <v>0.0006498741235676774</v>
+        <v>-0.0003075954154648873</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G179">
@@ -6091,31 +6091,31 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.0002558501456301635</v>
+        <v>-0.001443819477586229</v>
       </c>
       <c r="B180">
-        <v>0.000259921294800485</v>
+        <v>0.0005993414203456545</v>
       </c>
       <c r="C180">
-        <v>-0.0002639924439708065</v>
+        <v>-0.002642502318277539</v>
       </c>
       <c r="D180">
-        <v>0.0007756927352311335</v>
+        <v>-0.0002451366368949202</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G180">
@@ -6123,31 +6123,31 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.0001745046610530329</v>
+        <v>0.001165124079500144</v>
       </c>
       <c r="B181">
-        <v>0.0003219976642910535</v>
+        <v>0.0005325896934381553</v>
       </c>
       <c r="C181">
-        <v>-0.000469490667529074</v>
+        <v>9.994469262383375e-05</v>
       </c>
       <c r="D181">
-        <v>0.0008184999896351398</v>
+        <v>0.002230303466376455</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G181">
@@ -6155,26 +6155,26 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>-0.0002801823760613004</v>
+        <v>-0.0003255399962130137</v>
       </c>
       <c r="B182">
-        <v>0.0002183929940153486</v>
+        <v>0.001220212346088533</v>
       </c>
       <c r="C182">
-        <v>-0.0007169683640919976</v>
+        <v>-0.00276596468839008</v>
       </c>
       <c r="D182">
-        <v>0.0001566036119693968</v>
+        <v>0.002114884695964053</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6187,26 +6187,26 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>-0.0001724865284119113</v>
+        <v>-0.001418091411683061</v>
       </c>
       <c r="B183">
-        <v>0.0003698938554620979</v>
+        <v>0.001555714612230872</v>
       </c>
       <c r="C183">
-        <v>-0.000912274239336107</v>
+        <v>-0.004529520636144806</v>
       </c>
       <c r="D183">
-        <v>0.0005673011825122845</v>
+        <v>0.001693337812778683</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6219,26 +6219,26 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>8.336361721825225e-05</v>
+        <v>-0.002861910889269291</v>
       </c>
       <c r="B184">
-        <v>0.0005122147473095434</v>
+        <v>0.002038172688596714</v>
       </c>
       <c r="C184">
-        <v>-0.0009410658774008346</v>
+        <v>-0.006938256266462719</v>
       </c>
       <c r="D184">
-        <v>0.001107793111837339</v>
+        <v>0.001214434487924138</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6251,26 +6251,26 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.0002578682782712852</v>
+        <v>-0.001696786809769146</v>
       </c>
       <c r="B185">
-        <v>0.000686845532333789</v>
+        <v>0.002400021454977347</v>
       </c>
       <c r="C185">
-        <v>-0.001115822786396293</v>
+        <v>-0.006496829719723841</v>
       </c>
       <c r="D185">
-        <v>0.001631559342938863</v>
+        <v>0.003103256100185549</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6283,31 +6283,31 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>-0.0003255399962130137</v>
+        <v>-0.0003021136145960237</v>
       </c>
       <c r="B186">
-        <v>0.001220212346088533</v>
+        <v>0.0002201691816939446</v>
       </c>
       <c r="C186">
-        <v>-0.00276596468839008</v>
+        <v>-0.0007424519779839129</v>
       </c>
       <c r="D186">
-        <v>0.002114884695964053</v>
+        <v>0.0001382247487918655</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G186">
@@ -6315,31 +6315,31 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>-0.001092551415470048</v>
+        <v>-0.0005115764106916897</v>
       </c>
       <c r="B187">
-        <v>0.0003924780000025802</v>
+        <v>0.0001229328402720404</v>
       </c>
       <c r="C187">
-        <v>-0.001877507415475208</v>
+        <v>-0.0007574420912357706</v>
       </c>
       <c r="D187">
-        <v>-0.0003075954154648873</v>
+        <v>-0.0002657107301476088</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G187">
@@ -6347,31 +6347,31 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>-0.001443819477586229</v>
+        <v>-0.001215873223496949</v>
       </c>
       <c r="B188">
-        <v>0.0005993414203456545</v>
+        <v>0.0001837275704432228</v>
       </c>
       <c r="C188">
-        <v>-0.002642502318277539</v>
+        <v>-0.001583328364383395</v>
       </c>
       <c r="D188">
-        <v>-0.0002451366368949202</v>
+        <v>-0.0008484180826105036</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G188">
@@ -6379,31 +6379,31 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.001165124079500144</v>
+        <v>-5.036814689520396e-05</v>
       </c>
       <c r="B189">
-        <v>0.0005325896934381553</v>
+        <v>0.0001980412307887613</v>
       </c>
       <c r="C189">
-        <v>9.994469262383375e-05</v>
+        <v>-0.0004464506084727266</v>
       </c>
       <c r="D189">
-        <v>0.002230303466376455</v>
+        <v>0.0003457143146823187</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>incremental</t>
+          <t>marginal</t>
         </is>
       </c>
       <c r="G189">
@@ -6411,26 +6411,26 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>-0.0003255399962130137</v>
+        <v>-0.0003021136145960237</v>
       </c>
       <c r="B190">
-        <v>0.001220212346088533</v>
+        <v>0.0002201691816939446</v>
       </c>
       <c r="C190">
-        <v>-0.00276596468839008</v>
+        <v>-0.0007424519779839129</v>
       </c>
       <c r="D190">
-        <v>0.002114884695964053</v>
+        <v>0.0001382247487918655</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6443,26 +6443,26 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>-0.001418091411683061</v>
+        <v>-0.0008136900252877134</v>
       </c>
       <c r="B191">
-        <v>0.001555714612230872</v>
+        <v>0.000284484189659711</v>
       </c>
       <c r="C191">
-        <v>-0.004529520636144806</v>
+        <v>-0.001382658404607135</v>
       </c>
       <c r="D191">
-        <v>0.001693337812778683</v>
+        <v>-0.0002447216459682914</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6475,26 +6475,26 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>-0.002861910889269291</v>
+        <v>-0.002029563248784662</v>
       </c>
       <c r="B192">
-        <v>0.002038172688596714</v>
+        <v>0.0002727572893372936</v>
       </c>
       <c r="C192">
-        <v>-0.006938256266462719</v>
+        <v>-0.00257507782745925</v>
       </c>
       <c r="D192">
-        <v>0.001214434487924138</v>
+        <v>-0.001484048670110075</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6507,26 +6507,26 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>-0.001696786809769146</v>
+        <v>-0.002079931395679867</v>
       </c>
       <c r="B193">
-        <v>0.002400021454977347</v>
+        <v>0.000392446743877249</v>
       </c>
       <c r="C193">
-        <v>-0.006496829719723841</v>
+        <v>-0.002864824883434364</v>
       </c>
       <c r="D193">
-        <v>0.003103256100185549</v>
+        <v>-0.001295037907925369</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6538,518 +6538,6 @@
         <v>3</v>
       </c>
       <c r="H193" t="inlineStr">
-        <is>
-          <t>Timor-Leste</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194">
-        <v>0.01239004102737134</v>
-      </c>
-      <c r="B194">
-        <v>0.01171791694528043</v>
-      </c>
-      <c r="C194">
-        <v>-0.01104579286318951</v>
-      </c>
-      <c r="D194">
-        <v>0.0358258749179322</v>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>YEM</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195">
-        <v>0.01084311105926816</v>
-      </c>
-      <c r="B195">
-        <v>0.01709831033876274</v>
-      </c>
-      <c r="C195">
-        <v>-0.02335350961825731</v>
-      </c>
-      <c r="D195">
-        <v>0.04503973173679363</v>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>YEM</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196">
-        <v>-0.01208473399320212</v>
-      </c>
-      <c r="B196">
-        <v>0.008327652911081592</v>
-      </c>
-      <c r="C196">
-        <v>-0.0287400398153653</v>
-      </c>
-      <c r="D196">
-        <v>0.004570571828961067</v>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>YEM</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G196">
-        <v>2</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197">
-        <v>-0.004327011748900472</v>
-      </c>
-      <c r="B197">
-        <v>0.005785804940952897</v>
-      </c>
-      <c r="C197">
-        <v>-0.01589862163080627</v>
-      </c>
-      <c r="D197">
-        <v>0.007244598133005323</v>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>YEM</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G197">
-        <v>3</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198">
-        <v>0.01239004102737134</v>
-      </c>
-      <c r="B198">
-        <v>0.01171791694528043</v>
-      </c>
-      <c r="C198">
-        <v>-0.01104579286318951</v>
-      </c>
-      <c r="D198">
-        <v>0.0358258749179322</v>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>YEM</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G198">
-        <v>0</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199">
-        <v>0.0232331520866395</v>
-      </c>
-      <c r="B199">
-        <v>0.02482919503321251</v>
-      </c>
-      <c r="C199">
-        <v>-0.02642523797978552</v>
-      </c>
-      <c r="D199">
-        <v>0.07289154215306452</v>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>YEM</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G199">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200">
-        <v>0.01114841809343738</v>
-      </c>
-      <c r="B200">
-        <v>0.02351353692202052</v>
-      </c>
-      <c r="C200">
-        <v>-0.03587865575060366</v>
-      </c>
-      <c r="D200">
-        <v>0.05817549193747843</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>YEM</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G200">
-        <v>2</v>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201">
-        <v>0.006821406344536913</v>
-      </c>
-      <c r="B201">
-        <v>0.02324904089219097</v>
-      </c>
-      <c r="C201">
-        <v>-0.03967667543984502</v>
-      </c>
-      <c r="D201">
-        <v>0.05331948812891885</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>YEM</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G201">
-        <v>3</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202">
-        <v>-0.0003021136145960237</v>
-      </c>
-      <c r="B202">
-        <v>0.0002201691816939446</v>
-      </c>
-      <c r="C202">
-        <v>-0.0007424519779839129</v>
-      </c>
-      <c r="D202">
-        <v>0.0001382247487918655</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G202">
-        <v>0</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203">
-        <v>-0.0005115764106916897</v>
-      </c>
-      <c r="B203">
-        <v>0.0001229328402720404</v>
-      </c>
-      <c r="C203">
-        <v>-0.0007574420912357706</v>
-      </c>
-      <c r="D203">
-        <v>-0.0002657107301476088</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G203">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204">
-        <v>-0.001215873223496949</v>
-      </c>
-      <c r="B204">
-        <v>0.0001837275704432228</v>
-      </c>
-      <c r="C204">
-        <v>-0.001583328364383395</v>
-      </c>
-      <c r="D204">
-        <v>-0.0008484180826105036</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G204">
-        <v>2</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205">
-        <v>-5.036814689520396e-05</v>
-      </c>
-      <c r="B205">
-        <v>0.0001980412307887613</v>
-      </c>
-      <c r="C205">
-        <v>-0.0004464506084727266</v>
-      </c>
-      <c r="D205">
-        <v>0.0003457143146823187</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>incremental</t>
-        </is>
-      </c>
-      <c r="G205">
-        <v>3</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206">
-        <v>-0.0003021136145960237</v>
-      </c>
-      <c r="B206">
-        <v>0.0002201691816939446</v>
-      </c>
-      <c r="C206">
-        <v>-0.0007424519779839129</v>
-      </c>
-      <c r="D206">
-        <v>0.0001382247487918655</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G206">
-        <v>0</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207">
-        <v>-0.0008136900252877134</v>
-      </c>
-      <c r="B207">
-        <v>0.000284484189659711</v>
-      </c>
-      <c r="C207">
-        <v>-0.001382658404607135</v>
-      </c>
-      <c r="D207">
-        <v>-0.0002447216459682914</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208">
-        <v>-0.002029563248784662</v>
-      </c>
-      <c r="B208">
-        <v>0.0002727572893372936</v>
-      </c>
-      <c r="C208">
-        <v>-0.00257507782745925</v>
-      </c>
-      <c r="D208">
-        <v>-0.001484048670110075</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G208">
-        <v>2</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209">
-        <v>-0.002079931395679867</v>
-      </c>
-      <c r="B209">
-        <v>0.000392446743877249</v>
-      </c>
-      <c r="C209">
-        <v>-0.002864824883434364</v>
-      </c>
-      <c r="D209">
-        <v>-0.001295037907925369</v>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G209">
-        <v>3</v>
-      </c>
-      <c r="H209" t="inlineStr">
         <is>
           <t>Zimbabwe</t>
         </is>

--- a/results/results_all.xlsx
+++ b/results/results_all.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H193"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,19 +398,24 @@
           <t>country</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>-4.148053094507124e-05</v>
+        <v>8.048565150536503e-06</v>
       </c>
       <c r="B2">
-        <v>9.823671942622702e-05</v>
+        <v>9.7315007283686e-05</v>
       </c>
       <c r="C2">
-        <v>-0.0002379539697975253</v>
+        <v>-0.0001865814494168355</v>
       </c>
       <c r="D2">
-        <v>0.0001549929079073828</v>
+        <v>0.0002026785797179085</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -430,19 +435,24 @@
           <t>Bangladesh</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3.787963331632364e-06</v>
+        <v>2.872975919610749e-05</v>
       </c>
       <c r="B3">
-        <v>8.240506221254558e-05</v>
+        <v>8.575927084660257e-05</v>
       </c>
       <c r="C3">
-        <v>-0.0001610221610934588</v>
+        <v>-0.0001427887824970976</v>
       </c>
       <c r="D3">
-        <v>0.0001685980877567235</v>
+        <v>0.0002002483008893126</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -462,19 +472,24 @@
           <t>Bangladesh</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.000110350412018223</v>
+        <v>-0.0001047481015302927</v>
       </c>
       <c r="B4">
-        <v>7.930863560791445e-05</v>
+        <v>8.486702358631136e-05</v>
       </c>
       <c r="C4">
-        <v>-0.0002689676832340519</v>
+        <v>-0.0002744821487029154</v>
       </c>
       <c r="D4">
-        <v>4.826685919760594e-05</v>
+        <v>6.498594564233e-05</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -494,19 +509,24 @@
           <t>Bangladesh</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-4.66143746509681e-05</v>
+        <v>-4.243506492700889e-05</v>
       </c>
       <c r="B5">
-        <v>9.074906101148569e-05</v>
+        <v>8.759322990892553e-05</v>
       </c>
       <c r="C5">
-        <v>-0.0002281124966739395</v>
+        <v>-0.00021762152474486</v>
       </c>
       <c r="D5">
-        <v>0.0001348837473720033</v>
+        <v>0.0001327513948908422</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -526,19 +546,24 @@
           <t>Bangladesh</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-4.148053094507124e-05</v>
+        <v>8.048565150536503e-06</v>
       </c>
       <c r="B6">
-        <v>9.823671942622702e-05</v>
+        <v>9.7315007283686e-05</v>
       </c>
       <c r="C6">
-        <v>-0.0002379539697975253</v>
+        <v>-0.0001865814494168355</v>
       </c>
       <c r="D6">
-        <v>0.0001549929079073828</v>
+        <v>0.0002026785797179085</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -558,19 +583,24 @@
           <t>Bangladesh</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-3.769256761343887e-05</v>
+        <v>3.677832434664399e-05</v>
       </c>
       <c r="B7">
-        <v>0.0001293510520170042</v>
+        <v>0.0001345733061942415</v>
       </c>
       <c r="C7">
-        <v>-0.0002963946716474474</v>
+        <v>-0.0002323682880418389</v>
       </c>
       <c r="D7">
-        <v>0.0002210095364205696</v>
+        <v>0.0003059249367351269</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -590,19 +620,24 @@
           <t>Bangladesh</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.0001480429796316618</v>
+        <v>-6.796977718364872e-05</v>
       </c>
       <c r="B8">
-        <v>0.0001502336270987995</v>
+        <v>0.0001715935087336514</v>
       </c>
       <c r="C8">
-        <v>-0.0004485102338292609</v>
+        <v>-0.0004111567946509515</v>
       </c>
       <c r="D8">
-        <v>0.0001524242745659372</v>
+        <v>0.000275217240283654</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -622,19 +657,24 @@
           <t>Bangladesh</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.0001946573542826299</v>
+        <v>-0.0001104048421106576</v>
       </c>
       <c r="B9">
-        <v>0.0001859611890128766</v>
+        <v>0.0001967201422705032</v>
       </c>
       <c r="C9">
-        <v>-0.0005665797323083832</v>
+        <v>-0.000503845126651664</v>
       </c>
       <c r="D9">
-        <v>0.0001772650237431233</v>
+        <v>0.0002830354424303488</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -654,19 +694,24 @@
           <t>Bangladesh</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.0003360706266040377</v>
+        <v>0.000379305351373744</v>
       </c>
       <c r="B10">
-        <v>0.0003050101435071541</v>
+        <v>0.0003592710073574875</v>
       </c>
       <c r="C10">
-        <v>-0.0002739496604102704</v>
+        <v>-0.000339236663341231</v>
       </c>
       <c r="D10">
-        <v>0.0009460909136183458</v>
+        <v>0.001097847366088719</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -686,19 +731,24 @@
           <t>Belize</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.0004317402978290614</v>
+        <v>0.0005573805864956245</v>
       </c>
       <c r="B11">
-        <v>0.0001748804447110285</v>
+        <v>0.0002526908710428874</v>
       </c>
       <c r="C11">
-        <v>8.197940840700432e-05</v>
+        <v>5.19988444098497e-05</v>
       </c>
       <c r="D11">
-        <v>0.0007815011872511185</v>
+        <v>0.001062762328581399</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -718,19 +768,24 @@
           <t>Belize</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.0003010897223192767</v>
+        <v>0.0005137824091409371</v>
       </c>
       <c r="B12">
-        <v>0.000288000970655821</v>
+        <v>0.0002385158457335025</v>
       </c>
       <c r="C12">
-        <v>-0.0002749122189923654</v>
+        <v>3.675071767393222e-05</v>
       </c>
       <c r="D12">
-        <v>0.0008770916636309188</v>
+        <v>0.0009908141006079421</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -750,19 +805,24 @@
           <t>Belize</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.0005733199395496295</v>
+        <v>0.0005996538586134349</v>
       </c>
       <c r="B13">
-        <v>0.0002048057780152609</v>
+        <v>0.0002127561395982304</v>
       </c>
       <c r="C13">
-        <v>0.0001637083835191076</v>
+        <v>0.000174141579416974</v>
       </c>
       <c r="D13">
-        <v>0.0009829314955801514</v>
+        <v>0.001025166137809896</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -782,19 +842,24 @@
           <t>Belize</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.0003360706266040377</v>
+        <v>0.000379305351373744</v>
       </c>
       <c r="B14">
-        <v>0.0003050101435071541</v>
+        <v>0.0003592710073574875</v>
       </c>
       <c r="C14">
-        <v>-0.0002739496604102704</v>
+        <v>-0.000339236663341231</v>
       </c>
       <c r="D14">
-        <v>0.0009460909136183458</v>
+        <v>0.001097847366088719</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -814,19 +879,24 @@
           <t>Belize</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.0007678109244330991</v>
+        <v>0.0009366859378693686</v>
       </c>
       <c r="B15">
-        <v>0.0003026651676682637</v>
+        <v>0.0004034929714857352</v>
       </c>
       <c r="C15">
-        <v>0.0001624805890965718</v>
+        <v>0.0001296999948978982</v>
       </c>
       <c r="D15">
-        <v>0.001373141259769626</v>
+        <v>0.001743671880840839</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -846,19 +916,24 @@
           <t>Belize</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.001068900646752376</v>
+        <v>0.001450468347010306</v>
       </c>
       <c r="B16">
-        <v>0.0003405650178993115</v>
+        <v>0.0003847558011891064</v>
       </c>
       <c r="C16">
-        <v>0.0003877706109537529</v>
+        <v>0.000680956744632093</v>
       </c>
       <c r="D16">
-        <v>0.001750030682550999</v>
+        <v>0.002219979949388519</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -878,19 +953,24 @@
           <t>Belize</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.001642220586302005</v>
+        <v>0.002050122205623741</v>
       </c>
       <c r="B17">
-        <v>0.0004209298042795935</v>
+        <v>0.0005204149241598173</v>
       </c>
       <c r="C17">
-        <v>0.0008003609777428182</v>
+        <v>0.001009292357304106</v>
       </c>
       <c r="D17">
-        <v>0.002484080194861192</v>
+        <v>0.003090952053943375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -910,19 +990,24 @@
           <t>Belize</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-0.0001609352040000639</v>
+        <v>-7.808965939783563e-05</v>
       </c>
       <c r="B18">
-        <v>0.000465829726380305</v>
+        <v>0.0004621608954838363</v>
       </c>
       <c r="C18">
-        <v>-0.001092594656760674</v>
+        <v>-0.001002411450365508</v>
       </c>
       <c r="D18">
-        <v>0.000770724248760546</v>
+        <v>0.000846232131569837</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -942,19 +1027,24 @@
           <t>Colombia</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-5.254183923210021e-05</v>
+        <v>2.474723617409481e-05</v>
       </c>
       <c r="B19">
-        <v>0.0001560674814217491</v>
+        <v>0.0001699724016795152</v>
       </c>
       <c r="C19">
-        <v>-0.0003646768020755985</v>
+        <v>-0.0003151975671849356</v>
       </c>
       <c r="D19">
-        <v>0.000259593123611398</v>
+        <v>0.0003646920395331252</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -974,19 +1064,24 @@
           <t>Colombia</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-5.496919605701128e-05</v>
+        <v>1.966566566359156e-05</v>
       </c>
       <c r="B20">
-        <v>0.0001672356990221423</v>
+        <v>0.000193034419329585</v>
       </c>
       <c r="C20">
-        <v>-0.0003894405941012958</v>
+        <v>-0.0003664031729955784</v>
       </c>
       <c r="D20">
-        <v>0.0002795022019872733</v>
+        <v>0.0004057345043227615</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1006,19 +1101,24 @@
           <t>Colombia</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.0002434103988742414</v>
+        <v>0.0003087828784478792</v>
       </c>
       <c r="B21">
-        <v>0.000399334079470914</v>
+        <v>0.0003476427229064095</v>
       </c>
       <c r="C21">
-        <v>-0.0005552577600675865</v>
+        <v>-0.0003865025673649399</v>
       </c>
       <c r="D21">
-        <v>0.001042078557816069</v>
+        <v>0.001004068324260698</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1038,19 +1138,24 @@
           <t>Colombia</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.0001609352040000639</v>
+        <v>-7.808965939783563e-05</v>
       </c>
       <c r="B22">
-        <v>0.000465829726380305</v>
+        <v>0.0004621608954838363</v>
       </c>
       <c r="C22">
-        <v>-0.001092594656760674</v>
+        <v>-0.001002411450365508</v>
       </c>
       <c r="D22">
-        <v>0.000770724248760546</v>
+        <v>0.000846232131569837</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1070,19 +1175,24 @@
           <t>Colombia</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-0.0002134770432321641</v>
+        <v>-5.334242322374082e-05</v>
       </c>
       <c r="B23">
-        <v>0.0004272811505771226</v>
+        <v>0.0004280618932729344</v>
       </c>
       <c r="C23">
-        <v>-0.001068039344386409</v>
+        <v>-0.0009094662097696096</v>
       </c>
       <c r="D23">
-        <v>0.0006410852579220811</v>
+        <v>0.0008027813633221279</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1102,19 +1212,24 @@
           <t>Colombia</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>-0.0002684462392891754</v>
+        <v>-3.367675756014926e-05</v>
       </c>
       <c r="B24">
-        <v>0.0004256411814814817</v>
+        <v>0.0004598718441552443</v>
       </c>
       <c r="C24">
-        <v>-0.001119728602252139</v>
+        <v>-0.0009534204458706379</v>
       </c>
       <c r="D24">
-        <v>0.000582836123673788</v>
+        <v>0.0008860669307503395</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1134,19 +1249,24 @@
           <t>Colombia</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-2.503584041493397e-05</v>
+        <v>0.0002751061208877299</v>
       </c>
       <c r="B25">
-        <v>0.0005528998100644578</v>
+        <v>0.0003926648236959881</v>
       </c>
       <c r="C25">
-        <v>-0.00113083546054385</v>
+        <v>-0.0005102235265042464</v>
       </c>
       <c r="D25">
-        <v>0.001080763779713982</v>
+        <v>0.001060435768279706</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1166,19 +1286,24 @@
           <t>Colombia</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.0005171004802606169</v>
+        <v>-0.0005619878784038094</v>
       </c>
       <c r="B26">
-        <v>0.0001205888952700657</v>
+        <v>0.0001292300401959141</v>
       </c>
       <c r="C26">
-        <v>-0.0007582782708007483</v>
+        <v>-0.0008204479587956377</v>
       </c>
       <c r="D26">
-        <v>-0.0002759226897204855</v>
+        <v>-0.0003035277980119812</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1198,19 +1323,24 @@
           <t>Comoros</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-0.0004156511261809795</v>
+        <v>-0.0004968516975658617</v>
       </c>
       <c r="B27">
-        <v>0.0001021449468036287</v>
+        <v>0.0001089399651025916</v>
       </c>
       <c r="C27">
-        <v>-0.000619941019788237</v>
+        <v>-0.0007147316277710449</v>
       </c>
       <c r="D27">
-        <v>-0.000211361232573722</v>
+        <v>-0.0002789717673606786</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1230,19 +1360,24 @@
           <t>Comoros</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>-0.0004747515071139245</v>
+        <v>-0.000547396567649375</v>
       </c>
       <c r="B28">
-        <v>1.631183201466131e-05</v>
+        <v>5.058321955519811e-06</v>
       </c>
       <c r="C28">
-        <v>-0.000507375171143247</v>
+        <v>-0.0005575132115604146</v>
       </c>
       <c r="D28">
-        <v>-0.0004421278430846018</v>
+        <v>-0.0005372799237383354</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1262,19 +1397,24 @@
           <t>Comoros</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>-0.0004218265789689658</v>
+        <v>-0.0004488305301508537</v>
       </c>
       <c r="B29">
-        <v>9.780315356065292e-05</v>
+        <v>9.743101952207174e-05</v>
       </c>
       <c r="C29">
-        <v>-0.0006174328860902717</v>
+        <v>-0.0006436925691949971</v>
       </c>
       <c r="D29">
-        <v>-0.00022622027184766</v>
+        <v>-0.0002539684911067102</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1294,19 +1434,24 @@
           <t>Comoros</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-0.0005171004802606169</v>
+        <v>-0.0005619878784038094</v>
       </c>
       <c r="B30">
-        <v>0.0001205888952700657</v>
+        <v>0.0001292300401959141</v>
       </c>
       <c r="C30">
-        <v>-0.0007582782708007483</v>
+        <v>-0.0008204479587956377</v>
       </c>
       <c r="D30">
-        <v>-0.0002759226897204855</v>
+        <v>-0.0003035277980119812</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1326,19 +1471,24 @@
           <t>Comoros</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>-0.0009327516064415964</v>
+        <v>-0.001058839575969671</v>
       </c>
       <c r="B31">
-        <v>9.613909098418688e-05</v>
+        <v>0.0001362819573189238</v>
       </c>
       <c r="C31">
-        <v>-0.00112502978840997</v>
+        <v>-0.001331403490607519</v>
       </c>
       <c r="D31">
-        <v>-0.0007404734244732226</v>
+        <v>-0.0007862756613318234</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1358,19 +1508,24 @@
           <t>Comoros</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>-0.001407503113555521</v>
+        <v>-0.001606236143619046</v>
       </c>
       <c r="B32">
-        <v>7.984179326710486e-05</v>
+        <v>0.0001374991079511891</v>
       </c>
       <c r="C32">
-        <v>-0.001567186700089731</v>
+        <v>-0.001881234359521424</v>
       </c>
       <c r="D32">
-        <v>-0.001247819527021311</v>
+        <v>-0.001331237927716668</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1390,19 +1545,24 @@
           <t>Comoros</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.001829329692524487</v>
+        <v>-0.0020550666737699</v>
       </c>
       <c r="B33">
-        <v>0.0001263853401580288</v>
+        <v>0.0001805749128210392</v>
       </c>
       <c r="C33">
-        <v>-0.002082100372840544</v>
+        <v>-0.002416216499411978</v>
       </c>
       <c r="D33">
-        <v>-0.001576559012208429</v>
+        <v>-0.001693916848127821</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1422,19 +1582,24 @@
           <t>Comoros</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.0003487093509489305</v>
+        <v>0.0002201819487233274</v>
       </c>
       <c r="B34">
-        <v>0.0006077944928310827</v>
+        <v>0.0006120050918964706</v>
       </c>
       <c r="C34">
-        <v>-0.000866879634713235</v>
+        <v>-0.001003828235069614</v>
       </c>
       <c r="D34">
-        <v>0.001564298336611096</v>
+        <v>0.001444192132516269</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1454,19 +1619,24 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-5.335701147315738e-05</v>
+        <v>-0.0001792861712108831</v>
       </c>
       <c r="B35">
-        <v>0.0004180978474140011</v>
+        <v>0.0003886917445861953</v>
       </c>
       <c r="C35">
-        <v>-0.0008895527063011596</v>
+        <v>-0.0009566696603832737</v>
       </c>
       <c r="D35">
-        <v>0.0007828386833548449</v>
+        <v>0.0005980973179615075</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1486,19 +1656,24 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.0004830324898321552</v>
+        <v>0.0003588612622465966</v>
       </c>
       <c r="B36">
-        <v>0.0005795929128854502</v>
+        <v>0.0005955149404639663</v>
       </c>
       <c r="C36">
-        <v>-0.0006761533359387451</v>
+        <v>-0.0008321686186813359</v>
       </c>
       <c r="D36">
-        <v>0.001642218315603055</v>
+        <v>0.001549891143174529</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1518,19 +1693,24 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.001281718535460439</v>
+        <v>-0.001402488249281558</v>
       </c>
       <c r="B37">
-        <v>0.0008222772182736071</v>
+        <v>0.0008135261671422151</v>
       </c>
       <c r="C37">
-        <v>-0.002926272972007653</v>
+        <v>-0.003029540583565988</v>
       </c>
       <c r="D37">
-        <v>0.0003628359010867752</v>
+        <v>0.0002245640850028726</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1550,19 +1730,24 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.0003487093509489305</v>
+        <v>0.0002201819487233274</v>
       </c>
       <c r="B38">
-        <v>0.0006077944928310827</v>
+        <v>0.0006120050918964706</v>
       </c>
       <c r="C38">
-        <v>-0.000866879634713235</v>
+        <v>-0.001003828235069614</v>
       </c>
       <c r="D38">
-        <v>0.001564298336611096</v>
+        <v>0.001444192132516269</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1582,19 +1767,24 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.0002953523394757731</v>
+        <v>4.089577751244426e-05</v>
       </c>
       <c r="B39">
-        <v>0.0006219405861408523</v>
+        <v>0.000589765668302393</v>
       </c>
       <c r="C39">
-        <v>-0.0009485288328059314</v>
+        <v>-0.001138635559092342</v>
       </c>
       <c r="D39">
-        <v>0.001539233511757478</v>
+        <v>0.00122042711411723</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1614,19 +1804,24 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.0007783848293079283</v>
+        <v>0.0003997570397590408</v>
       </c>
       <c r="B40">
-        <v>0.0004827126055272477</v>
+        <v>0.0005019993379853517</v>
       </c>
       <c r="C40">
-        <v>-0.0001870403817465671</v>
+        <v>-0.0006042416362116625</v>
       </c>
       <c r="D40">
-        <v>0.001743810040362424</v>
+        <v>0.001403755715729744</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1646,19 +1841,24 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>-0.0005033337061525107</v>
+        <v>-0.001002731209522517</v>
       </c>
       <c r="B41">
-        <v>0.0006471900736870884</v>
+        <v>0.0005547755817511327</v>
       </c>
       <c r="C41">
-        <v>-0.001797713853526688</v>
+        <v>-0.002112282373024782</v>
       </c>
       <c r="D41">
-        <v>0.0007910464412216661</v>
+        <v>0.0001068199539797487</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1678,19 +1878,24 @@
           <t>Costa Rica</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-6.624764751697166e-05</v>
+        <v>-2.558964167359354e-05</v>
       </c>
       <c r="B42">
-        <v>0.0001979713026616728</v>
+        <v>0.0002002268294116211</v>
       </c>
       <c r="C42">
-        <v>-0.0004621902528403172</v>
+        <v>-0.0004260433004968358</v>
       </c>
       <c r="D42">
-        <v>0.0003296949578063739</v>
+        <v>0.0003748640171496487</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1710,19 +1915,24 @@
           <t>Cuba</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>-8.428641426294548e-05</v>
+        <v>4.390981807113537e-05</v>
       </c>
       <c r="B43">
-        <v>0.0001508269359488466</v>
+        <v>0.0001415859891947497</v>
       </c>
       <c r="C43">
-        <v>-0.0003859402861606388</v>
+        <v>-0.000239262160318364</v>
       </c>
       <c r="D43">
-        <v>0.0002173674576347478</v>
+        <v>0.0003270817964606348</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1742,19 +1952,24 @@
           <t>Cuba</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.0002591397912968172</v>
+        <v>0.0002670803610039673</v>
       </c>
       <c r="B44">
-        <v>0.0001712269419984958</v>
+        <v>0.0001864275867094721</v>
       </c>
       <c r="C44">
-        <v>-8.331409270017438e-05</v>
+        <v>-0.0001057748124149768</v>
       </c>
       <c r="D44">
-        <v>0.0006015936752938088</v>
+        <v>0.0006399355344229114</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1774,19 +1989,24 @@
           <t>Cuba</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.0001798254206680771</v>
+        <v>0.0001999704109765881</v>
       </c>
       <c r="B45">
-        <v>0.0001838638510276327</v>
+        <v>0.0001853133192590185</v>
       </c>
       <c r="C45">
-        <v>-0.0001879022813871883</v>
+        <v>-0.000170656227541449</v>
       </c>
       <c r="D45">
-        <v>0.0005475531227233425</v>
+        <v>0.0005705970494946251</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1806,19 +2026,24 @@
           <t>Cuba</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>-6.624764751697166e-05</v>
+        <v>-2.558964167359354e-05</v>
       </c>
       <c r="B46">
-        <v>0.0001979713026616728</v>
+        <v>0.0002002268294116211</v>
       </c>
       <c r="C46">
-        <v>-0.0004621902528403172</v>
+        <v>-0.0004260433004968358</v>
       </c>
       <c r="D46">
-        <v>0.0003296949578063739</v>
+        <v>0.0003748640171496487</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1838,19 +2063,24 @@
           <t>Cuba</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.0001505340617799171</v>
+        <v>1.832017639754183e-05</v>
       </c>
       <c r="B47">
-        <v>0.0002646702060235786</v>
+        <v>0.0002508285906740999</v>
       </c>
       <c r="C47">
-        <v>-0.0006798744738270744</v>
+        <v>-0.000483337004950658</v>
       </c>
       <c r="D47">
-        <v>0.0003788063502672401</v>
+        <v>0.0005199773577457416</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1870,19 +2100,24 @@
           <t>Cuba</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.0001086057295169001</v>
+        <v>0.0002854005374015091</v>
       </c>
       <c r="B48">
-        <v>0.0003533255952024474</v>
+        <v>0.0003582733165203646</v>
       </c>
       <c r="C48">
-        <v>-0.0005980454608879948</v>
+        <v>-0.0004311460956392202</v>
       </c>
       <c r="D48">
-        <v>0.0008152569199217949</v>
+        <v>0.001001947170442238</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1902,19 +2137,24 @@
           <t>Cuba</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.0002884311501849772</v>
+        <v>0.0004853709483780972</v>
       </c>
       <c r="B49">
-        <v>0.000392058447928118</v>
+        <v>0.000400400637420438</v>
       </c>
       <c r="C49">
-        <v>-0.0004956857456712588</v>
+        <v>-0.0003154303264627787</v>
       </c>
       <c r="D49">
-        <v>0.001072548046041213</v>
+        <v>0.001286172223218973</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1934,19 +2174,24 @@
           <t>Cuba</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-5.827834025578866e-05</v>
+        <v>-4.685255737856129e-05</v>
       </c>
       <c r="B50">
-        <v>0.0001392232762345241</v>
+        <v>0.0001398262496850397</v>
       </c>
       <c r="C50">
-        <v>-0.0003367248927248369</v>
+        <v>-0.0003265050567486407</v>
       </c>
       <c r="D50">
-        <v>0.0002201682122132596</v>
+        <v>0.0002327999419915182</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1966,19 +2211,24 @@
           <t>Dominican Republic</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-7.536281577159299e-05</v>
+        <v>-6.766860446451309e-05</v>
       </c>
       <c r="B51">
-        <v>0.00019365861120132</v>
+        <v>0.000195146449027357</v>
       </c>
       <c r="C51">
-        <v>-0.0004626800381742329</v>
+        <v>-0.0004579615025192271</v>
       </c>
       <c r="D51">
-        <v>0.0003119544066310469</v>
+        <v>0.000322624293590201</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1998,19 +2248,24 @@
           <t>Dominican Republic</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>7.985718412463849e-05</v>
+        <v>6.635704029388193e-05</v>
       </c>
       <c r="B52">
-        <v>0.0001464230075715151</v>
+        <v>0.0001516007979779091</v>
       </c>
       <c r="C52">
-        <v>-0.0002129888310183917</v>
+        <v>-0.0002368445556619362</v>
       </c>
       <c r="D52">
-        <v>0.0003727031992676687</v>
+        <v>0.0003695586362497</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2030,19 +2285,24 @@
           <t>Dominican Republic</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.0001072967502136171</v>
+        <v>9.497528623303528e-05</v>
       </c>
       <c r="B53">
-        <v>0.000190643162138858</v>
+        <v>0.0001980356091000323</v>
       </c>
       <c r="C53">
-        <v>-0.0002739895740640989</v>
+        <v>-0.0003010959319670294</v>
       </c>
       <c r="D53">
-        <v>0.000488583074491333</v>
+        <v>0.0004910465044330999</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2062,19 +2322,24 @@
           <t>Dominican Republic</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>-5.827834025578866e-05</v>
+        <v>-4.685255737856129e-05</v>
       </c>
       <c r="B54">
-        <v>0.0001392232762345241</v>
+        <v>0.0001398262496850397</v>
       </c>
       <c r="C54">
-        <v>-0.0003367248927248369</v>
+        <v>-0.0003265050567486407</v>
       </c>
       <c r="D54">
-        <v>0.0002201682122132596</v>
+        <v>0.0002327999419915182</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2094,19 +2359,24 @@
           <t>Dominican Republic</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>-0.0001336411560273817</v>
+        <v>-0.0001145211618430744</v>
       </c>
       <c r="B55">
-        <v>0.0002407076990907113</v>
+        <v>0.0002430001247580761</v>
       </c>
       <c r="C55">
-        <v>-0.0006150565542088042</v>
+        <v>-0.0006005214113592266</v>
       </c>
       <c r="D55">
-        <v>0.0003477742421540409</v>
+        <v>0.0003714790876730779</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2126,19 +2396,24 @@
           <t>Dominican Republic</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-5.378397190274316e-05</v>
+        <v>-4.816412154919244e-05</v>
       </c>
       <c r="B56">
-        <v>0.0002509688422440797</v>
+        <v>0.0002575023724231923</v>
       </c>
       <c r="C56">
-        <v>-0.0005557216563909026</v>
+        <v>-0.0005631688663955771</v>
       </c>
       <c r="D56">
-        <v>0.0004481537125854163</v>
+        <v>0.0004668406232971922</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2158,19 +2433,24 @@
           <t>Dominican Republic</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>5.351277831087393e-05</v>
+        <v>4.681116468384285e-05</v>
       </c>
       <c r="B57">
-        <v>0.0003753790084403611</v>
+        <v>0.0003932467521496271</v>
       </c>
       <c r="C57">
-        <v>-0.0006972452385698482</v>
+        <v>-0.0007396823396154114</v>
       </c>
       <c r="D57">
-        <v>0.000804270795191596</v>
+        <v>0.0008333046689830971</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2190,19 +2470,24 @@
           <t>Dominican Republic</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>-0.0002798551182769813</v>
+        <v>-0.0002204648515807315</v>
       </c>
       <c r="B58">
-        <v>0.0002593413293729115</v>
+        <v>0.0002806273239929576</v>
       </c>
       <c r="C58">
-        <v>-0.0007985377770228044</v>
+        <v>-0.0007817194995666467</v>
       </c>
       <c r="D58">
-        <v>0.0002388275404688417</v>
+        <v>0.0003407897964051838</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2222,19 +2507,24 @@
           <t>Guatemala</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>-0.0001580338156963054</v>
+        <v>-0.0001472109890470325</v>
       </c>
       <c r="B59">
-        <v>0.0002557868869487201</v>
+        <v>0.0002609256948667726</v>
       </c>
       <c r="C59">
-        <v>-0.0006696075895937457</v>
+        <v>-0.0006690623787805776</v>
       </c>
       <c r="D59">
-        <v>0.0003535399582011348</v>
+        <v>0.0003746404006865126</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2254,19 +2544,24 @@
           <t>Guatemala</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.0004958122005134845</v>
+        <v>-0.0004800924542267307</v>
       </c>
       <c r="B60">
-        <v>0.000230973259420185</v>
+        <v>0.0002293871092109284</v>
       </c>
       <c r="C60">
-        <v>-0.0009577587193538544</v>
+        <v>-0.0009388666726485874</v>
       </c>
       <c r="D60">
-        <v>-3.386568167311455e-05</v>
+        <v>-2.131823580487399e-05</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2286,19 +2581,24 @@
           <t>Guatemala</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.000376919390027041</v>
+        <v>0.0003871997136736864</v>
       </c>
       <c r="B61">
-        <v>0.0002405003157098544</v>
+        <v>0.0002392343398014961</v>
       </c>
       <c r="C61">
-        <v>-0.0001040812413926677</v>
+        <v>-9.126896592930587e-05</v>
       </c>
       <c r="D61">
-        <v>0.0008579200214467497</v>
+        <v>0.0008656683932766787</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2318,19 +2618,24 @@
           <t>Guatemala</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.0002798551182769813</v>
+        <v>-0.0002204648515807315</v>
       </c>
       <c r="B62">
-        <v>0.0002593413293729115</v>
+        <v>0.0002806273239929576</v>
       </c>
       <c r="C62">
-        <v>-0.0007985377770228044</v>
+        <v>-0.0007817194995666467</v>
       </c>
       <c r="D62">
-        <v>0.0002388275404688417</v>
+        <v>0.0003407897964051838</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2350,19 +2655,24 @@
           <t>Guatemala</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>-0.0004378889339732867</v>
+        <v>-0.000367675840627764</v>
       </c>
       <c r="B63">
-        <v>0.0004089220968093324</v>
+        <v>0.0004433623151912031</v>
       </c>
       <c r="C63">
-        <v>-0.001255733127591952</v>
+        <v>-0.00125440047101017</v>
       </c>
       <c r="D63">
-        <v>0.0003799552596453781</v>
+        <v>0.0005190487897546423</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2382,19 +2692,24 @@
           <t>Guatemala</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>-0.0009337011344867712</v>
+        <v>-0.0008477682948544947</v>
       </c>
       <c r="B64">
-        <v>0.000423547947399748</v>
+        <v>0.0004493198462292537</v>
       </c>
       <c r="C64">
-        <v>-0.001780797029286267</v>
+        <v>-0.001746407987313002</v>
       </c>
       <c r="D64">
-        <v>-8.660523968727525e-05</v>
+        <v>5.087139760401262e-05</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2414,19 +2729,24 @@
           <t>Guatemala</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>-0.0005567817444597302</v>
+        <v>-0.0004605685811808083</v>
       </c>
       <c r="B65">
-        <v>0.000421669000147509</v>
+        <v>0.0004326536839181931</v>
       </c>
       <c r="C65">
-        <v>-0.001400119744754748</v>
+        <v>-0.001325875949017194</v>
       </c>
       <c r="D65">
-        <v>0.0002865562558352878</v>
+        <v>0.000404738786655578</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2446,19 +2766,24 @@
           <t>Guatemala</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>-0.0002346817607614496</v>
+        <v>-0.000232264029942831</v>
       </c>
       <c r="B66">
-        <v>0.0001923254026763743</v>
+        <v>0.000192215750721323</v>
       </c>
       <c r="C66">
-        <v>-0.0006193325661141983</v>
+        <v>-0.000616695531385477</v>
       </c>
       <c r="D66">
-        <v>0.000149969044591299</v>
+        <v>0.0001521674714998149</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2478,19 +2803,24 @@
           <t>Honduras</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>9.544726350584468e-05</v>
+        <v>0.000103634152184645</v>
       </c>
       <c r="B67">
-        <v>0.0001257095695809301</v>
+        <v>0.0001263903831617777</v>
       </c>
       <c r="C67">
-        <v>-0.0001559718756560156</v>
+        <v>-0.0001491466141389104</v>
       </c>
       <c r="D67">
-        <v>0.0003468664026677049</v>
+        <v>0.0003564149185082003</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2510,19 +2840,24 @@
           <t>Honduras</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>-0.000198571484961211</v>
+        <v>-0.0001946580630955608</v>
       </c>
       <c r="B68">
-        <v>0.0001655319165378035</v>
+        <v>0.0001633713084996018</v>
       </c>
       <c r="C68">
-        <v>-0.0005296353180368181</v>
+        <v>-0.0005214006800947643</v>
       </c>
       <c r="D68">
-        <v>0.000132492348114396</v>
+        <v>0.0001320845539036427</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2542,19 +2877,24 @@
           <t>Honduras</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>-0.0001704407745811858</v>
+        <v>-0.0001641255949532035</v>
       </c>
       <c r="B69">
-        <v>0.0001825118872531643</v>
+        <v>0.0001846163779695508</v>
       </c>
       <c r="C69">
-        <v>-0.0005354645490875144</v>
+        <v>-0.0005333583508923051</v>
       </c>
       <c r="D69">
-        <v>0.0001945829999251429</v>
+        <v>0.0002051071609858981</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2574,19 +2914,24 @@
           <t>Honduras</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>-0.0002346817607614496</v>
+        <v>-0.000232264029942831</v>
       </c>
       <c r="B70">
-        <v>0.0001923254026763743</v>
+        <v>0.000192215750721323</v>
       </c>
       <c r="C70">
-        <v>-0.0006193325661141983</v>
+        <v>-0.000616695531385477</v>
       </c>
       <c r="D70">
-        <v>0.000149969044591299</v>
+        <v>0.0001521674714998149</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2606,19 +2951,24 @@
           <t>Honduras</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.000139234497255605</v>
+        <v>-0.000128629877758186</v>
       </c>
       <c r="B71">
-        <v>0.0002236354471016845</v>
+        <v>0.000221290611300785</v>
       </c>
       <c r="C71">
-        <v>-0.0005865053914589739</v>
+        <v>-0.0005712111003597562</v>
       </c>
       <c r="D71">
-        <v>0.000308036396947764</v>
+        <v>0.0003139513448433841</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2638,19 +2988,24 @@
           <t>Honduras</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.000337805982216816</v>
+        <v>-0.0003232879408537469</v>
       </c>
       <c r="B72">
-        <v>0.000300733739483519</v>
+        <v>0.0002941073191525418</v>
       </c>
       <c r="C72">
-        <v>-0.0009392734611838541</v>
+        <v>-0.0009115025791588305</v>
       </c>
       <c r="D72">
-        <v>0.0002636614967502221</v>
+        <v>0.0002649266974513367</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2670,19 +3025,24 @@
           <t>Honduras</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>-0.0005082467567980018</v>
+        <v>-0.0004874135358069504</v>
       </c>
       <c r="B73">
-        <v>0.0003575212930961202</v>
+        <v>0.0003534832229451514</v>
       </c>
       <c r="C73">
-        <v>-0.001223289342990242</v>
+        <v>-0.001194379981697253</v>
       </c>
       <c r="D73">
-        <v>0.0002067958293942386</v>
+        <v>0.0002195529100833525</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2702,19 +3062,24 @@
           <t>Honduras</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.0001702489006219118</v>
+        <v>0.0001357004064984869</v>
       </c>
       <c r="B74">
-        <v>0.0001741652974736523</v>
+        <v>9.26564527512749e-05</v>
       </c>
       <c r="C74">
-        <v>-0.0001780816943253928</v>
+        <v>-4.961249900406294e-05</v>
       </c>
       <c r="D74">
-        <v>0.0005185794955692164</v>
+        <v>0.0003210133120010366</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2734,19 +3099,24 @@
           <t>Haiti</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.0004096049714916754</v>
+        <v>0.000407800467832</v>
       </c>
       <c r="B75">
-        <v>0.0001653701145999183</v>
+        <v>0.0001489210774820311</v>
       </c>
       <c r="C75">
-        <v>7.886474229183878e-05</v>
+        <v>0.0001099583128679378</v>
       </c>
       <c r="D75">
-        <v>0.000740345200691512</v>
+        <v>0.0007056426227960621</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2766,19 +3136,24 @@
           <t>Haiti</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>-0.0001221639937884277</v>
+        <v>-0.0002072409816145708</v>
       </c>
       <c r="B76">
-        <v>9.107667960669646e-05</v>
+        <v>0.0001224028933910548</v>
       </c>
       <c r="C76">
-        <v>-0.0003043173530018207</v>
+        <v>-0.0004520467683966804</v>
       </c>
       <c r="D76">
-        <v>5.998936542496517e-05</v>
+        <v>3.756480516753878e-05</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2798,19 +3173,24 @@
           <t>Haiti</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>2.509485933501821e-05</v>
+        <v>4.044177067251239e-05</v>
       </c>
       <c r="B77">
-        <v>8.623522624302932e-05</v>
+        <v>7.460800459631489e-05</v>
       </c>
       <c r="C77">
-        <v>-0.0001473755931510404</v>
+        <v>-0.0001087742385201174</v>
       </c>
       <c r="D77">
-        <v>0.0001975653118210768</v>
+        <v>0.0001896577798651422</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2830,19 +3210,24 @@
           <t>Haiti</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.0001702489006219118</v>
+        <v>0.0001357004064984869</v>
       </c>
       <c r="B78">
-        <v>0.0001741652974736523</v>
+        <v>9.26564527512749e-05</v>
       </c>
       <c r="C78">
-        <v>-0.0001780816943253928</v>
+        <v>-4.961249900406294e-05</v>
       </c>
       <c r="D78">
-        <v>0.0005185794955692164</v>
+        <v>0.0003210133120010366</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2862,19 +3247,24 @@
           <t>Haiti</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.0005798538721135873</v>
+        <v>0.0005435008743304868</v>
       </c>
       <c r="B79">
-        <v>0.0003101743717777143</v>
+        <v>0.0001890572747998868</v>
       </c>
       <c r="C79">
-        <v>-4.04948714418414e-05</v>
+        <v>0.0001653863247307132</v>
       </c>
       <c r="D79">
-        <v>0.001200202615669016</v>
+        <v>0.0009216154239302604</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2894,19 +3284,24 @@
           <t>Haiti</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.0004576898783251595</v>
+        <v>0.000336259892715916</v>
       </c>
       <c r="B80">
-        <v>0.000344643784460037</v>
+        <v>0.0002091839563255582</v>
       </c>
       <c r="C80">
-        <v>-0.0002315976905949144</v>
+        <v>-8.210801993520042e-05</v>
       </c>
       <c r="D80">
-        <v>0.001146977447245233</v>
+        <v>0.0007546278053670325</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2926,19 +3321,24 @@
           <t>Haiti</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.0004827847376601777</v>
+        <v>0.0003767016633884285</v>
       </c>
       <c r="B81">
-        <v>0.0003960868051431467</v>
+        <v>0.0002405627604434689</v>
       </c>
       <c r="C81">
-        <v>-0.0003093888726261158</v>
+        <v>-0.0001044238574985093</v>
       </c>
       <c r="D81">
-        <v>0.001274958347946471</v>
+        <v>0.0008578271842753663</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2958,19 +3358,24 @@
           <t>Haiti</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.001514093308959452</v>
+        <v>0.001270002059060534</v>
       </c>
       <c r="B82">
-        <v>0.001033668088122612</v>
+        <v>0.00095601993849584</v>
       </c>
       <c r="C82">
-        <v>-0.0005532428672857719</v>
+        <v>-0.000642037817931146</v>
       </c>
       <c r="D82">
-        <v>0.003581429485204676</v>
+        <v>0.003182041936052214</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2990,19 +3395,24 @@
           <t>Indonesia</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>-0.0009213240598601939</v>
+        <v>-0.001151867013766679</v>
       </c>
       <c r="B83">
-        <v>0.0005357421124391617</v>
+        <v>0.0006213863148129929</v>
       </c>
       <c r="C83">
-        <v>-0.001992808284738517</v>
+        <v>-0.002394639643392664</v>
       </c>
       <c r="D83">
-        <v>0.0001501601650181295</v>
+        <v>9.090561585930698e-05</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3022,19 +3432,24 @@
           <t>Indonesia</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.0004959011114184975</v>
+        <v>0.0002816305557174123</v>
       </c>
       <c r="B84">
-        <v>0.0005284026476138299</v>
+        <v>0.0004603451173646727</v>
       </c>
       <c r="C84">
-        <v>-0.0005609041838091624</v>
+        <v>-0.000639059679011933</v>
       </c>
       <c r="D84">
-        <v>0.001552706406646157</v>
+        <v>0.001202320790446758</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3054,19 +3469,24 @@
           <t>Indonesia</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>-0.0002561875917963318</v>
+        <v>-0.0004511940713794605</v>
       </c>
       <c r="B85">
-        <v>0.0003205258766168817</v>
+        <v>0.00037090397449556</v>
       </c>
       <c r="C85">
-        <v>-0.0008972393450300952</v>
+        <v>-0.001193002020370581</v>
       </c>
       <c r="D85">
-        <v>0.0003848641614374317</v>
+        <v>0.0002906138776116596</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3086,19 +3506,24 @@
           <t>Indonesia</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.001514093308959452</v>
+        <v>0.001270002059060534</v>
       </c>
       <c r="B86">
-        <v>0.001033668088122612</v>
+        <v>0.00095601993849584</v>
       </c>
       <c r="C86">
-        <v>-0.0005532428672857719</v>
+        <v>-0.000642037817931146</v>
       </c>
       <c r="D86">
-        <v>0.003581429485204676</v>
+        <v>0.003182041936052214</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3118,19 +3543,24 @@
           <t>Indonesia</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.0005927692490992583</v>
+        <v>0.0001181350452938552</v>
       </c>
       <c r="B87">
-        <v>0.000624743652272746</v>
+        <v>0.0005424971652171594</v>
       </c>
       <c r="C87">
-        <v>-0.0006567180554462337</v>
+        <v>-0.0009668592851404636</v>
       </c>
       <c r="D87">
-        <v>0.00184225655364475</v>
+        <v>0.001203129375728174</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3150,19 +3580,24 @@
           <t>Indonesia</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.001088670360517756</v>
+        <v>0.0003997656010112675</v>
       </c>
       <c r="B88">
-        <v>0.00106631612643307</v>
+        <v>0.0008857738935749518</v>
       </c>
       <c r="C88">
-        <v>-0.001043961892348384</v>
+        <v>-0.001371782186138636</v>
       </c>
       <c r="D88">
-        <v>0.003221302613383895</v>
+        <v>0.002171313388161171</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3182,19 +3617,24 @@
           <t>Indonesia</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.000832482768721424</v>
+        <v>-5.142847036819308e-05</v>
       </c>
       <c r="B89">
-        <v>0.0009460794300862744</v>
+        <v>0.0007940997108329373</v>
       </c>
       <c r="C89">
-        <v>-0.001059676091451125</v>
+        <v>-0.001639627892034068</v>
       </c>
       <c r="D89">
-        <v>0.002724641628893973</v>
+        <v>0.001536770951297681</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3214,19 +3654,24 @@
           <t>Indonesia</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>-0.0001823032454660174</v>
+        <v>-0.0001994320236917532</v>
       </c>
       <c r="B90">
-        <v>7.087334788446665e-05</v>
+        <v>7.271245207130631e-05</v>
       </c>
       <c r="C90">
-        <v>-0.0003240499412349506</v>
+        <v>-0.0003448569278343658</v>
       </c>
       <c r="D90">
-        <v>-4.055654969708407e-05</v>
+        <v>-5.400711954914057e-05</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3246,19 +3691,24 @@
           <t>India</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>-7.32318021140221e-05</v>
+        <v>-7.724875312411543e-05</v>
       </c>
       <c r="B91">
-        <v>7.241718479117868e-05</v>
+        <v>6.651407380194304e-05</v>
       </c>
       <c r="C91">
-        <v>-0.0002180661716963794</v>
+        <v>-0.0002102769007280015</v>
       </c>
       <c r="D91">
-        <v>7.160256746833526e-05</v>
+        <v>5.577939447977065e-05</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3278,19 +3728,24 @@
           <t>India</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>-0.0001452278492435551</v>
+        <v>-0.0001408620185300962</v>
       </c>
       <c r="B92">
-        <v>4.537878904493985e-05</v>
+        <v>4.498113750167654e-05</v>
       </c>
       <c r="C92">
-        <v>-0.0002359854273334348</v>
+        <v>-0.0002308242935334493</v>
       </c>
       <c r="D92">
-        <v>-5.447027115367536e-05</v>
+        <v>-5.089974352674315e-05</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3310,19 +3765,24 @@
           <t>India</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>-4.893100215860906e-05</v>
+        <v>-4.442708968323954e-05</v>
       </c>
       <c r="B93">
-        <v>5.682948314363941e-05</v>
+        <v>5.315382986697138e-05</v>
       </c>
       <c r="C93">
-        <v>-0.0001625899684458879</v>
+        <v>-0.0001507347494171823</v>
       </c>
       <c r="D93">
-        <v>6.472796412866977e-05</v>
+        <v>6.188057005070323e-05</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3342,19 +3802,24 @@
           <t>India</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>-0.0001823032454660174</v>
+        <v>-0.0001994320236917532</v>
       </c>
       <c r="B94">
-        <v>7.087334788446665e-05</v>
+        <v>7.271245207130631e-05</v>
       </c>
       <c r="C94">
-        <v>-0.0003240499412349506</v>
+        <v>-0.0003448569278343658</v>
       </c>
       <c r="D94">
-        <v>-4.055654969708407e-05</v>
+        <v>-5.400711954914057e-05</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3374,19 +3839,24 @@
           <t>India</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>-0.0002555350475800394</v>
+        <v>-0.0002766807768158686</v>
       </c>
       <c r="B95">
-        <v>0.0001070179540949882</v>
+        <v>0.0001000524297612685</v>
       </c>
       <c r="C95">
-        <v>-0.0004695709557700157</v>
+        <v>-0.0004767856363384056</v>
       </c>
       <c r="D95">
-        <v>-4.149913939006312e-05</v>
+        <v>-7.657591729333168e-05</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3406,19 +3876,24 @@
           <t>India</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>-0.0004007628968235945</v>
+        <v>-0.0004175427953459648</v>
       </c>
       <c r="B96">
-        <v>0.0001475165423678038</v>
+        <v>0.0001386627971884972</v>
       </c>
       <c r="C96">
-        <v>-0.0006957959815592021</v>
+        <v>-0.0006948683897229592</v>
       </c>
       <c r="D96">
-        <v>-0.000105729812087987</v>
+        <v>-0.0001402172009689705</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3438,19 +3913,24 @@
           <t>India</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>-0.0004496938989822036</v>
+        <v>-0.0004619698850292044</v>
       </c>
       <c r="B97">
-        <v>0.0001820343262744281</v>
+        <v>0.0001689282828060155</v>
       </c>
       <c r="C97">
-        <v>-0.0008137625515310597</v>
+        <v>-0.0007998264506412355</v>
       </c>
       <c r="D97">
-        <v>-8.56252464333474e-05</v>
+        <v>-0.0001241133194171733</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3470,19 +3950,24 @@
           <t>India</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>-8.329628160313793e-05</v>
+        <v>-5.985853429306259e-05</v>
       </c>
       <c r="B98">
-        <v>0.0001261472515242976</v>
+        <v>0.0001318938195686905</v>
       </c>
       <c r="C98">
-        <v>-0.0003355907846517331</v>
+        <v>-0.0003236461734304435</v>
       </c>
       <c r="D98">
-        <v>0.0001689982214454573</v>
+        <v>0.0002039291048443183</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3502,19 +3987,24 @@
           <t>Cambodia</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>5.01542783241575e-05</v>
+        <v>7.368147456839809e-05</v>
       </c>
       <c r="B99">
-        <v>0.0001308392860655335</v>
+        <v>0.0001340448797720169</v>
       </c>
       <c r="C99">
-        <v>-0.0002115242938069094</v>
+        <v>-0.0001944082849756358</v>
       </c>
       <c r="D99">
-        <v>0.0003118328504552244</v>
+        <v>0.000341771234112432</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3534,19 +4024,24 @@
           <t>Cambodia</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>-0.0001079564476124721</v>
+        <v>-8.633848523451096e-05</v>
       </c>
       <c r="B100">
-        <v>9.221564049034663e-05</v>
+        <v>9.094620065148774e-05</v>
       </c>
       <c r="C100">
-        <v>-0.0002923877285931653</v>
+        <v>-0.0002682308865374864</v>
       </c>
       <c r="D100">
-        <v>7.647483336822119e-05</v>
+        <v>9.555391606846452e-05</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3566,19 +4061,24 @@
           <t>Cambodia</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>-6.314186297792657e-05</v>
+        <v>-4.580555675841012e-05</v>
       </c>
       <c r="B101">
-        <v>9.085026289959544e-05</v>
+        <v>9.445085176246186e-05</v>
       </c>
       <c r="C101">
-        <v>-0.0002448423887771175</v>
+        <v>-0.0002347072602833339</v>
       </c>
       <c r="D101">
-        <v>0.0001185586628212643</v>
+        <v>0.0001430961467665136</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3598,19 +4098,24 @@
           <t>Cambodia</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>-8.329628160313793e-05</v>
+        <v>-5.985853429306259e-05</v>
       </c>
       <c r="B102">
-        <v>0.0001261472515242976</v>
+        <v>0.0001318938195686905</v>
       </c>
       <c r="C102">
-        <v>-0.0003355907846517331</v>
+        <v>-0.0003236461734304435</v>
       </c>
       <c r="D102">
-        <v>0.0001689982214454573</v>
+        <v>0.0002039291048443183</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3630,19 +4135,24 @@
           <t>Cambodia</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>-3.314200327898042e-05</v>
+        <v>1.38229402753355e-05</v>
       </c>
       <c r="B103">
-        <v>0.0001731986515199184</v>
+        <v>0.0001863030929767714</v>
       </c>
       <c r="C103">
-        <v>-0.0003795393063188173</v>
+        <v>-0.0003587832456782073</v>
       </c>
       <c r="D103">
-        <v>0.0003132552997608564</v>
+        <v>0.0003864291262288782</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3662,19 +4172,24 @@
           <t>Cambodia</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>-0.0001410984508914525</v>
+        <v>-7.251554495917546e-05</v>
       </c>
       <c r="B104">
-        <v>0.0002343964099557448</v>
+        <v>0.0002468671407787427</v>
       </c>
       <c r="C104">
-        <v>-0.0006098912708029421</v>
+        <v>-0.0005662498265166608</v>
       </c>
       <c r="D104">
-        <v>0.0003276943690200371</v>
+        <v>0.0004212187365983099</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3694,19 +4209,24 @@
           <t>Cambodia</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>-0.0002042403138693791</v>
+        <v>-0.0001183211017175856</v>
       </c>
       <c r="B105">
-        <v>0.0002912292931676571</v>
+        <v>0.0003091905854835547</v>
       </c>
       <c r="C105">
-        <v>-0.0007866989002046933</v>
+        <v>-0.000736702272684695</v>
       </c>
       <c r="D105">
-        <v>0.0003782182724659351</v>
+        <v>0.000500060069249524</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3726,19 +4246,24 @@
           <t>Cambodia</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.0001600098409669469</v>
+        <v>0.0001708374195756793</v>
       </c>
       <c r="B106">
-        <v>8.738999640557677e-05</v>
+        <v>8.622411555904972e-05</v>
       </c>
       <c r="C106">
-        <v>-1.477015184420664e-05</v>
+        <v>-1.610811542420131e-06</v>
       </c>
       <c r="D106">
-        <v>0.0003347898337781004</v>
+        <v>0.0003432856506937787</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3758,19 +4283,24 @@
           <t>Laos</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>-6.51901649927868e-05</v>
+        <v>-5.967902789422059e-05</v>
       </c>
       <c r="B107">
-        <v>9.784754447187811e-05</v>
+        <v>9.676822373298307e-05</v>
       </c>
       <c r="C107">
-        <v>-0.000260885253936543</v>
+        <v>-0.0002532154753601868</v>
       </c>
       <c r="D107">
-        <v>0.0001305049239509694</v>
+        <v>0.0001338574195717455</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3790,19 +4320,24 @@
           <t>Laos</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>7.599014462605344e-05</v>
+        <v>7.699148333744962e-05</v>
       </c>
       <c r="B108">
-        <v>9.291174007802921e-05</v>
+        <v>9.121809328717843e-05</v>
       </c>
       <c r="C108">
-        <v>-0.000109833335530005</v>
+        <v>-0.0001054447032369072</v>
       </c>
       <c r="D108">
-        <v>0.0002618136247821119</v>
+        <v>0.0002594276699118065</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3822,19 +4357,24 @@
           <t>Laos</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>4.029695281470268e-05</v>
+        <v>3.993406867768568e-05</v>
       </c>
       <c r="B109">
-        <v>0.0001019798656264066</v>
+        <v>0.0001004883107484108</v>
       </c>
       <c r="C109">
-        <v>-0.0001636627784381106</v>
+        <v>-0.000161042552819136</v>
       </c>
       <c r="D109">
-        <v>0.0002442566840675159</v>
+        <v>0.0002409106901745073</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3854,19 +4394,24 @@
           <t>Laos</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.0001600098409669469</v>
+        <v>0.0001708374195756793</v>
       </c>
       <c r="B110">
-        <v>8.738999640557677e-05</v>
+        <v>8.622411555904972e-05</v>
       </c>
       <c r="C110">
-        <v>-1.477015184420664e-05</v>
+        <v>-1.610811542420131e-06</v>
       </c>
       <c r="D110">
-        <v>0.0003347898337781004</v>
+        <v>0.0003432856506937787</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3886,19 +4431,24 @@
           <t>Laos</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>9.48196759741601e-05</v>
+        <v>0.0001111583916814587</v>
       </c>
       <c r="B111">
-        <v>0.0001305713433871719</v>
+        <v>0.0001269981652860166</v>
       </c>
       <c r="C111">
-        <v>-0.0001663230108001838</v>
+        <v>-0.0001428379388905745</v>
       </c>
       <c r="D111">
-        <v>0.000355962362748504</v>
+        <v>0.000365154722253492</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3918,19 +4468,24 @@
           <t>Laos</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.0001708098206002136</v>
+        <v>0.0001881498750189083</v>
       </c>
       <c r="B112">
-        <v>0.0001697116400276326</v>
+        <v>0.0001607022305736397</v>
       </c>
       <c r="C112">
-        <v>-0.0001686134594550517</v>
+        <v>-0.0001332545861283711</v>
       </c>
       <c r="D112">
-        <v>0.0005102331006554788</v>
+        <v>0.0005095543361661877</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3950,19 +4505,24 @@
           <t>Laos</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.0002111067734149162</v>
+        <v>0.000228083943696594</v>
       </c>
       <c r="B113">
-        <v>0.0002128242972889795</v>
+        <v>0.0002006737568801271</v>
       </c>
       <c r="C113">
-        <v>-0.0002145418211630428</v>
+        <v>-0.0001732635700636602</v>
       </c>
       <c r="D113">
-        <v>0.0006367553679928752</v>
+        <v>0.0006294314574568482</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3982,19 +4542,24 @@
           <t>Laos</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>-4.621102336887992e-06</v>
+        <v>-1.66569586816261e-05</v>
       </c>
       <c r="B114">
-        <v>9.544557801140506e-05</v>
+        <v>9.116759201162136e-05</v>
       </c>
       <c r="C114">
-        <v>-0.0001955122583596981</v>
+        <v>-0.0001989921427048688</v>
       </c>
       <c r="D114">
-        <v>0.0001862700536859221</v>
+        <v>0.0001656782253416166</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4014,19 +4579,24 @@
           <t>Madagascar</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>6.945656383391115e-05</v>
+        <v>6.211779452256108e-05</v>
       </c>
       <c r="B115">
-        <v>6.65349660766421e-05</v>
+        <v>6.469912063135165e-05</v>
       </c>
       <c r="C115">
-        <v>-6.361336831937305e-05</v>
+        <v>-6.728044674014223e-05</v>
       </c>
       <c r="D115">
-        <v>0.0002025264959871953</v>
+        <v>0.0001915160357852644</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4046,19 +4616,24 @@
           <t>Madagascar</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>4.206773581429913e-05</v>
+        <v>3.130690390465953e-05</v>
       </c>
       <c r="B116">
-        <v>8.973176417761919e-05</v>
+        <v>8.824788208368569e-05</v>
       </c>
       <c r="C116">
-        <v>-0.0001373957925409392</v>
+        <v>-0.0001451888602627118</v>
       </c>
       <c r="D116">
-        <v>0.0002215312641695375</v>
+        <v>0.0002078026680720309</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4078,19 +4653,24 @@
           <t>Madagascar</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>-6.833634016739992e-05</v>
+        <v>-7.754972725374483e-05</v>
       </c>
       <c r="B117">
-        <v>7.794303558465899e-05</v>
+        <v>7.621476246153733e-05</v>
       </c>
       <c r="C117">
-        <v>-0.0002242224113367179</v>
+        <v>-0.0002299792521768195</v>
       </c>
       <c r="D117">
-        <v>8.754973100191807e-05</v>
+        <v>7.487979766932984e-05</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4110,19 +4690,24 @@
           <t>Madagascar</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>-4.621102336887992e-06</v>
+        <v>-1.66569586816261e-05</v>
       </c>
       <c r="B118">
-        <v>9.544557801140506e-05</v>
+        <v>9.116759201162136e-05</v>
       </c>
       <c r="C118">
-        <v>-0.0001955122583596981</v>
+        <v>-0.0001989921427048688</v>
       </c>
       <c r="D118">
-        <v>0.0001862700536859221</v>
+        <v>0.0001656782253416166</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4142,19 +4727,24 @@
           <t>Madagascar</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>6.483546149702316e-05</v>
+        <v>4.546083584093497e-05</v>
       </c>
       <c r="B119">
-        <v>0.0001314303984770072</v>
+        <v>0.0001272903828603515</v>
       </c>
       <c r="C119">
-        <v>-0.0001980253354569913</v>
+        <v>-0.000209119929879768</v>
       </c>
       <c r="D119">
-        <v>0.0003276962584510376</v>
+        <v>0.0003000416015616379</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4174,19 +4764,24 @@
           <t>Madagascar</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.0001069031973113223</v>
+        <v>7.676773974559451e-05</v>
       </c>
       <c r="B120">
-        <v>0.0001875111671262138</v>
+        <v>0.0001775219246137594</v>
       </c>
       <c r="C120">
-        <v>-0.0002681191369411053</v>
+        <v>-0.0002782761094819242</v>
       </c>
       <c r="D120">
-        <v>0.0004819255315637498</v>
+        <v>0.0004318115889731133</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4206,19 +4801,24 @@
           <t>Madagascar</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>3.856685714392237e-05</v>
+        <v>-7.819875081503199e-07</v>
       </c>
       <c r="B121">
-        <v>0.0002397145697845079</v>
+        <v>0.0002257444294063698</v>
       </c>
       <c r="C121">
-        <v>-0.0004408622824250934</v>
+        <v>-0.0004522708463208898</v>
       </c>
       <c r="D121">
-        <v>0.0005179959967129381</v>
+        <v>0.0004507068713045892</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4238,19 +4838,24 @@
           <t>Madagascar</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>-0.0002958979485019145</v>
+        <v>-0.0003766277045100802</v>
       </c>
       <c r="B122">
-        <v>0.0001433880603583464</v>
+        <v>0.0001778018596307347</v>
       </c>
       <c r="C122">
-        <v>-0.0005826740692186072</v>
+        <v>-0.0007322314237715496</v>
       </c>
       <c r="D122">
-        <v>-9.12182778522178e-06</v>
+        <v>-2.102398524861078e-05</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4270,19 +4875,24 @@
           <t>Myanmar (Burma)</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>2.887935598563839e-05</v>
+        <v>3.091511355763591e-05</v>
       </c>
       <c r="B123">
-        <v>0.0001308276144194632</v>
+        <v>0.000134265345946731</v>
       </c>
       <c r="C123">
-        <v>-0.0002327758728532879</v>
+        <v>-0.0002376155783358261</v>
       </c>
       <c r="D123">
-        <v>0.0002905345848245647</v>
+        <v>0.0002994458054510979</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4302,19 +4912,24 @@
           <t>Myanmar (Burma)</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>-0.0002412960889546057</v>
+        <v>-0.0002439677275477261</v>
       </c>
       <c r="B124">
-        <v>0.0001140658900407095</v>
+        <v>0.0001144898675726485</v>
       </c>
       <c r="C124">
-        <v>-0.0004694278690360246</v>
+        <v>-0.000472947462693023</v>
       </c>
       <c r="D124">
-        <v>-1.316430887318676e-05</v>
+        <v>-1.498799240242914e-05</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4334,19 +4949,24 @@
           <t>Myanmar (Burma)</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.0001782542696896991</v>
+        <v>0.0001783631211537904</v>
       </c>
       <c r="B125">
-        <v>0.0001416885683532867</v>
+        <v>0.0001422735919650947</v>
       </c>
       <c r="C125">
-        <v>-0.0001051228670168743</v>
+        <v>-0.000106184062776399</v>
       </c>
       <c r="D125">
-        <v>0.0004616314063962725</v>
+        <v>0.0004629103050839799</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4366,19 +4986,24 @@
           <t>Myanmar (Burma)</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>-0.0002958979485019145</v>
+        <v>-0.0003766277045100802</v>
       </c>
       <c r="B126">
-        <v>0.0001433880603583464</v>
+        <v>0.0001778018596307347</v>
       </c>
       <c r="C126">
-        <v>-0.0005826740692186072</v>
+        <v>-0.0007322314237715496</v>
       </c>
       <c r="D126">
-        <v>-9.12182778522178e-06</v>
+        <v>-2.102398524861078e-05</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4398,19 +5023,24 @@
           <t>Myanmar (Burma)</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>-0.0002670185925162761</v>
+        <v>-0.0003457125909524443</v>
       </c>
       <c r="B127">
-        <v>0.0001402499431463896</v>
+        <v>0.0001917885203380769</v>
       </c>
       <c r="C127">
-        <v>-0.0005475184788090552</v>
+        <v>-0.0007292896316285981</v>
       </c>
       <c r="D127">
-        <v>1.348129377650304e-05</v>
+        <v>3.786444972370947e-05</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4430,19 +5060,24 @@
           <t>Myanmar (Burma)</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>-0.0005083146814708818</v>
+        <v>-0.0005896803185001703</v>
       </c>
       <c r="B128">
-        <v>0.0002172806411879344</v>
+        <v>0.0002535039578562089</v>
       </c>
       <c r="C128">
-        <v>-0.0009428759638467506</v>
+        <v>-0.001096688234212588</v>
       </c>
       <c r="D128">
-        <v>-7.375339909501303e-05</v>
+        <v>-8.267240278775248e-05</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4462,19 +5097,24 @@
           <t>Myanmar (Burma)</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>-0.0003300604117811827</v>
+        <v>-0.0004113171973463799</v>
       </c>
       <c r="B129">
-        <v>0.0003103062017320433</v>
+        <v>0.0003480314564849443</v>
       </c>
       <c r="C129">
-        <v>-0.0009506728152452694</v>
+        <v>-0.001107380110316269</v>
       </c>
       <c r="D129">
-        <v>0.0002905519916829039</v>
+        <v>0.0002847457156235087</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4494,19 +5134,24 @@
           <t>Myanmar (Burma)</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.0007186244095048906</v>
+        <v>0.0006676469708724526</v>
       </c>
       <c r="B130">
-        <v>0.0003623520889349948</v>
+        <v>0.0003661643854585401</v>
       </c>
       <c r="C130">
-        <v>-6.079768365099066e-06</v>
+        <v>-6.468180004462758e-05</v>
       </c>
       <c r="D130">
-        <v>0.00144332858737488</v>
+        <v>0.001399975741789533</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4526,19 +5171,24 @@
           <t>Mozambique</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.0003759268794109274</v>
+        <v>0.0003216136967489104</v>
       </c>
       <c r="B131">
-        <v>0.0002871500062930148</v>
+        <v>0.0002532260953809473</v>
       </c>
       <c r="C131">
-        <v>-0.0001983731331751022</v>
+        <v>-0.0001848384940129843</v>
       </c>
       <c r="D131">
-        <v>0.0009502268919969572</v>
+        <v>0.0008280658875108051</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4558,19 +5208,24 @@
           <t>Mozambique</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>-0.0001508709861610664</v>
+        <v>-0.0001997455225160826</v>
       </c>
       <c r="B132">
-        <v>0.0002741372255415052</v>
+        <v>0.0002942711619649865</v>
       </c>
       <c r="C132">
-        <v>-0.0006991454372440767</v>
+        <v>-0.0007882878464460555</v>
       </c>
       <c r="D132">
-        <v>0.0003974034649219439</v>
+        <v>0.0003887968014138903</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4590,19 +5245,24 @@
           <t>Mozambique</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>-0.0007085297012435315</v>
+        <v>-0.0007564227938803465</v>
       </c>
       <c r="B133">
-        <v>0.0001293383969041967</v>
+        <v>0.0001388097726720369</v>
       </c>
       <c r="C133">
-        <v>-0.0009672064950519248</v>
+        <v>-0.00103404233922442</v>
       </c>
       <c r="D133">
-        <v>-0.0004498529074351382</v>
+        <v>-0.0004788032485362726</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4622,19 +5282,24 @@
           <t>Mozambique</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.0007186244095048906</v>
+        <v>0.0006676469708724526</v>
       </c>
       <c r="B134">
-        <v>0.0003623520889349948</v>
+        <v>0.0003661643854585401</v>
       </c>
       <c r="C134">
-        <v>-6.079768365099066e-06</v>
+        <v>-6.468180004462758e-05</v>
       </c>
       <c r="D134">
-        <v>0.00144332858737488</v>
+        <v>0.001399975741789533</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4654,19 +5319,24 @@
           <t>Mozambique</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.001094551288915818</v>
+        <v>0.000989260667621363</v>
       </c>
       <c r="B135">
-        <v>0.0004473540960576364</v>
+        <v>0.0004355778496875071</v>
       </c>
       <c r="C135">
-        <v>0.0001998430968005451</v>
+        <v>0.0001181049682463487</v>
       </c>
       <c r="D135">
-        <v>0.001989259481031091</v>
+        <v>0.001860416366996377</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4686,19 +5356,24 @@
           <t>Mozambique</t>
         </is>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.0009436803027547516</v>
+        <v>0.0007895151451052804</v>
       </c>
       <c r="B136">
-        <v>0.0005836601359999416</v>
+        <v>0.0005978613588722266</v>
       </c>
       <c r="C136">
-        <v>-0.0002236399692451316</v>
+        <v>-0.0004062075726391729</v>
       </c>
       <c r="D136">
-        <v>0.002111000574754635</v>
+        <v>0.001985237862849733</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4718,19 +5393,24 @@
           <t>Mozambique</t>
         </is>
       </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.0002351506015112201</v>
+        <v>3.309235122493382e-05</v>
       </c>
       <c r="B137">
-        <v>0.0005826989409887663</v>
+        <v>0.0006105940256943884</v>
       </c>
       <c r="C137">
-        <v>-0.0009302472804663124</v>
+        <v>-0.001188095700163843</v>
       </c>
       <c r="D137">
-        <v>0.001400548483488753</v>
+        <v>0.001254280402613711</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4750,19 +5430,24 @@
           <t>Mozambique</t>
         </is>
       </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>-0.0002761539083881889</v>
+        <v>-0.0003670078685262732</v>
       </c>
       <c r="B138">
-        <v>0.0004154844172329852</v>
+        <v>0.00044915452737621</v>
       </c>
       <c r="C138">
-        <v>-0.001107122742854159</v>
+        <v>-0.001265316923278693</v>
       </c>
       <c r="D138">
-        <v>0.0005548149260777815</v>
+        <v>0.0005313011862261468</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4782,19 +5467,24 @@
           <t>Nicaragua</t>
         </is>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>-1.752722157707059e-05</v>
+        <v>-9.633643990276776e-05</v>
       </c>
       <c r="B139">
-        <v>0.0006033423685160042</v>
+        <v>0.0006089581845099031</v>
       </c>
       <c r="C139">
-        <v>-0.001224211958609079</v>
+        <v>-0.001314252808922574</v>
       </c>
       <c r="D139">
-        <v>0.001189157515454938</v>
+        <v>0.001121579929117038</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4814,19 +5504,24 @@
           <t>Nicaragua</t>
         </is>
       </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.0005369715182949774</v>
+        <v>0.0004820268115803027</v>
       </c>
       <c r="B140">
-        <v>0.0005061390641778496</v>
+        <v>0.0005170745998140171</v>
       </c>
       <c r="C140">
-        <v>-0.0004753066100607219</v>
+        <v>-0.0005521223880477315</v>
       </c>
       <c r="D140">
-        <v>0.001549249646650677</v>
+        <v>0.001516176011208337</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4846,19 +5541,24 @@
           <t>Nicaragua</t>
         </is>
       </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>8.266003216878466e-05</v>
+        <v>4.233743577359186e-05</v>
       </c>
       <c r="B141">
-        <v>0.0006946680851785641</v>
+        <v>0.0007076812064632199</v>
       </c>
       <c r="C141">
-        <v>-0.001306676138188344</v>
+        <v>-0.001373024977152848</v>
       </c>
       <c r="D141">
-        <v>0.001471996202525913</v>
+        <v>0.001457699848700032</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4878,19 +5578,24 @@
           <t>Nicaragua</t>
         </is>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>-0.0002761539083881889</v>
+        <v>-0.0003670078685262732</v>
       </c>
       <c r="B142">
-        <v>0.0004154844172329852</v>
+        <v>0.00044915452737621</v>
       </c>
       <c r="C142">
-        <v>-0.001107122742854159</v>
+        <v>-0.001265316923278693</v>
       </c>
       <c r="D142">
-        <v>0.0005548149260777815</v>
+        <v>0.0005313011862261468</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4910,19 +5615,24 @@
           <t>Nicaragua</t>
         </is>
       </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>-0.0002936811299652595</v>
+        <v>-0.000463344308429041</v>
       </c>
       <c r="B143">
-        <v>0.0006961950241041935</v>
+        <v>0.0007389611606723151</v>
       </c>
       <c r="C143">
-        <v>-0.001686071178173647</v>
+        <v>-0.001941266629773671</v>
       </c>
       <c r="D143">
-        <v>0.001098708918243127</v>
+        <v>0.001014578012915589</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4942,19 +5652,24 @@
           <t>Nicaragua</t>
         </is>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.0002432903883297179</v>
+        <v>1.868250315126168e-05</v>
       </c>
       <c r="B144">
-        <v>0.001101446344043551</v>
+        <v>0.001156254712730248</v>
       </c>
       <c r="C144">
-        <v>-0.001959602299757384</v>
+        <v>-0.002293826922309235</v>
       </c>
       <c r="D144">
-        <v>0.00244618307641682</v>
+        <v>0.002331191928611758</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4974,19 +5689,24 @@
           <t>Nicaragua</t>
         </is>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.0003259504204985025</v>
+        <v>6.101993892485355e-05</v>
       </c>
       <c r="B145">
-        <v>0.001341193193824037</v>
+        <v>0.001426293928929373</v>
       </c>
       <c r="C145">
-        <v>-0.002356435967149572</v>
+        <v>-0.002791567918933893</v>
       </c>
       <c r="D145">
-        <v>0.003008336808146577</v>
+        <v>0.0029136077967836</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5006,19 +5726,24 @@
           <t>Nicaragua</t>
         </is>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>3.768192874447931e-05</v>
+        <v>5.455505037162823e-05</v>
       </c>
       <c r="B146">
-        <v>0.000213635695524382</v>
+        <v>0.0002092856311352009</v>
       </c>
       <c r="C146">
-        <v>-0.0003895894623042848</v>
+        <v>-0.0003640162118987736</v>
       </c>
       <c r="D146">
-        <v>0.0004649533197932434</v>
+        <v>0.00047312631264203</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5038,19 +5763,24 @@
           <t>Pakistan</t>
         </is>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>-0.0003221743496240653</v>
+        <v>-0.0003071341947885999</v>
       </c>
       <c r="B147">
-        <v>0.00019408836434602</v>
+        <v>0.0001951112293397086</v>
       </c>
       <c r="C147">
-        <v>-0.0007103510783161052</v>
+        <v>-0.000697356653468017</v>
       </c>
       <c r="D147">
-        <v>6.600237906797472e-05</v>
+        <v>8.308826389081728e-05</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5070,19 +5800,24 @@
           <t>Pakistan</t>
         </is>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>-0.0002030573979764458</v>
+        <v>-0.0001937232858272221</v>
       </c>
       <c r="B148">
-        <v>0.0001354298767686873</v>
+        <v>0.0001334727413945847</v>
       </c>
       <c r="C148">
-        <v>-0.0004739171515138205</v>
+        <v>-0.0004606687686163916</v>
       </c>
       <c r="D148">
-        <v>6.780235556092887e-05</v>
+        <v>7.322219696194736e-05</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5102,19 +5837,24 @@
           <t>Pakistan</t>
         </is>
       </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>5.108612217723348e-06</v>
+        <v>1.666498919648855e-05</v>
       </c>
       <c r="B149">
-        <v>0.0001305935975768224</v>
+        <v>0.000127264894120021</v>
       </c>
       <c r="C149">
-        <v>-0.0002560785829359215</v>
+        <v>-0.0002378647990435535</v>
       </c>
       <c r="D149">
-        <v>0.0002662958073713682</v>
+        <v>0.0002711947774365306</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5134,19 +5874,24 @@
           <t>Pakistan</t>
         </is>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>3.768192874447931e-05</v>
+        <v>5.455505037162823e-05</v>
       </c>
       <c r="B150">
-        <v>0.000213635695524382</v>
+        <v>0.0002092856311352009</v>
       </c>
       <c r="C150">
-        <v>-0.0003895894623042848</v>
+        <v>-0.0003640162118987736</v>
       </c>
       <c r="D150">
-        <v>0.0004649533197932434</v>
+        <v>0.00047312631264203</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5166,19 +5911,24 @@
           <t>Pakistan</t>
         </is>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>-0.000284492420879586</v>
+        <v>-0.0002525791444169717</v>
       </c>
       <c r="B151">
-        <v>0.0003752041218640578</v>
+        <v>0.0003722504330057597</v>
       </c>
       <c r="C151">
-        <v>-0.001034900664607701</v>
+        <v>-0.0009970800104284912</v>
       </c>
       <c r="D151">
-        <v>0.0004659158228485296</v>
+        <v>0.0004919217215945478</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5198,19 +5948,24 @@
           <t>Pakistan</t>
         </is>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>-0.0004875498188560317</v>
+        <v>-0.0004463024302441938</v>
       </c>
       <c r="B152">
-        <v>0.0004820042940880693</v>
+        <v>0.0004762659490962416</v>
       </c>
       <c r="C152">
-        <v>-0.00145155840703217</v>
+        <v>-0.001398834328436677</v>
       </c>
       <c r="D152">
-        <v>0.0004764587693201069</v>
+        <v>0.0005062294679482894</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5230,19 +5985,24 @@
           <t>Pakistan</t>
         </is>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>-0.0004824412066383084</v>
+        <v>-0.0004296374410477052</v>
       </c>
       <c r="B153">
-        <v>0.0005292099431785503</v>
+        <v>0.0005174942043368571</v>
       </c>
       <c r="C153">
-        <v>-0.001540861092995409</v>
+        <v>-0.001464625849721419</v>
       </c>
       <c r="D153">
-        <v>0.0005759786797187923</v>
+        <v>0.000605350967626009</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5262,19 +6022,24 @@
           <t>Pakistan</t>
         </is>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>-1.495248612795807e-05</v>
+        <v>-1.409889571733321e-05</v>
       </c>
       <c r="B154">
-        <v>2.485974955207021e-05</v>
+        <v>2.539388099402339e-05</v>
       </c>
       <c r="C154">
-        <v>-6.467198523209848e-05</v>
+        <v>-6.488665770537999e-05</v>
       </c>
       <c r="D154">
-        <v>3.476701297618234e-05</v>
+        <v>3.668886627071357e-05</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5294,19 +6059,24 @@
           <t>Philippines</t>
         </is>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>-8.139181293680871e-06</v>
+        <v>-2.809857213627735e-06</v>
       </c>
       <c r="B155">
-        <v>2.620094069504659e-05</v>
+        <v>2.72686618606494e-05</v>
       </c>
       <c r="C155">
-        <v>-6.054106268377405e-05</v>
+        <v>-5.734718093492653e-05</v>
       </c>
       <c r="D155">
-        <v>4.426270009641231e-05</v>
+        <v>5.172746650767106e-05</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5326,19 +6096,24 @@
           <t>Philippines</t>
         </is>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>-4.555568964967026e-05</v>
+        <v>-4.310012798296187e-05</v>
       </c>
       <c r="B156">
-        <v>2.408523901619679e-05</v>
+        <v>2.511700147176826e-05</v>
       </c>
       <c r="C156">
-        <v>-9.372616768206385e-05</v>
+        <v>-9.33341309264984e-05</v>
       </c>
       <c r="D156">
-        <v>2.614788382723328e-06</v>
+        <v>7.133874960574656e-06</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5358,19 +6133,24 @@
           <t>Philippines</t>
         </is>
       </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>3.479171925928675e-05</v>
+        <v>2.99444921404449e-05</v>
       </c>
       <c r="B157">
-        <v>2.805541774086417e-05</v>
+        <v>2.787666893378132e-05</v>
       </c>
       <c r="C157">
-        <v>-2.131911622244158e-05</v>
+        <v>-2.580884572711773e-05</v>
       </c>
       <c r="D157">
-        <v>9.090255474101508e-05</v>
+        <v>8.569783000800753e-05</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5390,19 +6170,24 @@
           <t>Philippines</t>
         </is>
       </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>-1.495248612795807e-05</v>
+        <v>-1.409889571733321e-05</v>
       </c>
       <c r="B158">
-        <v>2.485974955207021e-05</v>
+        <v>2.539388099402339e-05</v>
       </c>
       <c r="C158">
-        <v>-6.467198523209848e-05</v>
+        <v>-6.488665770537999e-05</v>
       </c>
       <c r="D158">
-        <v>3.476701297618234e-05</v>
+        <v>3.668886627071357e-05</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5422,19 +6207,24 @@
           <t>Philippines</t>
         </is>
       </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>-2.309166742163894e-05</v>
+        <v>-1.690875293096094e-05</v>
       </c>
       <c r="B159">
-        <v>4.028921162501776e-05</v>
+        <v>4.173103439465914e-05</v>
       </c>
       <c r="C159">
-        <v>-0.0001036700906716745</v>
+        <v>-0.0001003708217202792</v>
       </c>
       <c r="D159">
-        <v>5.748675582839659e-05</v>
+        <v>6.655331585835733e-05</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -5454,19 +6244,24 @@
           <t>Philippines</t>
         </is>
       </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>-6.86473570713092e-05</v>
+        <v>-6.000888091392281e-05</v>
       </c>
       <c r="B160">
-        <v>4.870194791194979e-05</v>
+        <v>5.158386850465952e-05</v>
       </c>
       <c r="C160">
-        <v>-0.0001660512528952088</v>
+        <v>-0.0001631766179232419</v>
       </c>
       <c r="D160">
-        <v>2.875653875259039e-05</v>
+        <v>4.315885609539622e-05</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -5486,19 +6281,24 @@
           <t>Philippines</t>
         </is>
       </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>-3.385563781202244e-05</v>
+        <v>-3.006438877347791e-05</v>
       </c>
       <c r="B161">
-        <v>6.047969769625441e-05</v>
+        <v>6.428632343753504e-05</v>
       </c>
       <c r="C161">
-        <v>-0.0001548150332045313</v>
+        <v>-0.000158637035648548</v>
       </c>
       <c r="D161">
-        <v>8.710375758048638e-05</v>
+        <v>9.850825810159217e-05</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -5518,19 +6318,24 @@
           <t>Philippines</t>
         </is>
       </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.0001108062181800446</v>
+        <v>8.468933952130193e-05</v>
       </c>
       <c r="B162">
-        <v>0.0005982001220852558</v>
+        <v>0.0005893761753788712</v>
       </c>
       <c r="C162">
-        <v>-0.001085594025990467</v>
+        <v>-0.001094063011236441</v>
       </c>
       <c r="D162">
-        <v>0.001307206462350556</v>
+        <v>0.001263441690279044</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -5550,19 +6355,24 @@
           <t>El Salvador</t>
         </is>
       </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>2.670676433164622e-05</v>
+        <v>-4.690635304409497e-06</v>
       </c>
       <c r="B163">
-        <v>0.000583170683998453</v>
+        <v>0.0005764189397301361</v>
       </c>
       <c r="C163">
-        <v>-0.00113963460366526</v>
+        <v>-0.001157528514764682</v>
       </c>
       <c r="D163">
-        <v>0.001193048132328552</v>
+        <v>0.001148147244155863</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -5582,19 +6392,24 @@
           <t>El Salvador</t>
         </is>
       </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.001026755092336722</v>
+        <v>0.0009963623217742264</v>
       </c>
       <c r="B164">
-        <v>0.0007437018399984686</v>
+        <v>0.0007348101714181264</v>
       </c>
       <c r="C164">
-        <v>-0.0004606485876602149</v>
+        <v>-0.0004732580210620263</v>
       </c>
       <c r="D164">
-        <v>0.00251415877233366</v>
+        <v>0.002465982664610479</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -5614,19 +6429,24 @@
           <t>El Salvador</t>
         </is>
       </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.0006718477207422444</v>
+        <v>0.0006328390271258406</v>
       </c>
       <c r="B165">
-        <v>0.0006658020152341537</v>
+        <v>0.0006436494235175407</v>
       </c>
       <c r="C165">
-        <v>-0.0006597563097260631</v>
+        <v>-0.0006544598199092409</v>
       </c>
       <c r="D165">
-        <v>0.002003451751210552</v>
+        <v>0.001920137874160922</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -5646,19 +6466,24 @@
           <t>El Salvador</t>
         </is>
       </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.0001108062181800446</v>
+        <v>8.468933952130193e-05</v>
       </c>
       <c r="B166">
-        <v>0.0005982001220852558</v>
+        <v>0.0005893761753788712</v>
       </c>
       <c r="C166">
-        <v>-0.001085594025990467</v>
+        <v>-0.001094063011236441</v>
       </c>
       <c r="D166">
-        <v>0.001307206462350556</v>
+        <v>0.001263441690279044</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -5678,19 +6503,24 @@
           <t>El Salvador</t>
         </is>
       </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.0001375129825116908</v>
+        <v>7.999870421689243e-05</v>
       </c>
       <c r="B167">
-        <v>0.0007993908834266795</v>
+        <v>0.0007689331863985558</v>
       </c>
       <c r="C167">
-        <v>-0.001461268784341668</v>
+        <v>-0.001457867668580219</v>
       </c>
       <c r="D167">
-        <v>0.00173629474936505</v>
+        <v>0.001617865077014004</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -5710,19 +6540,24 @@
           <t>El Salvador</t>
         </is>
       </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.001164268074848413</v>
+        <v>0.001076361025991119</v>
       </c>
       <c r="B168">
-        <v>0.001356838251206308</v>
+        <v>0.001311983186665209</v>
       </c>
       <c r="C168">
-        <v>-0.001549408427564203</v>
+        <v>-0.0015476053473393</v>
       </c>
       <c r="D168">
-        <v>0.003877944577261029</v>
+        <v>0.003700327399321537</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -5742,19 +6577,24 @@
           <t>El Salvador</t>
         </is>
       </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.001836115795590658</v>
+        <v>0.001709200053116959</v>
       </c>
       <c r="B169">
-        <v>0.001449406958008557</v>
+        <v>0.001351633980581474</v>
       </c>
       <c r="C169">
-        <v>-0.001062698120426456</v>
+        <v>-0.000994067908045989</v>
       </c>
       <c r="D169">
-        <v>0.004734929711607771</v>
+        <v>0.004412468014279908</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -5772,6 +6612,11 @@
       <c r="H169" t="inlineStr">
         <is>
           <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
@@ -5806,6 +6651,11 @@
           <t>Thailand</t>
         </is>
       </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171">
@@ -5838,6 +6688,11 @@
           <t>Thailand</t>
         </is>
       </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172">
@@ -5870,6 +6725,11 @@
           <t>Thailand</t>
         </is>
       </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173">
@@ -5902,6 +6762,11 @@
           <t>Thailand</t>
         </is>
       </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174">
@@ -5934,6 +6799,11 @@
           <t>Thailand</t>
         </is>
       </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175">
@@ -5966,6 +6836,11 @@
           <t>Thailand</t>
         </is>
       </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176">
@@ -5998,6 +6873,11 @@
           <t>Thailand</t>
         </is>
       </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177">
@@ -6030,19 +6910,24 @@
           <t>Thailand</t>
         </is>
       </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>-0.0003255399962130137</v>
+        <v>-0.0002440439200475543</v>
       </c>
       <c r="B178">
-        <v>0.001220212346088533</v>
+        <v>0.001407749483694402</v>
       </c>
       <c r="C178">
-        <v>-0.00276596468839008</v>
+        <v>-0.003059542887436359</v>
       </c>
       <c r="D178">
-        <v>0.002114884695964053</v>
+        <v>0.00257145504734125</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -6062,19 +6947,24 @@
           <t>Timor-Leste</t>
         </is>
       </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>-0.001092551415470048</v>
+        <v>-0.001019759030975342</v>
       </c>
       <c r="B179">
-        <v>0.0003924780000025802</v>
+        <v>0.000547791427564521</v>
       </c>
       <c r="C179">
-        <v>-0.001877507415475208</v>
+        <v>-0.002115341886104383</v>
       </c>
       <c r="D179">
-        <v>-0.0003075954154648873</v>
+        <v>7.58238241537004e-05</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -6094,19 +6984,24 @@
           <t>Timor-Leste</t>
         </is>
       </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>-0.001443819477586229</v>
+        <v>-0.001376859537139859</v>
       </c>
       <c r="B180">
-        <v>0.0005993414203456545</v>
+        <v>0.000738860958552935</v>
       </c>
       <c r="C180">
-        <v>-0.002642502318277539</v>
+        <v>-0.002854581454245729</v>
       </c>
       <c r="D180">
-        <v>-0.0002451366368949202</v>
+        <v>0.0001008623799660109</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -6126,19 +7021,24 @@
           <t>Timor-Leste</t>
         </is>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.001165124079500144</v>
+        <v>0.001227274960024443</v>
       </c>
       <c r="B181">
-        <v>0.0005325896934381553</v>
+        <v>0.0006306923501182774</v>
       </c>
       <c r="C181">
-        <v>9.994469262383375e-05</v>
+        <v>-3.410974021211236e-05</v>
       </c>
       <c r="D181">
-        <v>0.002230303466376455</v>
+        <v>0.002488659660260998</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -6158,19 +7058,24 @@
           <t>Timor-Leste</t>
         </is>
       </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>-0.0003255399962130137</v>
+        <v>-0.0002440439200475543</v>
       </c>
       <c r="B182">
-        <v>0.001220212346088533</v>
+        <v>0.001407749483694402</v>
       </c>
       <c r="C182">
-        <v>-0.00276596468839008</v>
+        <v>-0.003059542887436359</v>
       </c>
       <c r="D182">
-        <v>0.002114884695964053</v>
+        <v>0.00257145504734125</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -6190,19 +7095,24 @@
           <t>Timor-Leste</t>
         </is>
       </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>-0.001418091411683061</v>
+        <v>-0.001263802951022896</v>
       </c>
       <c r="B183">
-        <v>0.001555714612230872</v>
+        <v>0.001919715929320707</v>
       </c>
       <c r="C183">
-        <v>-0.004529520636144806</v>
+        <v>-0.005103234809664309</v>
       </c>
       <c r="D183">
-        <v>0.001693337812778683</v>
+        <v>0.002575628907618518</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -6222,19 +7132,24 @@
           <t>Timor-Leste</t>
         </is>
       </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>-0.002861910889269291</v>
+        <v>-0.002640662488162755</v>
       </c>
       <c r="B184">
-        <v>0.002038172688596714</v>
+        <v>0.002567688804489667</v>
       </c>
       <c r="C184">
-        <v>-0.006938256266462719</v>
+        <v>-0.007776040097142087</v>
       </c>
       <c r="D184">
-        <v>0.001214434487924138</v>
+        <v>0.002494715120816578</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -6254,19 +7169,24 @@
           <t>Timor-Leste</t>
         </is>
       </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>-0.001696786809769146</v>
+        <v>-0.001413387528138312</v>
       </c>
       <c r="B185">
-        <v>0.002400021454977347</v>
+        <v>0.003068954548207451</v>
       </c>
       <c r="C185">
-        <v>-0.006496829719723841</v>
+        <v>-0.007551296624553215</v>
       </c>
       <c r="D185">
-        <v>0.003103256100185549</v>
+        <v>0.00472452156827659</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -6286,19 +7206,24 @@
           <t>Timor-Leste</t>
         </is>
       </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>East Asia &amp; Pacific</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>-0.0003021136145960237</v>
+        <v>-0.000284593990979883</v>
       </c>
       <c r="B186">
-        <v>0.0002201691816939446</v>
+        <v>0.0002192006046823371</v>
       </c>
       <c r="C186">
-        <v>-0.0007424519779839129</v>
+        <v>-0.0007229952003445573</v>
       </c>
       <c r="D186">
-        <v>0.0001382247487918655</v>
+        <v>0.0001538072183847913</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -6318,19 +7243,24 @@
           <t>Zimbabwe</t>
         </is>
       </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>-0.0005115764106916897</v>
+        <v>-0.0005183972512444845</v>
       </c>
       <c r="B187">
-        <v>0.0001229328402720404</v>
+        <v>0.00012268938659198</v>
       </c>
       <c r="C187">
-        <v>-0.0007574420912357706</v>
+        <v>-0.0007637760244284444</v>
       </c>
       <c r="D187">
-        <v>-0.0002657107301476088</v>
+        <v>-0.0002730184780605246</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -6350,19 +7280,24 @@
           <t>Zimbabwe</t>
         </is>
       </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>-0.001215873223496949</v>
+        <v>-0.001227689280088839</v>
       </c>
       <c r="B188">
-        <v>0.0001837275704432228</v>
+        <v>0.0001813207516703751</v>
       </c>
       <c r="C188">
-        <v>-0.001583328364383395</v>
+        <v>-0.00159033078342959</v>
       </c>
       <c r="D188">
-        <v>-0.0008484180826105036</v>
+        <v>-0.0008650477767480891</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -6382,19 +7317,24 @@
           <t>Zimbabwe</t>
         </is>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>-5.036814689520396e-05</v>
+        <v>-8.054960585922279e-05</v>
       </c>
       <c r="B189">
-        <v>0.0001980412307887613</v>
+        <v>0.000190467547346526</v>
       </c>
       <c r="C189">
-        <v>-0.0004464506084727266</v>
+        <v>-0.0004614847005522748</v>
       </c>
       <c r="D189">
-        <v>0.0003457143146823187</v>
+        <v>0.0003003854888338292</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -6414,19 +7354,24 @@
           <t>Zimbabwe</t>
         </is>
       </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>-0.0003021136145960237</v>
+        <v>-0.000284593990979883</v>
       </c>
       <c r="B190">
-        <v>0.0002201691816939446</v>
+        <v>0.0002192006046823371</v>
       </c>
       <c r="C190">
-        <v>-0.0007424519779839129</v>
+        <v>-0.0007229952003445573</v>
       </c>
       <c r="D190">
-        <v>0.0001382247487918655</v>
+        <v>0.0001538072183847913</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -6446,19 +7391,24 @@
           <t>Zimbabwe</t>
         </is>
       </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>-0.0008136900252877134</v>
+        <v>-0.0008029912422243675</v>
       </c>
       <c r="B191">
-        <v>0.000284484189659711</v>
+        <v>0.0002873618347414153</v>
       </c>
       <c r="C191">
-        <v>-0.001382658404607135</v>
+        <v>-0.001377714911707198</v>
       </c>
       <c r="D191">
-        <v>-0.0002447216459682914</v>
+        <v>-0.0002282675727415368</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -6478,19 +7428,24 @@
           <t>Zimbabwe</t>
         </is>
       </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>-0.002029563248784662</v>
+        <v>-0.002030680522313207</v>
       </c>
       <c r="B192">
-        <v>0.0002727572893372936</v>
+        <v>0.0002684482619009284</v>
       </c>
       <c r="C192">
-        <v>-0.00257507782745925</v>
+        <v>-0.002567577046115064</v>
       </c>
       <c r="D192">
-        <v>-0.001484048670110075</v>
+        <v>-0.00149378399851135</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -6510,19 +7465,24 @@
           <t>Zimbabwe</t>
         </is>
       </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>-0.002079931395679867</v>
+        <v>-0.00211123012817243</v>
       </c>
       <c r="B193">
-        <v>0.000392446743877249</v>
+        <v>0.000382097654721255</v>
       </c>
       <c r="C193">
-        <v>-0.002864824883434364</v>
+        <v>-0.00287542543761494</v>
       </c>
       <c r="D193">
-        <v>-0.001295037907925369</v>
+        <v>-0.00134703481872992</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -6540,6 +7500,11 @@
       <c r="H193" t="inlineStr">
         <is>
           <t>Zimbabwe</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>

--- a/results/results_all.xlsx
+++ b/results/results_all.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,20 +1294,20 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.0005619878784038094</v>
+        <v>0.0002201819487233274</v>
       </c>
       <c r="B26">
-        <v>0.0001292300401959141</v>
+        <v>0.0006120050918964706</v>
       </c>
       <c r="C26">
-        <v>-0.0008204479587956377</v>
+        <v>-0.001003828235069614</v>
       </c>
       <c r="D26">
-        <v>-0.0003035277980119812</v>
+        <v>0.001444192132516269</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1320,31 +1320,31 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-0.0004968516975658617</v>
+        <v>-0.0001792861712108831</v>
       </c>
       <c r="B27">
-        <v>0.0001089399651025916</v>
+        <v>0.0003886917445861953</v>
       </c>
       <c r="C27">
-        <v>-0.0007147316277710449</v>
+        <v>-0.0009566696603832737</v>
       </c>
       <c r="D27">
-        <v>-0.0002789717673606786</v>
+        <v>0.0005980973179615075</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1357,31 +1357,31 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>-0.000547396567649375</v>
+        <v>0.0003588612622465966</v>
       </c>
       <c r="B28">
-        <v>5.058321955519811e-06</v>
+        <v>0.0005955149404639663</v>
       </c>
       <c r="C28">
-        <v>-0.0005575132115604146</v>
+        <v>-0.0008321686186813359</v>
       </c>
       <c r="D28">
-        <v>-0.0005372799237383354</v>
+        <v>0.001549891143174529</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1394,31 +1394,31 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>-0.0004488305301508537</v>
+        <v>-0.001402488249281558</v>
       </c>
       <c r="B29">
-        <v>9.743101952207174e-05</v>
+        <v>0.0008135261671422151</v>
       </c>
       <c r="C29">
-        <v>-0.0006436925691949971</v>
+        <v>-0.003029540583565988</v>
       </c>
       <c r="D29">
-        <v>-0.0002539684911067102</v>
+        <v>0.0002245640850028726</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1431,31 +1431,31 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-0.0005619878784038094</v>
+        <v>0.0002201819487233274</v>
       </c>
       <c r="B30">
-        <v>0.0001292300401959141</v>
+        <v>0.0006120050918964706</v>
       </c>
       <c r="C30">
-        <v>-0.0008204479587956377</v>
+        <v>-0.001003828235069614</v>
       </c>
       <c r="D30">
-        <v>-0.0003035277980119812</v>
+        <v>0.001444192132516269</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1468,31 +1468,31 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>-0.001058839575969671</v>
+        <v>4.089577751244426e-05</v>
       </c>
       <c r="B31">
-        <v>0.0001362819573189238</v>
+        <v>0.000589765668302393</v>
       </c>
       <c r="C31">
-        <v>-0.001331403490607519</v>
+        <v>-0.001138635559092342</v>
       </c>
       <c r="D31">
-        <v>-0.0007862756613318234</v>
+        <v>0.00122042711411723</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1505,31 +1505,31 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>-0.001606236143619046</v>
+        <v>0.0003997570397590408</v>
       </c>
       <c r="B32">
-        <v>0.0001374991079511891</v>
+        <v>0.0005019993379853517</v>
       </c>
       <c r="C32">
-        <v>-0.001881234359521424</v>
+        <v>-0.0006042416362116625</v>
       </c>
       <c r="D32">
-        <v>-0.001331237927716668</v>
+        <v>0.001403755715729744</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1542,31 +1542,31 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.0020550666737699</v>
+        <v>-0.001002731209522517</v>
       </c>
       <c r="B33">
-        <v>0.0001805749128210392</v>
+        <v>0.0005547755817511327</v>
       </c>
       <c r="C33">
-        <v>-0.002416216499411978</v>
+        <v>-0.002112282373024782</v>
       </c>
       <c r="D33">
-        <v>-0.001693916848127821</v>
+        <v>0.0001068199539797487</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1579,31 +1579,31 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.0002201819487233274</v>
+        <v>-2.558964167359354e-05</v>
       </c>
       <c r="B34">
-        <v>0.0006120050918964706</v>
+        <v>0.0002002268294116211</v>
       </c>
       <c r="C34">
-        <v>-0.001003828235069614</v>
+        <v>-0.0004260433004968358</v>
       </c>
       <c r="D34">
-        <v>0.001444192132516269</v>
+        <v>0.0003748640171496487</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1627,20 +1627,20 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>-0.0001792861712108831</v>
+        <v>4.390981807113537e-05</v>
       </c>
       <c r="B35">
-        <v>0.0003886917445861953</v>
+        <v>0.0001415859891947497</v>
       </c>
       <c r="C35">
-        <v>-0.0009566696603832737</v>
+        <v>-0.000239262160318364</v>
       </c>
       <c r="D35">
-        <v>0.0005980973179615075</v>
+        <v>0.0003270817964606348</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1664,20 +1664,20 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.0003588612622465966</v>
+        <v>0.0002670803610039673</v>
       </c>
       <c r="B36">
-        <v>0.0005955149404639663</v>
+        <v>0.0001864275867094721</v>
       </c>
       <c r="C36">
-        <v>-0.0008321686186813359</v>
+        <v>-0.0001057748124149768</v>
       </c>
       <c r="D36">
-        <v>0.001549891143174529</v>
+        <v>0.0006399355344229114</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1701,20 +1701,20 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.001402488249281558</v>
+        <v>0.0001999704109765881</v>
       </c>
       <c r="B37">
-        <v>0.0008135261671422151</v>
+        <v>0.0001853133192590185</v>
       </c>
       <c r="C37">
-        <v>-0.003029540583565988</v>
+        <v>-0.000170656227541449</v>
       </c>
       <c r="D37">
-        <v>0.0002245640850028726</v>
+        <v>0.0005705970494946251</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1738,20 +1738,20 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.0002201819487233274</v>
+        <v>-2.558964167359354e-05</v>
       </c>
       <c r="B38">
-        <v>0.0006120050918964706</v>
+        <v>0.0002002268294116211</v>
       </c>
       <c r="C38">
-        <v>-0.001003828235069614</v>
+        <v>-0.0004260433004968358</v>
       </c>
       <c r="D38">
-        <v>0.001444192132516269</v>
+        <v>0.0003748640171496487</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1775,20 +1775,20 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>4.089577751244426e-05</v>
+        <v>1.832017639754183e-05</v>
       </c>
       <c r="B39">
-        <v>0.000589765668302393</v>
+        <v>0.0002508285906740999</v>
       </c>
       <c r="C39">
-        <v>-0.001138635559092342</v>
+        <v>-0.000483337004950658</v>
       </c>
       <c r="D39">
-        <v>0.00122042711411723</v>
+        <v>0.0005199773577457416</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1812,20 +1812,20 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.0003997570397590408</v>
+        <v>0.0002854005374015091</v>
       </c>
       <c r="B40">
-        <v>0.0005019993379853517</v>
+        <v>0.0003582733165203646</v>
       </c>
       <c r="C40">
-        <v>-0.0006042416362116625</v>
+        <v>-0.0004311460956392202</v>
       </c>
       <c r="D40">
-        <v>0.001403755715729744</v>
+        <v>0.001001947170442238</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -1849,20 +1849,20 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>-0.001002731209522517</v>
+        <v>0.0004853709483780972</v>
       </c>
       <c r="B41">
-        <v>0.0005547755817511327</v>
+        <v>0.000400400637420438</v>
       </c>
       <c r="C41">
-        <v>-0.002112282373024782</v>
+        <v>-0.0003154303264627787</v>
       </c>
       <c r="D41">
-        <v>0.0001068199539797487</v>
+        <v>0.001286172223218973</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -1886,20 +1886,20 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>-2.558964167359354e-05</v>
+        <v>-4.685255737856129e-05</v>
       </c>
       <c r="B42">
-        <v>0.0002002268294116211</v>
+        <v>0.0001398262496850397</v>
       </c>
       <c r="C42">
-        <v>-0.0004260433004968358</v>
+        <v>-0.0003265050567486407</v>
       </c>
       <c r="D42">
-        <v>0.0003748640171496487</v>
+        <v>0.0002327999419915182</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -1923,20 +1923,20 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>4.390981807113537e-05</v>
+        <v>-6.766860446451309e-05</v>
       </c>
       <c r="B43">
-        <v>0.0001415859891947497</v>
+        <v>0.000195146449027357</v>
       </c>
       <c r="C43">
-        <v>-0.000239262160318364</v>
+        <v>-0.0004579615025192271</v>
       </c>
       <c r="D43">
-        <v>0.0003270817964606348</v>
+        <v>0.000322624293590201</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -1960,20 +1960,20 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.0002670803610039673</v>
+        <v>6.635704029388193e-05</v>
       </c>
       <c r="B44">
-        <v>0.0001864275867094721</v>
+        <v>0.0001516007979779091</v>
       </c>
       <c r="C44">
-        <v>-0.0001057748124149768</v>
+        <v>-0.0002368445556619362</v>
       </c>
       <c r="D44">
-        <v>0.0006399355344229114</v>
+        <v>0.0003695586362497</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -1997,20 +1997,20 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.0001999704109765881</v>
+        <v>9.497528623303528e-05</v>
       </c>
       <c r="B45">
-        <v>0.0001853133192590185</v>
+        <v>0.0001980356091000323</v>
       </c>
       <c r="C45">
-        <v>-0.000170656227541449</v>
+        <v>-0.0003010959319670294</v>
       </c>
       <c r="D45">
-        <v>0.0005705970494946251</v>
+        <v>0.0004910465044330999</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2034,20 +2034,20 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>-2.558964167359354e-05</v>
+        <v>-4.685255737856129e-05</v>
       </c>
       <c r="B46">
-        <v>0.0002002268294116211</v>
+        <v>0.0001398262496850397</v>
       </c>
       <c r="C46">
-        <v>-0.0004260433004968358</v>
+        <v>-0.0003265050567486407</v>
       </c>
       <c r="D46">
-        <v>0.0003748640171496487</v>
+        <v>0.0002327999419915182</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2071,20 +2071,20 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>1.832017639754183e-05</v>
+        <v>-0.0001145211618430744</v>
       </c>
       <c r="B47">
-        <v>0.0002508285906740999</v>
+        <v>0.0002430001247580761</v>
       </c>
       <c r="C47">
-        <v>-0.000483337004950658</v>
+        <v>-0.0006005214113592266</v>
       </c>
       <c r="D47">
-        <v>0.0005199773577457416</v>
+        <v>0.0003714790876730779</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2108,20 +2108,20 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.0002854005374015091</v>
+        <v>-4.816412154919244e-05</v>
       </c>
       <c r="B48">
-        <v>0.0003582733165203646</v>
+        <v>0.0002575023724231923</v>
       </c>
       <c r="C48">
-        <v>-0.0004311460956392202</v>
+        <v>-0.0005631688663955771</v>
       </c>
       <c r="D48">
-        <v>0.001001947170442238</v>
+        <v>0.0004668406232971922</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2145,20 +2145,20 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.0004853709483780972</v>
+        <v>4.681116468384285e-05</v>
       </c>
       <c r="B49">
-        <v>0.000400400637420438</v>
+        <v>0.0003932467521496271</v>
       </c>
       <c r="C49">
-        <v>-0.0003154303264627787</v>
+        <v>-0.0007396823396154114</v>
       </c>
       <c r="D49">
-        <v>0.001286172223218973</v>
+        <v>0.0008333046689830971</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2182,20 +2182,20 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>-4.685255737856129e-05</v>
+        <v>-0.0002204648515807315</v>
       </c>
       <c r="B50">
-        <v>0.0001398262496850397</v>
+        <v>0.0002806273239929576</v>
       </c>
       <c r="C50">
-        <v>-0.0003265050567486407</v>
+        <v>-0.0007817194995666467</v>
       </c>
       <c r="D50">
-        <v>0.0002327999419915182</v>
+        <v>0.0003407897964051838</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2219,20 +2219,20 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>-6.766860446451309e-05</v>
+        <v>-0.0001472109890470325</v>
       </c>
       <c r="B51">
-        <v>0.000195146449027357</v>
+        <v>0.0002609256948667726</v>
       </c>
       <c r="C51">
-        <v>-0.0004579615025192271</v>
+        <v>-0.0006690623787805776</v>
       </c>
       <c r="D51">
-        <v>0.000322624293590201</v>
+        <v>0.0003746404006865126</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2256,20 +2256,20 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>6.635704029388193e-05</v>
+        <v>-0.0004800924542267307</v>
       </c>
       <c r="B52">
-        <v>0.0001516007979779091</v>
+        <v>0.0002293871092109284</v>
       </c>
       <c r="C52">
-        <v>-0.0002368445556619362</v>
+        <v>-0.0009388666726485874</v>
       </c>
       <c r="D52">
-        <v>0.0003695586362497</v>
+        <v>-2.131823580487399e-05</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2293,20 +2293,20 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>9.497528623303528e-05</v>
+        <v>0.0003871997136736864</v>
       </c>
       <c r="B53">
-        <v>0.0001980356091000323</v>
+        <v>0.0002392343398014961</v>
       </c>
       <c r="C53">
-        <v>-0.0003010959319670294</v>
+        <v>-9.126896592930587e-05</v>
       </c>
       <c r="D53">
-        <v>0.0004910465044330999</v>
+        <v>0.0008656683932766787</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2330,20 +2330,20 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>-4.685255737856129e-05</v>
+        <v>-0.0002204648515807315</v>
       </c>
       <c r="B54">
-        <v>0.0001398262496850397</v>
+        <v>0.0002806273239929576</v>
       </c>
       <c r="C54">
-        <v>-0.0003265050567486407</v>
+        <v>-0.0007817194995666467</v>
       </c>
       <c r="D54">
-        <v>0.0002327999419915182</v>
+        <v>0.0003407897964051838</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2367,20 +2367,20 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>-0.0001145211618430744</v>
+        <v>-0.000367675840627764</v>
       </c>
       <c r="B55">
-        <v>0.0002430001247580761</v>
+        <v>0.0004433623151912031</v>
       </c>
       <c r="C55">
-        <v>-0.0006005214113592266</v>
+        <v>-0.00125440047101017</v>
       </c>
       <c r="D55">
-        <v>0.0003714790876730779</v>
+        <v>0.0005190487897546423</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2404,20 +2404,20 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>-4.816412154919244e-05</v>
+        <v>-0.0008477682948544947</v>
       </c>
       <c r="B56">
-        <v>0.0002575023724231923</v>
+        <v>0.0004493198462292537</v>
       </c>
       <c r="C56">
-        <v>-0.0005631688663955771</v>
+        <v>-0.001746407987313002</v>
       </c>
       <c r="D56">
-        <v>0.0004668406232971922</v>
+        <v>5.087139760401262e-05</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2441,20 +2441,20 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>4.681116468384285e-05</v>
+        <v>-0.0004605685811808083</v>
       </c>
       <c r="B57">
-        <v>0.0003932467521496271</v>
+        <v>0.0004326536839181931</v>
       </c>
       <c r="C57">
-        <v>-0.0007396823396154114</v>
+        <v>-0.001325875949017194</v>
       </c>
       <c r="D57">
-        <v>0.0008333046689830971</v>
+        <v>0.000404738786655578</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2478,20 +2478,20 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>-0.0002204648515807315</v>
+        <v>-0.000232264029942831</v>
       </c>
       <c r="B58">
-        <v>0.0002806273239929576</v>
+        <v>0.000192215750721323</v>
       </c>
       <c r="C58">
-        <v>-0.0007817194995666467</v>
+        <v>-0.000616695531385477</v>
       </c>
       <c r="D58">
-        <v>0.0003407897964051838</v>
+        <v>0.0001521674714998149</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2515,20 +2515,20 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>-0.0001472109890470325</v>
+        <v>0.000103634152184645</v>
       </c>
       <c r="B59">
-        <v>0.0002609256948667726</v>
+        <v>0.0001263903831617777</v>
       </c>
       <c r="C59">
-        <v>-0.0006690623787805776</v>
+        <v>-0.0001491466141389104</v>
       </c>
       <c r="D59">
-        <v>0.0003746404006865126</v>
+        <v>0.0003564149185082003</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2552,20 +2552,20 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.0004800924542267307</v>
+        <v>-0.0001946580630955608</v>
       </c>
       <c r="B60">
-        <v>0.0002293871092109284</v>
+        <v>0.0001633713084996018</v>
       </c>
       <c r="C60">
-        <v>-0.0009388666726485874</v>
+        <v>-0.0005214006800947643</v>
       </c>
       <c r="D60">
-        <v>-2.131823580487399e-05</v>
+        <v>0.0001320845539036427</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2589,20 +2589,20 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.0003871997136736864</v>
+        <v>-0.0001641255949532035</v>
       </c>
       <c r="B61">
-        <v>0.0002392343398014961</v>
+        <v>0.0001846163779695508</v>
       </c>
       <c r="C61">
-        <v>-9.126896592930587e-05</v>
+        <v>-0.0005333583508923051</v>
       </c>
       <c r="D61">
-        <v>0.0008656683932766787</v>
+        <v>0.0002051071609858981</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2626,20 +2626,20 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.0002204648515807315</v>
+        <v>-0.000232264029942831</v>
       </c>
       <c r="B62">
-        <v>0.0002806273239929576</v>
+        <v>0.000192215750721323</v>
       </c>
       <c r="C62">
-        <v>-0.0007817194995666467</v>
+        <v>-0.000616695531385477</v>
       </c>
       <c r="D62">
-        <v>0.0003407897964051838</v>
+        <v>0.0001521674714998149</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2663,20 +2663,20 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>-0.000367675840627764</v>
+        <v>-0.000128629877758186</v>
       </c>
       <c r="B63">
-        <v>0.0004433623151912031</v>
+        <v>0.000221290611300785</v>
       </c>
       <c r="C63">
-        <v>-0.00125440047101017</v>
+        <v>-0.0005712111003597562</v>
       </c>
       <c r="D63">
-        <v>0.0005190487897546423</v>
+        <v>0.0003139513448433841</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2700,20 +2700,20 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>-0.0008477682948544947</v>
+        <v>-0.0003232879408537469</v>
       </c>
       <c r="B64">
-        <v>0.0004493198462292537</v>
+        <v>0.0002941073191525418</v>
       </c>
       <c r="C64">
-        <v>-0.001746407987313002</v>
+        <v>-0.0009115025791588305</v>
       </c>
       <c r="D64">
-        <v>5.087139760401262e-05</v>
+        <v>0.0002649266974513367</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2737,20 +2737,20 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>-0.0004605685811808083</v>
+        <v>-0.0004874135358069504</v>
       </c>
       <c r="B65">
-        <v>0.0004326536839181931</v>
+        <v>0.0003534832229451514</v>
       </c>
       <c r="C65">
-        <v>-0.001325875949017194</v>
+        <v>-0.001194379981697253</v>
       </c>
       <c r="D65">
-        <v>0.000404738786655578</v>
+        <v>0.0002195529100833525</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2774,20 +2774,20 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>-0.000232264029942831</v>
+        <v>0.0001357004064984869</v>
       </c>
       <c r="B66">
-        <v>0.000192215750721323</v>
+        <v>9.26564527512749e-05</v>
       </c>
       <c r="C66">
-        <v>-0.000616695531385477</v>
+        <v>-4.961249900406294e-05</v>
       </c>
       <c r="D66">
-        <v>0.0001521674714998149</v>
+        <v>0.0003210133120010366</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -2811,20 +2811,20 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.000103634152184645</v>
+        <v>0.000407800467832</v>
       </c>
       <c r="B67">
-        <v>0.0001263903831617777</v>
+        <v>0.0001489210774820311</v>
       </c>
       <c r="C67">
-        <v>-0.0001491466141389104</v>
+        <v>0.0001099583128679378</v>
       </c>
       <c r="D67">
-        <v>0.0003564149185082003</v>
+        <v>0.0007056426227960621</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -2848,20 +2848,20 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>-0.0001946580630955608</v>
+        <v>-0.0002072409816145708</v>
       </c>
       <c r="B68">
-        <v>0.0001633713084996018</v>
+        <v>0.0001224028933910548</v>
       </c>
       <c r="C68">
-        <v>-0.0005214006800947643</v>
+        <v>-0.0004520467683966804</v>
       </c>
       <c r="D68">
-        <v>0.0001320845539036427</v>
+        <v>3.756480516753878e-05</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -2885,20 +2885,20 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>-0.0001641255949532035</v>
+        <v>4.044177067251239e-05</v>
       </c>
       <c r="B69">
-        <v>0.0001846163779695508</v>
+        <v>7.460800459631489e-05</v>
       </c>
       <c r="C69">
-        <v>-0.0005333583508923051</v>
+        <v>-0.0001087742385201174</v>
       </c>
       <c r="D69">
-        <v>0.0002051071609858981</v>
+        <v>0.0001896577798651422</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -2922,20 +2922,20 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>-0.000232264029942831</v>
+        <v>0.0001357004064984869</v>
       </c>
       <c r="B70">
-        <v>0.000192215750721323</v>
+        <v>9.26564527512749e-05</v>
       </c>
       <c r="C70">
-        <v>-0.000616695531385477</v>
+        <v>-4.961249900406294e-05</v>
       </c>
       <c r="D70">
-        <v>0.0001521674714998149</v>
+        <v>0.0003210133120010366</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -2959,20 +2959,20 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.000128629877758186</v>
+        <v>0.0005435008743304868</v>
       </c>
       <c r="B71">
-        <v>0.000221290611300785</v>
+        <v>0.0001890572747998868</v>
       </c>
       <c r="C71">
-        <v>-0.0005712111003597562</v>
+        <v>0.0001653863247307132</v>
       </c>
       <c r="D71">
-        <v>0.0003139513448433841</v>
+        <v>0.0009216154239302604</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -2996,20 +2996,20 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.0003232879408537469</v>
+        <v>0.000336259892715916</v>
       </c>
       <c r="B72">
-        <v>0.0002941073191525418</v>
+        <v>0.0002091839563255582</v>
       </c>
       <c r="C72">
-        <v>-0.0009115025791588305</v>
+        <v>-8.210801993520042e-05</v>
       </c>
       <c r="D72">
-        <v>0.0002649266974513367</v>
+        <v>0.0007546278053670325</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3033,20 +3033,20 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>-0.0004874135358069504</v>
+        <v>0.0003767016633884285</v>
       </c>
       <c r="B73">
-        <v>0.0003534832229451514</v>
+        <v>0.0002405627604434689</v>
       </c>
       <c r="C73">
-        <v>-0.001194379981697253</v>
+        <v>-0.0001044238574985093</v>
       </c>
       <c r="D73">
-        <v>0.0002195529100833525</v>
+        <v>0.0008578271842753663</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3070,20 +3070,20 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.0001357004064984869</v>
+        <v>0.001270002059060534</v>
       </c>
       <c r="B74">
-        <v>9.26564527512749e-05</v>
+        <v>0.00095601993849584</v>
       </c>
       <c r="C74">
-        <v>-4.961249900406294e-05</v>
+        <v>-0.000642037817931146</v>
       </c>
       <c r="D74">
-        <v>0.0003210133120010366</v>
+        <v>0.003182041936052214</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3096,31 +3096,31 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.000407800467832</v>
+        <v>-0.001151867013766679</v>
       </c>
       <c r="B75">
-        <v>0.0001489210774820311</v>
+        <v>0.0006213863148129929</v>
       </c>
       <c r="C75">
-        <v>0.0001099583128679378</v>
+        <v>-0.002394639643392664</v>
       </c>
       <c r="D75">
-        <v>0.0007056426227960621</v>
+        <v>9.090561585930698e-05</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3133,31 +3133,31 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>-0.0002072409816145708</v>
+        <v>0.0002816305557174123</v>
       </c>
       <c r="B76">
-        <v>0.0001224028933910548</v>
+        <v>0.0004603451173646727</v>
       </c>
       <c r="C76">
-        <v>-0.0004520467683966804</v>
+        <v>-0.000639059679011933</v>
       </c>
       <c r="D76">
-        <v>3.756480516753878e-05</v>
+        <v>0.001202320790446758</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3170,31 +3170,31 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>4.044177067251239e-05</v>
+        <v>-0.0004511940713794605</v>
       </c>
       <c r="B77">
-        <v>7.460800459631489e-05</v>
+        <v>0.00037090397449556</v>
       </c>
       <c r="C77">
-        <v>-0.0001087742385201174</v>
+        <v>-0.001193002020370581</v>
       </c>
       <c r="D77">
-        <v>0.0001896577798651422</v>
+        <v>0.0002906138776116596</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3207,31 +3207,31 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.0001357004064984869</v>
+        <v>0.001270002059060534</v>
       </c>
       <c r="B78">
-        <v>9.26564527512749e-05</v>
+        <v>0.00095601993849584</v>
       </c>
       <c r="C78">
-        <v>-4.961249900406294e-05</v>
+        <v>-0.000642037817931146</v>
       </c>
       <c r="D78">
-        <v>0.0003210133120010366</v>
+        <v>0.003182041936052214</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3244,31 +3244,31 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.0005435008743304868</v>
+        <v>0.0001181350452938552</v>
       </c>
       <c r="B79">
-        <v>0.0001890572747998868</v>
+        <v>0.0005424971652171594</v>
       </c>
       <c r="C79">
-        <v>0.0001653863247307132</v>
+        <v>-0.0009668592851404636</v>
       </c>
       <c r="D79">
-        <v>0.0009216154239302604</v>
+        <v>0.001203129375728174</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3281,31 +3281,31 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.000336259892715916</v>
+        <v>0.0003997656010112675</v>
       </c>
       <c r="B80">
-        <v>0.0002091839563255582</v>
+        <v>0.0008857738935749518</v>
       </c>
       <c r="C80">
-        <v>-8.210801993520042e-05</v>
+        <v>-0.001371782186138636</v>
       </c>
       <c r="D80">
-        <v>0.0007546278053670325</v>
+        <v>0.002171313388161171</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3318,31 +3318,31 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.0003767016633884285</v>
+        <v>-5.142847036819308e-05</v>
       </c>
       <c r="B81">
-        <v>0.0002405627604434689</v>
+        <v>0.0007940997108329373</v>
       </c>
       <c r="C81">
-        <v>-0.0001044238574985093</v>
+        <v>-0.001639627892034068</v>
       </c>
       <c r="D81">
-        <v>0.0008578271842753663</v>
+        <v>0.001536770951297681</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3355,31 +3355,31 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.001270002059060534</v>
+        <v>-0.0001994320236917532</v>
       </c>
       <c r="B82">
-        <v>0.00095601993849584</v>
+        <v>7.271245207130631e-05</v>
       </c>
       <c r="C82">
-        <v>-0.000642037817931146</v>
+        <v>-0.0003448569278343658</v>
       </c>
       <c r="D82">
-        <v>0.003182041936052214</v>
+        <v>-5.400711954914057e-05</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3392,31 +3392,31 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>-0.001151867013766679</v>
+        <v>-7.724875312411543e-05</v>
       </c>
       <c r="B83">
-        <v>0.0006213863148129929</v>
+        <v>6.651407380194304e-05</v>
       </c>
       <c r="C83">
-        <v>-0.002394639643392664</v>
+        <v>-0.0002102769007280015</v>
       </c>
       <c r="D83">
-        <v>9.090561585930698e-05</v>
+        <v>5.577939447977065e-05</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3429,31 +3429,31 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.0002816305557174123</v>
+        <v>-0.0001408620185300962</v>
       </c>
       <c r="B84">
-        <v>0.0004603451173646727</v>
+        <v>4.498113750167654e-05</v>
       </c>
       <c r="C84">
-        <v>-0.000639059679011933</v>
+        <v>-0.0002308242935334493</v>
       </c>
       <c r="D84">
-        <v>0.001202320790446758</v>
+        <v>-5.089974352674315e-05</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3466,31 +3466,31 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>-0.0004511940713794605</v>
+        <v>-4.442708968323954e-05</v>
       </c>
       <c r="B85">
-        <v>0.00037090397449556</v>
+        <v>5.315382986697138e-05</v>
       </c>
       <c r="C85">
-        <v>-0.001193002020370581</v>
+        <v>-0.0001507347494171823</v>
       </c>
       <c r="D85">
-        <v>0.0002906138776116596</v>
+        <v>6.188057005070323e-05</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3503,31 +3503,31 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.001270002059060534</v>
+        <v>-0.0001994320236917532</v>
       </c>
       <c r="B86">
-        <v>0.00095601993849584</v>
+        <v>7.271245207130631e-05</v>
       </c>
       <c r="C86">
-        <v>-0.000642037817931146</v>
+        <v>-0.0003448569278343658</v>
       </c>
       <c r="D86">
-        <v>0.003182041936052214</v>
+        <v>-5.400711954914057e-05</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3540,31 +3540,31 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.0001181350452938552</v>
+        <v>-0.0002766807768158686</v>
       </c>
       <c r="B87">
-        <v>0.0005424971652171594</v>
+        <v>0.0001000524297612685</v>
       </c>
       <c r="C87">
-        <v>-0.0009668592851404636</v>
+        <v>-0.0004767856363384056</v>
       </c>
       <c r="D87">
-        <v>0.001203129375728174</v>
+        <v>-7.657591729333168e-05</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3577,31 +3577,31 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.0003997656010112675</v>
+        <v>-0.0004175427953459648</v>
       </c>
       <c r="B88">
-        <v>0.0008857738935749518</v>
+        <v>0.0001386627971884972</v>
       </c>
       <c r="C88">
-        <v>-0.001371782186138636</v>
+        <v>-0.0006948683897229592</v>
       </c>
       <c r="D88">
-        <v>0.002171313388161171</v>
+        <v>-0.0001402172009689705</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3614,31 +3614,31 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>-5.142847036819308e-05</v>
+        <v>-0.0004619698850292044</v>
       </c>
       <c r="B89">
-        <v>0.0007940997108329373</v>
+        <v>0.0001689282828060155</v>
       </c>
       <c r="C89">
-        <v>-0.001639627892034068</v>
+        <v>-0.0007998264506412355</v>
       </c>
       <c r="D89">
-        <v>0.001536770951297681</v>
+        <v>-0.0001241133194171733</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3651,31 +3651,31 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>-0.0001994320236917532</v>
+        <v>-5.985853429306257e-05</v>
       </c>
       <c r="B90">
-        <v>7.271245207130631e-05</v>
+        <v>0.0001318938195686905</v>
       </c>
       <c r="C90">
-        <v>-0.0003448569278343658</v>
+        <v>-0.0003236461734304435</v>
       </c>
       <c r="D90">
-        <v>-5.400711954914057e-05</v>
+        <v>0.0002039291048443183</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3688,31 +3688,31 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>-7.724875312411543e-05</v>
+        <v>7.36814745683981e-05</v>
       </c>
       <c r="B91">
-        <v>6.651407380194304e-05</v>
+        <v>0.0001340448797720169</v>
       </c>
       <c r="C91">
-        <v>-0.0002102769007280015</v>
+        <v>-0.0001944082849756357</v>
       </c>
       <c r="D91">
-        <v>5.577939447977065e-05</v>
+        <v>0.000341771234112432</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3725,31 +3725,31 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>-0.0001408620185300962</v>
+        <v>-8.633848523451096e-05</v>
       </c>
       <c r="B92">
-        <v>4.498113750167654e-05</v>
+        <v>9.094620065148773e-05</v>
       </c>
       <c r="C92">
-        <v>-0.0002308242935334493</v>
+        <v>-0.0002682308865374864</v>
       </c>
       <c r="D92">
-        <v>-5.089974352674315e-05</v>
+        <v>9.555391606846449e-05</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3762,31 +3762,31 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>-4.442708968323954e-05</v>
+        <v>-4.580555675841009e-05</v>
       </c>
       <c r="B93">
-        <v>5.315382986697138e-05</v>
+        <v>9.445085176246188e-05</v>
       </c>
       <c r="C93">
-        <v>-0.0001507347494171823</v>
+        <v>-0.0002347072602833339</v>
       </c>
       <c r="D93">
-        <v>6.188057005070323e-05</v>
+        <v>0.0001430961467665137</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3799,31 +3799,31 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>-0.0001994320236917532</v>
+        <v>-5.985853429306257e-05</v>
       </c>
       <c r="B94">
-        <v>7.271245207130631e-05</v>
+        <v>0.0001318938195686905</v>
       </c>
       <c r="C94">
-        <v>-0.0003448569278343658</v>
+        <v>-0.0003236461734304435</v>
       </c>
       <c r="D94">
-        <v>-5.400711954914057e-05</v>
+        <v>0.0002039291048443183</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3836,31 +3836,31 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>-0.0002766807768158686</v>
+        <v>1.382294027533554e-05</v>
       </c>
       <c r="B95">
-        <v>0.0001000524297612685</v>
+        <v>0.0001863030929767714</v>
       </c>
       <c r="C95">
-        <v>-0.0004767856363384056</v>
+        <v>-0.0003587832456782073</v>
       </c>
       <c r="D95">
-        <v>-7.657591729333168e-05</v>
+        <v>0.0003864291262288784</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3873,31 +3873,31 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>-0.0004175427953459648</v>
+        <v>-7.251554495917543e-05</v>
       </c>
       <c r="B96">
-        <v>0.0001386627971884972</v>
+        <v>0.0002468671407787427</v>
       </c>
       <c r="C96">
-        <v>-0.0006948683897229592</v>
+        <v>-0.0005662498265166608</v>
       </c>
       <c r="D96">
-        <v>-0.0001402172009689705</v>
+        <v>0.0004212187365983099</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3910,31 +3910,31 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>-0.0004619698850292044</v>
+        <v>-0.0001183211017175855</v>
       </c>
       <c r="B97">
-        <v>0.0001689282828060155</v>
+        <v>0.0003091905854835548</v>
       </c>
       <c r="C97">
-        <v>-0.0007998264506412355</v>
+        <v>-0.0007367022726846951</v>
       </c>
       <c r="D97">
-        <v>-0.0001241133194171733</v>
+        <v>0.0005000600692495241</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3947,31 +3947,31 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>-5.985853429306259e-05</v>
+        <v>0.0001708374195756793</v>
       </c>
       <c r="B98">
-        <v>0.0001318938195686905</v>
+        <v>8.622411555904972e-05</v>
       </c>
       <c r="C98">
-        <v>-0.0003236461734304435</v>
+        <v>-1.610811542420131e-06</v>
       </c>
       <c r="D98">
-        <v>0.0002039291048443183</v>
+        <v>0.0003432856506937787</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -3995,20 +3995,20 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>7.368147456839809e-05</v>
+        <v>-5.967902789422059e-05</v>
       </c>
       <c r="B99">
-        <v>0.0001340448797720169</v>
+        <v>9.676822373298307e-05</v>
       </c>
       <c r="C99">
-        <v>-0.0001944082849756358</v>
+        <v>-0.0002532154753601868</v>
       </c>
       <c r="D99">
-        <v>0.000341771234112432</v>
+        <v>0.0001338574195717455</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4032,20 +4032,20 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>-8.633848523451096e-05</v>
+        <v>7.699148333744962e-05</v>
       </c>
       <c r="B100">
-        <v>9.094620065148774e-05</v>
+        <v>9.121809328717843e-05</v>
       </c>
       <c r="C100">
-        <v>-0.0002682308865374864</v>
+        <v>-0.0001054447032369072</v>
       </c>
       <c r="D100">
-        <v>9.555391606846452e-05</v>
+        <v>0.0002594276699118065</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4069,20 +4069,20 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>-4.580555675841012e-05</v>
+        <v>3.993406867768568e-05</v>
       </c>
       <c r="B101">
-        <v>9.445085176246186e-05</v>
+        <v>0.0001004883107484108</v>
       </c>
       <c r="C101">
-        <v>-0.0002347072602833339</v>
+        <v>-0.000161042552819136</v>
       </c>
       <c r="D101">
-        <v>0.0001430961467665136</v>
+        <v>0.0002409106901745073</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -4106,20 +4106,20 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>-5.985853429306259e-05</v>
+        <v>0.0001708374195756793</v>
       </c>
       <c r="B102">
-        <v>0.0001318938195686905</v>
+        <v>8.622411555904972e-05</v>
       </c>
       <c r="C102">
-        <v>-0.0003236461734304435</v>
+        <v>-1.610811542420131e-06</v>
       </c>
       <c r="D102">
-        <v>0.0002039291048443183</v>
+        <v>0.0003432856506937787</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -4143,20 +4143,20 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1.38229402753355e-05</v>
+        <v>0.0001111583916814587</v>
       </c>
       <c r="B103">
-        <v>0.0001863030929767714</v>
+        <v>0.0001269981652860166</v>
       </c>
       <c r="C103">
-        <v>-0.0003587832456782073</v>
+        <v>-0.0001428379388905745</v>
       </c>
       <c r="D103">
-        <v>0.0003864291262288782</v>
+        <v>0.000365154722253492</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -4180,20 +4180,20 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>-7.251554495917546e-05</v>
+        <v>0.0001881498750189083</v>
       </c>
       <c r="B104">
-        <v>0.0002468671407787427</v>
+        <v>0.0001607022305736397</v>
       </c>
       <c r="C104">
-        <v>-0.0005662498265166608</v>
+        <v>-0.0001332545861283711</v>
       </c>
       <c r="D104">
-        <v>0.0004212187365983099</v>
+        <v>0.0005095543361661877</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -4217,20 +4217,20 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>-0.0001183211017175856</v>
+        <v>0.000228083943696594</v>
       </c>
       <c r="B105">
-        <v>0.0003091905854835547</v>
+        <v>0.0002006737568801271</v>
       </c>
       <c r="C105">
-        <v>-0.000736702272684695</v>
+        <v>-0.0001732635700636602</v>
       </c>
       <c r="D105">
-        <v>0.000500060069249524</v>
+        <v>0.0006294314574568482</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -4254,20 +4254,20 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.0001708374195756793</v>
+        <v>-1.66569586816261e-05</v>
       </c>
       <c r="B106">
-        <v>8.622411555904972e-05</v>
+        <v>9.116759201162136e-05</v>
       </c>
       <c r="C106">
-        <v>-1.610811542420131e-06</v>
+        <v>-0.0001989921427048688</v>
       </c>
       <c r="D106">
-        <v>0.0003432856506937787</v>
+        <v>0.0001656782253416166</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4280,31 +4280,31 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>-5.967902789422059e-05</v>
+        <v>6.211779452256108e-05</v>
       </c>
       <c r="B107">
-        <v>9.676822373298307e-05</v>
+        <v>6.469912063135165e-05</v>
       </c>
       <c r="C107">
-        <v>-0.0002532154753601868</v>
+        <v>-6.728044674014223e-05</v>
       </c>
       <c r="D107">
-        <v>0.0001338574195717455</v>
+        <v>0.0001915160357852644</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4317,31 +4317,31 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>7.699148333744962e-05</v>
+        <v>3.130690390465953e-05</v>
       </c>
       <c r="B108">
-        <v>9.121809328717843e-05</v>
+        <v>8.824788208368569e-05</v>
       </c>
       <c r="C108">
-        <v>-0.0001054447032369072</v>
+        <v>-0.0001451888602627118</v>
       </c>
       <c r="D108">
-        <v>0.0002594276699118065</v>
+        <v>0.0002078026680720309</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4354,31 +4354,31 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>3.993406867768568e-05</v>
+        <v>-7.754972725374483e-05</v>
       </c>
       <c r="B109">
-        <v>0.0001004883107484108</v>
+        <v>7.621476246153733e-05</v>
       </c>
       <c r="C109">
-        <v>-0.000161042552819136</v>
+        <v>-0.0002299792521768195</v>
       </c>
       <c r="D109">
-        <v>0.0002409106901745073</v>
+        <v>7.487979766932984e-05</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4391,31 +4391,31 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.0001708374195756793</v>
+        <v>-1.66569586816261e-05</v>
       </c>
       <c r="B110">
-        <v>8.622411555904972e-05</v>
+        <v>9.116759201162136e-05</v>
       </c>
       <c r="C110">
-        <v>-1.610811542420131e-06</v>
+        <v>-0.0001989921427048688</v>
       </c>
       <c r="D110">
-        <v>0.0003432856506937787</v>
+        <v>0.0001656782253416166</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4428,31 +4428,31 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.0001111583916814587</v>
+        <v>4.546083584093497e-05</v>
       </c>
       <c r="B111">
-        <v>0.0001269981652860166</v>
+        <v>0.0001272903828603515</v>
       </c>
       <c r="C111">
-        <v>-0.0001428379388905745</v>
+        <v>-0.000209119929879768</v>
       </c>
       <c r="D111">
-        <v>0.000365154722253492</v>
+        <v>0.0003000416015616379</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4465,31 +4465,31 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.0001881498750189083</v>
+        <v>7.676773974559451e-05</v>
       </c>
       <c r="B112">
-        <v>0.0001607022305736397</v>
+        <v>0.0001775219246137594</v>
       </c>
       <c r="C112">
-        <v>-0.0001332545861283711</v>
+        <v>-0.0002782761094819242</v>
       </c>
       <c r="D112">
-        <v>0.0005095543361661877</v>
+        <v>0.0004318115889731133</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4502,31 +4502,31 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.000228083943696594</v>
+        <v>-7.819875081503199e-07</v>
       </c>
       <c r="B113">
-        <v>0.0002006737568801271</v>
+        <v>0.0002257444294063698</v>
       </c>
       <c r="C113">
-        <v>-0.0001732635700636602</v>
+        <v>-0.0004522708463208898</v>
       </c>
       <c r="D113">
-        <v>0.0006294314574568482</v>
+        <v>0.0004507068713045892</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4539,31 +4539,31 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>-1.66569586816261e-05</v>
+        <v>-0.0003766277045100802</v>
       </c>
       <c r="B114">
-        <v>9.116759201162136e-05</v>
+        <v>0.0001778018596307347</v>
       </c>
       <c r="C114">
-        <v>-0.0001989921427048688</v>
+        <v>-0.0007322314237715496</v>
       </c>
       <c r="D114">
-        <v>0.0001656782253416166</v>
+        <v>-2.102398524861078e-05</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4576,31 +4576,31 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>6.211779452256108e-05</v>
+        <v>3.091511355763591e-05</v>
       </c>
       <c r="B115">
-        <v>6.469912063135165e-05</v>
+        <v>0.000134265345946731</v>
       </c>
       <c r="C115">
-        <v>-6.728044674014223e-05</v>
+        <v>-0.0002376155783358261</v>
       </c>
       <c r="D115">
-        <v>0.0001915160357852644</v>
+        <v>0.0002994458054510979</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4613,31 +4613,31 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>3.130690390465953e-05</v>
+        <v>-0.0002439677275477261</v>
       </c>
       <c r="B116">
-        <v>8.824788208368569e-05</v>
+        <v>0.0001144898675726485</v>
       </c>
       <c r="C116">
-        <v>-0.0001451888602627118</v>
+        <v>-0.000472947462693023</v>
       </c>
       <c r="D116">
-        <v>0.0002078026680720309</v>
+        <v>-1.498799240242914e-05</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4650,31 +4650,31 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>-7.754972725374483e-05</v>
+        <v>0.0001783631211537904</v>
       </c>
       <c r="B117">
-        <v>7.621476246153733e-05</v>
+        <v>0.0001422735919650947</v>
       </c>
       <c r="C117">
-        <v>-0.0002299792521768195</v>
+        <v>-0.000106184062776399</v>
       </c>
       <c r="D117">
-        <v>7.487979766932984e-05</v>
+        <v>0.0004629103050839799</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4687,31 +4687,31 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>-1.66569586816261e-05</v>
+        <v>-0.0003766277045100802</v>
       </c>
       <c r="B118">
-        <v>9.116759201162136e-05</v>
+        <v>0.0001778018596307347</v>
       </c>
       <c r="C118">
-        <v>-0.0001989921427048688</v>
+        <v>-0.0007322314237715496</v>
       </c>
       <c r="D118">
-        <v>0.0001656782253416166</v>
+        <v>-2.102398524861078e-05</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4724,31 +4724,31 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>4.546083584093497e-05</v>
+        <v>-0.0003457125909524443</v>
       </c>
       <c r="B119">
-        <v>0.0001272903828603515</v>
+        <v>0.0001917885203380769</v>
       </c>
       <c r="C119">
-        <v>-0.000209119929879768</v>
+        <v>-0.0007292896316285981</v>
       </c>
       <c r="D119">
-        <v>0.0003000416015616379</v>
+        <v>3.786444972370947e-05</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4761,31 +4761,31 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>7.676773974559451e-05</v>
+        <v>-0.0005896803185001703</v>
       </c>
       <c r="B120">
-        <v>0.0001775219246137594</v>
+        <v>0.0002535039578562089</v>
       </c>
       <c r="C120">
-        <v>-0.0002782761094819242</v>
+        <v>-0.001096688234212588</v>
       </c>
       <c r="D120">
-        <v>0.0004318115889731133</v>
+        <v>-8.267240278775248e-05</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4798,31 +4798,31 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>-7.819875081503199e-07</v>
+        <v>-0.0004113171973463799</v>
       </c>
       <c r="B121">
-        <v>0.0002257444294063698</v>
+        <v>0.0003480314564849443</v>
       </c>
       <c r="C121">
-        <v>-0.0004522708463208898</v>
+        <v>-0.001107380110316269</v>
       </c>
       <c r="D121">
-        <v>0.0004507068713045892</v>
+        <v>0.0002847457156235087</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4835,31 +4835,31 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>-0.0003766277045100802</v>
+        <v>0.0006676469708724526</v>
       </c>
       <c r="B122">
-        <v>0.0001778018596307347</v>
+        <v>0.0003661643854585401</v>
       </c>
       <c r="C122">
-        <v>-0.0007322314237715496</v>
+        <v>-6.468180004462758e-05</v>
       </c>
       <c r="D122">
-        <v>-2.102398524861078e-05</v>
+        <v>0.001399975741789533</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4872,31 +4872,31 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>3.091511355763591e-05</v>
+        <v>0.0003216136967489104</v>
       </c>
       <c r="B123">
-        <v>0.000134265345946731</v>
+        <v>0.0002532260953809473</v>
       </c>
       <c r="C123">
-        <v>-0.0002376155783358261</v>
+        <v>-0.0001848384940129843</v>
       </c>
       <c r="D123">
-        <v>0.0002994458054510979</v>
+        <v>0.0008280658875108051</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4909,31 +4909,31 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>-0.0002439677275477261</v>
+        <v>-0.0001997455225160826</v>
       </c>
       <c r="B124">
-        <v>0.0001144898675726485</v>
+        <v>0.0002942711619649865</v>
       </c>
       <c r="C124">
-        <v>-0.000472947462693023</v>
+        <v>-0.0007882878464460555</v>
       </c>
       <c r="D124">
-        <v>-1.498799240242914e-05</v>
+        <v>0.0003887968014138903</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4946,31 +4946,31 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.0001783631211537904</v>
+        <v>-0.0007564227938803465</v>
       </c>
       <c r="B125">
-        <v>0.0001422735919650947</v>
+        <v>0.0001388097726720369</v>
       </c>
       <c r="C125">
-        <v>-0.000106184062776399</v>
+        <v>-0.00103404233922442</v>
       </c>
       <c r="D125">
-        <v>0.0004629103050839799</v>
+        <v>-0.0004788032485362726</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4983,31 +4983,31 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>-0.0003766277045100802</v>
+        <v>0.0006676469708724526</v>
       </c>
       <c r="B126">
-        <v>0.0001778018596307347</v>
+        <v>0.0003661643854585401</v>
       </c>
       <c r="C126">
-        <v>-0.0007322314237715496</v>
+        <v>-6.468180004462758e-05</v>
       </c>
       <c r="D126">
-        <v>-2.102398524861078e-05</v>
+        <v>0.001399975741789533</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5020,31 +5020,31 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>-0.0003457125909524443</v>
+        <v>0.000989260667621363</v>
       </c>
       <c r="B127">
-        <v>0.0001917885203380769</v>
+        <v>0.0004355778496875071</v>
       </c>
       <c r="C127">
-        <v>-0.0007292896316285981</v>
+        <v>0.0001181049682463487</v>
       </c>
       <c r="D127">
-        <v>3.786444972370947e-05</v>
+        <v>0.001860416366996377</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5057,31 +5057,31 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>-0.0005896803185001703</v>
+        <v>0.0007895151451052804</v>
       </c>
       <c r="B128">
-        <v>0.0002535039578562089</v>
+        <v>0.0005978613588722266</v>
       </c>
       <c r="C128">
-        <v>-0.001096688234212588</v>
+        <v>-0.0004062075726391729</v>
       </c>
       <c r="D128">
-        <v>-8.267240278775248e-05</v>
+        <v>0.001985237862849733</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5094,31 +5094,31 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>-0.0004113171973463799</v>
+        <v>3.309235122493382e-05</v>
       </c>
       <c r="B129">
-        <v>0.0003480314564849443</v>
+        <v>0.0006105940256943884</v>
       </c>
       <c r="C129">
-        <v>-0.001107380110316269</v>
+        <v>-0.001188095700163843</v>
       </c>
       <c r="D129">
-        <v>0.0002847457156235087</v>
+        <v>0.001254280402613711</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5131,31 +5131,31 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.0006676469708724526</v>
+        <v>-0.0003670078685262732</v>
       </c>
       <c r="B130">
-        <v>0.0003661643854585401</v>
+        <v>0.00044915452737621</v>
       </c>
       <c r="C130">
-        <v>-6.468180004462758e-05</v>
+        <v>-0.001265316923278693</v>
       </c>
       <c r="D130">
-        <v>0.001399975741789533</v>
+        <v>0.0005313011862261468</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5168,31 +5168,31 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.0003216136967489104</v>
+        <v>-9.633643990276776e-05</v>
       </c>
       <c r="B131">
-        <v>0.0002532260953809473</v>
+        <v>0.0006089581845099031</v>
       </c>
       <c r="C131">
-        <v>-0.0001848384940129843</v>
+        <v>-0.001314252808922574</v>
       </c>
       <c r="D131">
-        <v>0.0008280658875108051</v>
+        <v>0.001121579929117038</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5205,31 +5205,31 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>-0.0001997455225160826</v>
+        <v>0.0004820268115803027</v>
       </c>
       <c r="B132">
-        <v>0.0002942711619649865</v>
+        <v>0.0005170745998140171</v>
       </c>
       <c r="C132">
-        <v>-0.0007882878464460555</v>
+        <v>-0.0005521223880477315</v>
       </c>
       <c r="D132">
-        <v>0.0003887968014138903</v>
+        <v>0.001516176011208337</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5242,31 +5242,31 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>-0.0007564227938803465</v>
+        <v>4.233743577359186e-05</v>
       </c>
       <c r="B133">
-        <v>0.0001388097726720369</v>
+        <v>0.0007076812064632199</v>
       </c>
       <c r="C133">
-        <v>-0.00103404233922442</v>
+        <v>-0.001373024977152848</v>
       </c>
       <c r="D133">
-        <v>-0.0004788032485362726</v>
+        <v>0.001457699848700032</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5279,31 +5279,31 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.0006676469708724526</v>
+        <v>-0.0003670078685262732</v>
       </c>
       <c r="B134">
-        <v>0.0003661643854585401</v>
+        <v>0.00044915452737621</v>
       </c>
       <c r="C134">
-        <v>-6.468180004462758e-05</v>
+        <v>-0.001265316923278693</v>
       </c>
       <c r="D134">
-        <v>0.001399975741789533</v>
+        <v>0.0005313011862261468</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5316,31 +5316,31 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.000989260667621363</v>
+        <v>-0.000463344308429041</v>
       </c>
       <c r="B135">
-        <v>0.0004355778496875071</v>
+        <v>0.0007389611606723151</v>
       </c>
       <c r="C135">
-        <v>0.0001181049682463487</v>
+        <v>-0.001941266629773671</v>
       </c>
       <c r="D135">
-        <v>0.001860416366996377</v>
+        <v>0.001014578012915589</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5353,31 +5353,31 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.0007895151451052804</v>
+        <v>1.868250315126168e-05</v>
       </c>
       <c r="B136">
-        <v>0.0005978613588722266</v>
+        <v>0.001156254712730248</v>
       </c>
       <c r="C136">
-        <v>-0.0004062075726391729</v>
+        <v>-0.002293826922309235</v>
       </c>
       <c r="D136">
-        <v>0.001985237862849733</v>
+        <v>0.002331191928611758</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5390,31 +5390,31 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>3.309235122493382e-05</v>
+        <v>6.101993892485355e-05</v>
       </c>
       <c r="B137">
-        <v>0.0006105940256943884</v>
+        <v>0.001426293928929373</v>
       </c>
       <c r="C137">
-        <v>-0.001188095700163843</v>
+        <v>-0.002791567918933893</v>
       </c>
       <c r="D137">
-        <v>0.001254280402613711</v>
+        <v>0.0029136077967836</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5427,31 +5427,31 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>-0.0003670078685262732</v>
+        <v>5.455505037162823e-05</v>
       </c>
       <c r="B138">
-        <v>0.00044915452737621</v>
+        <v>0.0002092856311352009</v>
       </c>
       <c r="C138">
-        <v>-0.001265316923278693</v>
+        <v>-0.0003640162118987736</v>
       </c>
       <c r="D138">
-        <v>0.0005313011862261468</v>
+        <v>0.00047312631264203</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5464,31 +5464,31 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>-9.633643990276776e-05</v>
+        <v>-0.0003071341947885999</v>
       </c>
       <c r="B139">
-        <v>0.0006089581845099031</v>
+        <v>0.0001951112293397086</v>
       </c>
       <c r="C139">
-        <v>-0.001314252808922574</v>
+        <v>-0.000697356653468017</v>
       </c>
       <c r="D139">
-        <v>0.001121579929117038</v>
+        <v>8.308826389081728e-05</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5501,31 +5501,31 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.0004820268115803027</v>
+        <v>-0.0001937232858272221</v>
       </c>
       <c r="B140">
-        <v>0.0005170745998140171</v>
+        <v>0.0001334727413945847</v>
       </c>
       <c r="C140">
-        <v>-0.0005521223880477315</v>
+        <v>-0.0004606687686163916</v>
       </c>
       <c r="D140">
-        <v>0.001516176011208337</v>
+        <v>7.322219696194736e-05</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5538,31 +5538,31 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>4.233743577359186e-05</v>
+        <v>1.666498919648855e-05</v>
       </c>
       <c r="B141">
-        <v>0.0007076812064632199</v>
+        <v>0.000127264894120021</v>
       </c>
       <c r="C141">
-        <v>-0.001373024977152848</v>
+        <v>-0.0002378647990435535</v>
       </c>
       <c r="D141">
-        <v>0.001457699848700032</v>
+        <v>0.0002711947774365306</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5575,31 +5575,31 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>-0.0003670078685262732</v>
+        <v>5.455505037162823e-05</v>
       </c>
       <c r="B142">
-        <v>0.00044915452737621</v>
+        <v>0.0002092856311352009</v>
       </c>
       <c r="C142">
-        <v>-0.001265316923278693</v>
+        <v>-0.0003640162118987736</v>
       </c>
       <c r="D142">
-        <v>0.0005313011862261468</v>
+        <v>0.00047312631264203</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5612,31 +5612,31 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>-0.000463344308429041</v>
+        <v>-0.0002525791444169717</v>
       </c>
       <c r="B143">
-        <v>0.0007389611606723151</v>
+        <v>0.0003722504330057597</v>
       </c>
       <c r="C143">
-        <v>-0.001941266629773671</v>
+        <v>-0.0009970800104284912</v>
       </c>
       <c r="D143">
-        <v>0.001014578012915589</v>
+        <v>0.0004919217215945478</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5649,31 +5649,31 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1.868250315126168e-05</v>
+        <v>-0.0004463024302441938</v>
       </c>
       <c r="B144">
-        <v>0.001156254712730248</v>
+        <v>0.0004762659490962416</v>
       </c>
       <c r="C144">
-        <v>-0.002293826922309235</v>
+        <v>-0.001398834328436677</v>
       </c>
       <c r="D144">
-        <v>0.002331191928611758</v>
+        <v>0.0005062294679482894</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5686,31 +5686,31 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>6.101993892485355e-05</v>
+        <v>-0.0004296374410477052</v>
       </c>
       <c r="B145">
-        <v>0.001426293928929373</v>
+        <v>0.0005174942043368571</v>
       </c>
       <c r="C145">
-        <v>-0.002791567918933893</v>
+        <v>-0.001464625849721419</v>
       </c>
       <c r="D145">
-        <v>0.0029136077967836</v>
+        <v>0.000605350967626009</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5723,31 +5723,31 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>South Asia</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>5.455505037162823e-05</v>
+        <v>-1.409889571733323e-05</v>
       </c>
       <c r="B146">
-        <v>0.0002092856311352009</v>
+        <v>2.539388099402339e-05</v>
       </c>
       <c r="C146">
-        <v>-0.0003640162118987736</v>
+        <v>-6.488665770538001e-05</v>
       </c>
       <c r="D146">
-        <v>0.00047312631264203</v>
+        <v>3.668886627071356e-05</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5760,31 +5760,31 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>-0.0003071341947885999</v>
+        <v>-2.809857213627767e-06</v>
       </c>
       <c r="B147">
-        <v>0.0001951112293397086</v>
+        <v>2.726866186064941e-05</v>
       </c>
       <c r="C147">
-        <v>-0.000697356653468017</v>
+        <v>-5.734718093492659e-05</v>
       </c>
       <c r="D147">
-        <v>8.308826389081728e-05</v>
+        <v>5.172746650767106e-05</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5797,31 +5797,31 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>-0.0001937232858272221</v>
+        <v>-4.310012798296193e-05</v>
       </c>
       <c r="B148">
-        <v>0.0001334727413945847</v>
+        <v>2.511700147176825e-05</v>
       </c>
       <c r="C148">
-        <v>-0.0004606687686163916</v>
+        <v>-9.333413092649843e-05</v>
       </c>
       <c r="D148">
-        <v>7.322219696194736e-05</v>
+        <v>7.133874960574575e-06</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5834,31 +5834,31 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1.666498919648855e-05</v>
+        <v>2.994449214044488e-05</v>
       </c>
       <c r="B149">
-        <v>0.000127264894120021</v>
+        <v>2.787666893378131e-05</v>
       </c>
       <c r="C149">
-        <v>-0.0002378647990435535</v>
+        <v>-2.580884572711774e-05</v>
       </c>
       <c r="D149">
-        <v>0.0002711947774365306</v>
+        <v>8.56978300080075e-05</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5871,31 +5871,31 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>5.455505037162823e-05</v>
+        <v>-1.409889571733323e-05</v>
       </c>
       <c r="B150">
-        <v>0.0002092856311352009</v>
+        <v>2.539388099402339e-05</v>
       </c>
       <c r="C150">
-        <v>-0.0003640162118987736</v>
+        <v>-6.488665770538001e-05</v>
       </c>
       <c r="D150">
-        <v>0.00047312631264203</v>
+        <v>3.668886627071356e-05</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5908,31 +5908,31 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>-0.0002525791444169717</v>
+        <v>-1.690875293096099e-05</v>
       </c>
       <c r="B151">
-        <v>0.0003722504330057597</v>
+        <v>4.173103439465916e-05</v>
       </c>
       <c r="C151">
-        <v>-0.0009970800104284912</v>
+        <v>-0.0001003708217202793</v>
       </c>
       <c r="D151">
-        <v>0.0004919217215945478</v>
+        <v>6.655331585835733e-05</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5945,31 +5945,31 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>-0.0004463024302441938</v>
+        <v>-6.000888091392292e-05</v>
       </c>
       <c r="B152">
-        <v>0.0004762659490962416</v>
+        <v>5.158386850465954e-05</v>
       </c>
       <c r="C152">
-        <v>-0.001398834328436677</v>
+        <v>-0.000163176617923242</v>
       </c>
       <c r="D152">
-        <v>0.0005062294679482894</v>
+        <v>4.315885609539615e-05</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5982,31 +5982,31 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>-0.0004296374410477052</v>
+        <v>-3.006438877347804e-05</v>
       </c>
       <c r="B153">
-        <v>0.0005174942043368571</v>
+        <v>6.428632343753507e-05</v>
       </c>
       <c r="C153">
-        <v>-0.001464625849721419</v>
+        <v>-0.0001586370356485482</v>
       </c>
       <c r="D153">
-        <v>0.000605350967626009</v>
+        <v>9.85082581015921e-05</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6019,31 +6019,31 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>South Asia</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>-1.409889571733321e-05</v>
+        <v>8.468933952130193e-05</v>
       </c>
       <c r="B154">
-        <v>2.539388099402339e-05</v>
+        <v>0.0005893761753788712</v>
       </c>
       <c r="C154">
-        <v>-6.488665770537999e-05</v>
+        <v>-0.001094063011236441</v>
       </c>
       <c r="D154">
-        <v>3.668886627071357e-05</v>
+        <v>0.001263441690279044</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6056,31 +6056,31 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>-2.809857213627735e-06</v>
+        <v>-4.690635304409497e-06</v>
       </c>
       <c r="B155">
-        <v>2.72686618606494e-05</v>
+        <v>0.0005764189397301361</v>
       </c>
       <c r="C155">
-        <v>-5.734718093492653e-05</v>
+        <v>-0.001157528514764682</v>
       </c>
       <c r="D155">
-        <v>5.172746650767106e-05</v>
+        <v>0.001148147244155863</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6093,31 +6093,31 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>-4.310012798296187e-05</v>
+        <v>0.0009963623217742264</v>
       </c>
       <c r="B156">
-        <v>2.511700147176826e-05</v>
+        <v>0.0007348101714181264</v>
       </c>
       <c r="C156">
-        <v>-9.33341309264984e-05</v>
+        <v>-0.0004732580210620263</v>
       </c>
       <c r="D156">
-        <v>7.133874960574656e-06</v>
+        <v>0.002465982664610479</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6130,31 +6130,31 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>2.99444921404449e-05</v>
+        <v>0.0006328390271258406</v>
       </c>
       <c r="B157">
-        <v>2.787666893378132e-05</v>
+        <v>0.0006436494235175407</v>
       </c>
       <c r="C157">
-        <v>-2.580884572711773e-05</v>
+        <v>-0.0006544598199092409</v>
       </c>
       <c r="D157">
-        <v>8.569783000800753e-05</v>
+        <v>0.001920137874160922</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6167,31 +6167,31 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>-1.409889571733321e-05</v>
+        <v>8.468933952130193e-05</v>
       </c>
       <c r="B158">
-        <v>2.539388099402339e-05</v>
+        <v>0.0005893761753788712</v>
       </c>
       <c r="C158">
-        <v>-6.488665770537999e-05</v>
+        <v>-0.001094063011236441</v>
       </c>
       <c r="D158">
-        <v>3.668886627071357e-05</v>
+        <v>0.001263441690279044</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6204,31 +6204,31 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>-1.690875293096094e-05</v>
+        <v>7.999870421689243e-05</v>
       </c>
       <c r="B159">
-        <v>4.173103439465914e-05</v>
+        <v>0.0007689331863985558</v>
       </c>
       <c r="C159">
-        <v>-0.0001003708217202792</v>
+        <v>-0.001457867668580219</v>
       </c>
       <c r="D159">
-        <v>6.655331585835733e-05</v>
+        <v>0.001617865077014004</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6241,31 +6241,31 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>-6.000888091392281e-05</v>
+        <v>0.001076361025991119</v>
       </c>
       <c r="B160">
-        <v>5.158386850465952e-05</v>
+        <v>0.001311983186665209</v>
       </c>
       <c r="C160">
-        <v>-0.0001631766179232419</v>
+        <v>-0.0015476053473393</v>
       </c>
       <c r="D160">
-        <v>4.315885609539622e-05</v>
+        <v>0.003700327399321537</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6278,31 +6278,31 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>-3.006438877347791e-05</v>
+        <v>0.001709200053116959</v>
       </c>
       <c r="B161">
-        <v>6.428632343753504e-05</v>
+        <v>0.001351633980581474</v>
       </c>
       <c r="C161">
-        <v>-0.000158637035648548</v>
+        <v>-0.000994067908045989</v>
       </c>
       <c r="D161">
-        <v>9.850825810159217e-05</v>
+        <v>0.004412468014279908</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6315,31 +6315,31 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Latin America &amp; Caribbean</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>8.468933952130193e-05</v>
+        <v>-0.0002801823760613004</v>
       </c>
       <c r="B162">
-        <v>0.0005893761753788712</v>
+        <v>0.0002183929940153486</v>
       </c>
       <c r="C162">
-        <v>-0.001094063011236441</v>
+        <v>-0.0007169683640919976</v>
       </c>
       <c r="D162">
-        <v>0.001263441690279044</v>
+        <v>0.0001566036119693968</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6352,31 +6352,31 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>-4.690635304409497e-06</v>
+        <v>0.0001076958476493891</v>
       </c>
       <c r="B163">
-        <v>0.0005764189397301361</v>
+        <v>0.0002710891379591441</v>
       </c>
       <c r="C163">
-        <v>-0.001157528514764682</v>
+        <v>-0.0004344824282688992</v>
       </c>
       <c r="D163">
-        <v>0.001148147244155863</v>
+        <v>0.0006498741235676774</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6389,31 +6389,31 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.0009963623217742264</v>
+        <v>0.0002558501456301635</v>
       </c>
       <c r="B164">
-        <v>0.0007348101714181264</v>
+        <v>0.000259921294800485</v>
       </c>
       <c r="C164">
-        <v>-0.0004732580210620263</v>
+        <v>-0.0002639924439708065</v>
       </c>
       <c r="D164">
-        <v>0.002465982664610479</v>
+        <v>0.0007756927352311335</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6426,31 +6426,31 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.0006328390271258406</v>
+        <v>0.0001745046610530329</v>
       </c>
       <c r="B165">
-        <v>0.0006436494235175407</v>
+        <v>0.0003219976642910535</v>
       </c>
       <c r="C165">
-        <v>-0.0006544598199092409</v>
+        <v>-0.000469490667529074</v>
       </c>
       <c r="D165">
-        <v>0.001920137874160922</v>
+        <v>0.0008184999896351398</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6463,31 +6463,31 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>8.468933952130193e-05</v>
+        <v>-0.0002801823760613004</v>
       </c>
       <c r="B166">
-        <v>0.0005893761753788712</v>
+        <v>0.0002183929940153486</v>
       </c>
       <c r="C166">
-        <v>-0.001094063011236441</v>
+        <v>-0.0007169683640919976</v>
       </c>
       <c r="D166">
-        <v>0.001263441690279044</v>
+        <v>0.0001566036119693968</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6500,31 +6500,31 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>7.999870421689243e-05</v>
+        <v>-0.0001724865284119113</v>
       </c>
       <c r="B167">
-        <v>0.0007689331863985558</v>
+        <v>0.0003698938554620979</v>
       </c>
       <c r="C167">
-        <v>-0.001457867668580219</v>
+        <v>-0.000912274239336107</v>
       </c>
       <c r="D167">
-        <v>0.001617865077014004</v>
+        <v>0.0005673011825122845</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6537,31 +6537,31 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.001076361025991119</v>
+        <v>8.336361721825225e-05</v>
       </c>
       <c r="B168">
-        <v>0.001311983186665209</v>
+        <v>0.0005122147473095434</v>
       </c>
       <c r="C168">
-        <v>-0.0015476053473393</v>
+        <v>-0.0009410658774008346</v>
       </c>
       <c r="D168">
-        <v>0.003700327399321537</v>
+        <v>0.001107793111837339</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6574,31 +6574,31 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.001709200053116959</v>
+        <v>0.0002578682782712852</v>
       </c>
       <c r="B169">
-        <v>0.001351633980581474</v>
+        <v>0.000686845532333789</v>
       </c>
       <c r="C169">
-        <v>-0.000994067908045989</v>
+        <v>-0.001115822786396293</v>
       </c>
       <c r="D169">
-        <v>0.004412468014279908</v>
+        <v>0.001631559342938863</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6611,31 +6611,31 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Latin America &amp; Caribbean</t>
+          <t>East Asia &amp; Pacific</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>-0.0002801823760613004</v>
+        <v>-0.0002440439200475543</v>
       </c>
       <c r="B170">
-        <v>0.0002183929940153486</v>
+        <v>0.001407749483694402</v>
       </c>
       <c r="C170">
-        <v>-0.0007169683640919976</v>
+        <v>-0.003059542887436359</v>
       </c>
       <c r="D170">
-        <v>0.0001566036119693968</v>
+        <v>0.00257145504734125</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -6659,20 +6659,20 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.0001076958476493891</v>
+        <v>-0.001019759030975342</v>
       </c>
       <c r="B171">
-        <v>0.0002710891379591441</v>
+        <v>0.000547791427564521</v>
       </c>
       <c r="C171">
-        <v>-0.0004344824282688992</v>
+        <v>-0.002115341886104383</v>
       </c>
       <c r="D171">
-        <v>0.0006498741235676774</v>
+        <v>7.58238241537004e-05</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -6696,20 +6696,20 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.0002558501456301635</v>
+        <v>-0.001376859537139859</v>
       </c>
       <c r="B172">
-        <v>0.000259921294800485</v>
+        <v>0.000738860958552935</v>
       </c>
       <c r="C172">
-        <v>-0.0002639924439708065</v>
+        <v>-0.002854581454245729</v>
       </c>
       <c r="D172">
-        <v>0.0007756927352311335</v>
+        <v>0.0001008623799660109</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -6733,20 +6733,20 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.0001745046610530329</v>
+        <v>0.001227274960024443</v>
       </c>
       <c r="B173">
-        <v>0.0003219976642910535</v>
+        <v>0.0006306923501182774</v>
       </c>
       <c r="C173">
-        <v>-0.000469490667529074</v>
+        <v>-3.410974021211236e-05</v>
       </c>
       <c r="D173">
-        <v>0.0008184999896351398</v>
+        <v>0.002488659660260998</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6759,7 +6759,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -6770,20 +6770,20 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>-0.0002801823760613004</v>
+        <v>-0.0002440439200475543</v>
       </c>
       <c r="B174">
-        <v>0.0002183929940153486</v>
+        <v>0.001407749483694402</v>
       </c>
       <c r="C174">
-        <v>-0.0007169683640919976</v>
+        <v>-0.003059542887436359</v>
       </c>
       <c r="D174">
-        <v>0.0001566036119693968</v>
+        <v>0.00257145504734125</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -6807,20 +6807,20 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>-0.0001724865284119113</v>
+        <v>-0.001263802951022896</v>
       </c>
       <c r="B175">
-        <v>0.0003698938554620979</v>
+        <v>0.001919715929320707</v>
       </c>
       <c r="C175">
-        <v>-0.000912274239336107</v>
+        <v>-0.005103234809664309</v>
       </c>
       <c r="D175">
-        <v>0.0005673011825122845</v>
+        <v>0.002575628907618518</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -6844,20 +6844,20 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>8.336361721825225e-05</v>
+        <v>-0.002640662488162755</v>
       </c>
       <c r="B176">
-        <v>0.0005122147473095434</v>
+        <v>0.002567688804489667</v>
       </c>
       <c r="C176">
-        <v>-0.0009410658774008346</v>
+        <v>-0.007776040097142087</v>
       </c>
       <c r="D176">
-        <v>0.001107793111837339</v>
+        <v>0.002494715120816578</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6870,7 +6870,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -6881,20 +6881,20 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.0002578682782712852</v>
+        <v>-0.001413387528138312</v>
       </c>
       <c r="B177">
-        <v>0.000686845532333789</v>
+        <v>0.003068954548207451</v>
       </c>
       <c r="C177">
-        <v>-0.001115822786396293</v>
+        <v>-0.007551296624553215</v>
       </c>
       <c r="D177">
-        <v>0.001631559342938863</v>
+        <v>0.00472452156827659</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -6918,20 +6918,20 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>-0.0002440439200475543</v>
+        <v>-0.000284593990979883</v>
       </c>
       <c r="B178">
-        <v>0.001407749483694402</v>
+        <v>0.0002192006046823371</v>
       </c>
       <c r="C178">
-        <v>-0.003059542887436359</v>
+        <v>-0.0007229952003445573</v>
       </c>
       <c r="D178">
-        <v>0.00257145504734125</v>
+        <v>0.0001538072183847913</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6944,31 +6944,31 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>-0.001019759030975342</v>
+        <v>-0.0005183972512444845</v>
       </c>
       <c r="B179">
-        <v>0.000547791427564521</v>
+        <v>0.00012268938659198</v>
       </c>
       <c r="C179">
-        <v>-0.002115341886104383</v>
+        <v>-0.0007637760244284444</v>
       </c>
       <c r="D179">
-        <v>7.58238241537004e-05</v>
+        <v>-0.0002730184780605246</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6981,31 +6981,31 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>-0.001376859537139859</v>
+        <v>-0.001227689280088839</v>
       </c>
       <c r="B180">
-        <v>0.000738860958552935</v>
+        <v>0.0001813207516703751</v>
       </c>
       <c r="C180">
-        <v>-0.002854581454245729</v>
+        <v>-0.00159033078342959</v>
       </c>
       <c r="D180">
-        <v>0.0001008623799660109</v>
+        <v>-0.0008650477767480891</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7018,31 +7018,31 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.001227274960024443</v>
+        <v>-8.054960585922279e-05</v>
       </c>
       <c r="B181">
-        <v>0.0006306923501182774</v>
+        <v>0.000190467547346526</v>
       </c>
       <c r="C181">
-        <v>-3.410974021211236e-05</v>
+        <v>-0.0004614847005522748</v>
       </c>
       <c r="D181">
-        <v>0.002488659660260998</v>
+        <v>0.0003003854888338292</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7055,31 +7055,31 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>-0.0002440439200475543</v>
+        <v>-0.000284593990979883</v>
       </c>
       <c r="B182">
-        <v>0.001407749483694402</v>
+        <v>0.0002192006046823371</v>
       </c>
       <c r="C182">
-        <v>-0.003059542887436359</v>
+        <v>-0.0007229952003445573</v>
       </c>
       <c r="D182">
-        <v>0.00257145504734125</v>
+        <v>0.0001538072183847913</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7092,31 +7092,31 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>-0.001263802951022896</v>
+        <v>-0.0008029912422243675</v>
       </c>
       <c r="B183">
-        <v>0.001919715929320707</v>
+        <v>0.0002873618347414153</v>
       </c>
       <c r="C183">
-        <v>-0.005103234809664309</v>
+        <v>-0.001377714911707198</v>
       </c>
       <c r="D183">
-        <v>0.002575628907618518</v>
+        <v>-0.0002282675727415368</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7129,31 +7129,31 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>-0.002640662488162755</v>
+        <v>-0.002030680522313207</v>
       </c>
       <c r="B184">
-        <v>0.002567688804489667</v>
+        <v>0.0002684482619009284</v>
       </c>
       <c r="C184">
-        <v>-0.007776040097142087</v>
+        <v>-0.002567577046115064</v>
       </c>
       <c r="D184">
-        <v>0.002494715120816578</v>
+        <v>-0.00149378399851135</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7166,31 +7166,31 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>East Asia &amp; Pacific</t>
+          <t>Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>-0.001413387528138312</v>
+        <v>-0.00211123012817243</v>
       </c>
       <c r="B185">
-        <v>0.003068954548207451</v>
+        <v>0.000382097654721255</v>
       </c>
       <c r="C185">
-        <v>-0.007551296624553215</v>
+        <v>-0.00287542543761494</v>
       </c>
       <c r="D185">
-        <v>0.00472452156827659</v>
+        <v>-0.00134703481872992</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7203,306 +7203,10 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
-        <is>
-          <t>East Asia &amp; Pacific</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186">
-        <v>-0.000284593990979883</v>
-      </c>
-      <c r="B186">
-        <v>0.0002192006046823371</v>
-      </c>
-      <c r="C186">
-        <v>-0.0007229952003445573</v>
-      </c>
-      <c r="D186">
-        <v>0.0001538072183847913</v>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>marginal</t>
-        </is>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187">
-        <v>-0.0005183972512444845</v>
-      </c>
-      <c r="B187">
-        <v>0.00012268938659198</v>
-      </c>
-      <c r="C187">
-        <v>-0.0007637760244284444</v>
-      </c>
-      <c r="D187">
-        <v>-0.0002730184780605246</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>marginal</t>
-        </is>
-      </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188">
-        <v>-0.001227689280088839</v>
-      </c>
-      <c r="B188">
-        <v>0.0001813207516703751</v>
-      </c>
-      <c r="C188">
-        <v>-0.00159033078342959</v>
-      </c>
-      <c r="D188">
-        <v>-0.0008650477767480891</v>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>marginal</t>
-        </is>
-      </c>
-      <c r="G188">
-        <v>2</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189">
-        <v>-8.054960585922279e-05</v>
-      </c>
-      <c r="B189">
-        <v>0.000190467547346526</v>
-      </c>
-      <c r="C189">
-        <v>-0.0004614847005522748</v>
-      </c>
-      <c r="D189">
-        <v>0.0003003854888338292</v>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>marginal</t>
-        </is>
-      </c>
-      <c r="G189">
-        <v>3</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190">
-        <v>-0.000284593990979883</v>
-      </c>
-      <c r="B190">
-        <v>0.0002192006046823371</v>
-      </c>
-      <c r="C190">
-        <v>-0.0007229952003445573</v>
-      </c>
-      <c r="D190">
-        <v>0.0001538072183847913</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G190">
-        <v>0</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191">
-        <v>-0.0008029912422243675</v>
-      </c>
-      <c r="B191">
-        <v>0.0002873618347414153</v>
-      </c>
-      <c r="C191">
-        <v>-0.001377714911707198</v>
-      </c>
-      <c r="D191">
-        <v>-0.0002282675727415368</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G191">
-        <v>1</v>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192">
-        <v>-0.002030680522313207</v>
-      </c>
-      <c r="B192">
-        <v>0.0002684482619009284</v>
-      </c>
-      <c r="C192">
-        <v>-0.002567577046115064</v>
-      </c>
-      <c r="D192">
-        <v>-0.00149378399851135</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G192">
-        <v>2</v>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193">
-        <v>-0.00211123012817243</v>
-      </c>
-      <c r="B193">
-        <v>0.000382097654721255</v>
-      </c>
-      <c r="C193">
-        <v>-0.00287542543761494</v>
-      </c>
-      <c r="D193">
-        <v>-0.00134703481872992</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>ZWE</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>cumulative</t>
-        </is>
-      </c>
-      <c r="G193">
-        <v>3</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
         <is>
           <t>Sub-Saharan Africa</t>
         </is>
